--- a/static/tmp/planificacion3.xlsx
+++ b/static/tmp/planificacion3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,13 +459,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81312</v>
+        <v>81316</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45173.6125</v>
+        <v>45174.6125</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45173.90902777778</v>
+        <v>45174.90902777778</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>81804</v>
+        <v>81808</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45173.25</v>
+        <v>45174.25</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45173.57638888889</v>
+        <v>45174.57638888889</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +487,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>81805</v>
+        <v>81810</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45173.33333333334</v>
+        <v>45174.33333333334</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45173.65972222222</v>
+        <v>45174.65972222222</v>
       </c>
     </row>
     <row r="5">
@@ -501,13 +501,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>81814</v>
+        <v>81811</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45173.41666666666</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45173.74305555555</v>
+        <v>45174.74305555555</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81820</v>
+        <v>81812</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45173.5</v>
+        <v>45174.5</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45173.82638888889</v>
+        <v>45174.82638888889</v>
       </c>
     </row>
     <row r="7">
@@ -529,13 +529,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82158</v>
+        <v>82179</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45173.35972222222</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45173.53819444445</v>
+        <v>45174.70486111111</v>
       </c>
     </row>
     <row r="8">
@@ -543,13 +543,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82297</v>
+        <v>82281</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45173.43819444445</v>
+        <v>45174.5625</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45173.75069444445</v>
+        <v>45174.90486111111</v>
       </c>
     </row>
     <row r="9">
@@ -557,13 +557,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82336</v>
+        <v>82286</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45173.50555555556</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45173.85416666666</v>
+        <v>45174.92569444444</v>
       </c>
     </row>
     <row r="10">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82354</v>
+        <v>82291</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45173.42222222222</v>
+        <v>45174.5</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45173.72083333333</v>
+        <v>45174.84236111111</v>
       </c>
     </row>
     <row r="11">
@@ -585,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82371</v>
+        <v>82292</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45173.57083333333</v>
+        <v>45174.60416666666</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45173.86736111111</v>
+        <v>45174.94652777778</v>
       </c>
     </row>
     <row r="12">
@@ -599,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82525</v>
+        <v>82295</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45173.31319444445</v>
+        <v>45174.53125</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45173.62638888889</v>
+        <v>45174.87361111111</v>
       </c>
     </row>
     <row r="13">
@@ -613,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>82595</v>
+        <v>82298</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45173.58333333334</v>
+        <v>45174.31319444445</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45173.78819444445</v>
+        <v>45174.62569444445</v>
       </c>
     </row>
     <row r="14">
@@ -627,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>82636</v>
+        <v>82319</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45173.30138888889</v>
+        <v>45174.41180555556</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45173.62222222222</v>
+        <v>45174.76041666666</v>
       </c>
     </row>
     <row r="15">
@@ -641,13 +641,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82643</v>
+        <v>82320</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45173.5</v>
+        <v>45174.55763888889</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45173.82638888889</v>
+        <v>45174.8625</v>
       </c>
     </row>
     <row r="16">
@@ -655,13 +655,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82644</v>
+        <v>82321</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45173.36111111111</v>
+        <v>45174.48472222222</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45173.53819444445</v>
+        <v>45174.78333333333</v>
       </c>
     </row>
     <row r="17">
@@ -669,13 +669,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>82647</v>
+        <v>82386</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45173.27777777778</v>
+        <v>45174.30902777778</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45173.57291666666</v>
+        <v>45174.62638888889</v>
       </c>
     </row>
     <row r="18">
@@ -683,13 +683,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>82675</v>
+        <v>82528</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45173.27083333334</v>
+        <v>45174.43819444445</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45173.55277777778</v>
+        <v>45174.75138888889</v>
       </c>
     </row>
     <row r="19">
@@ -697,13 +697,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>82676</v>
+        <v>82620</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45173.375</v>
+        <v>45174.37430555555</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45173.65694444445</v>
+        <v>45174.72986111111</v>
       </c>
     </row>
     <row r="20">
@@ -711,13 +711,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>82677</v>
+        <v>82621</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45173.45763888889</v>
+        <v>45174.41597222222</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45173.81319444445</v>
+        <v>45174.77152777778</v>
       </c>
     </row>
     <row r="21">
@@ -725,13 +725,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>82685</v>
+        <v>82625</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45173.29166666666</v>
+        <v>45174.27013888889</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45173.62291666667</v>
+        <v>45174.62569444445</v>
       </c>
     </row>
     <row r="22">
@@ -739,13 +739,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>82713</v>
+        <v>82627</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45173.54097222222</v>
+        <v>45174.29097222222</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45173.89652777778</v>
+        <v>45174.64652777778</v>
       </c>
     </row>
     <row r="23">
@@ -753,13 +753,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>82719</v>
+        <v>82634</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45173.44791666666</v>
+        <v>45174.33263888889</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45173.65694444445</v>
+        <v>45174.68819444445</v>
       </c>
     </row>
     <row r="24">
@@ -767,13 +767,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>82725</v>
+        <v>82738</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45173.79166666666</v>
+        <v>45174.5</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45174.14930555555</v>
+        <v>45174.70486111111</v>
       </c>
     </row>
     <row r="25">
@@ -781,13 +781,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>82740</v>
+        <v>82749</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45173.81944444445</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45173.88888888889</v>
+        <v>45174.62361111111</v>
       </c>
     </row>
     <row r="26">
@@ -795,13 +795,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>82741</v>
+        <v>82959</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45173.84375</v>
+        <v>45174.42569444444</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45173.91319444445</v>
+        <v>45174.77361111111</v>
       </c>
     </row>
     <row r="27">
@@ -809,13 +809,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>82745</v>
+        <v>83082</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45173.31875</v>
+        <v>45174.63888888889</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45173.49652777778</v>
+        <v>45174.70833333334</v>
       </c>
     </row>
     <row r="28">
@@ -823,13 +823,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>82748</v>
+        <v>83083</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45173.39583333334</v>
+        <v>45174.63888888889</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45173.72361111111</v>
+        <v>45174.70833333334</v>
       </c>
     </row>
     <row r="29">
@@ -837,13 +837,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>82764</v>
+        <v>83085</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45173.29166666666</v>
+        <v>45174.63888888889</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45173.69166666667</v>
+        <v>45174.70833333334</v>
       </c>
     </row>
     <row r="30">
@@ -851,13 +851,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>82768</v>
+        <v>83094</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45173.29097222222</v>
+        <v>45174.27083333334</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45173.64652777778</v>
+        <v>45174.6</v>
       </c>
     </row>
     <row r="31">
@@ -865,13 +865,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>82770</v>
+        <v>83100</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45173.34375</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45173.63680555556</v>
+        <v>45174.89930555555</v>
       </c>
     </row>
     <row r="32">
@@ -879,13 +879,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>82797</v>
+        <v>83111</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45173.40486111111</v>
+        <v>45174.66944444444</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45173.75277777778</v>
+        <v>45174.97638888889</v>
       </c>
     </row>
     <row r="33">
@@ -893,13 +893,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>82947</v>
+        <v>83136</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45173.34236111111</v>
+        <v>45174.33611111111</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45173.69027777778</v>
+        <v>45174.40555555555</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>83021</v>
+        <v>83142</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45173.6875</v>
+        <v>45174.65347222222</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45174.10069444445</v>
+        <v>45174.95277777778</v>
       </c>
     </row>
     <row r="35">
@@ -921,13 +921,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>83076</v>
+        <v>83147</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45173.33333333334</v>
+        <v>45174.37638888889</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45173.65486111111</v>
+        <v>45174.44583333333</v>
       </c>
     </row>
     <row r="36">
@@ -935,13 +935,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83077</v>
+        <v>83156</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45173.33333333334</v>
+        <v>45174.36319444444</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45173.65486111111</v>
+        <v>45174.53819444445</v>
       </c>
     </row>
     <row r="37">
@@ -949,13 +949,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>83111</v>
+        <v>83160</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45173.66944444444</v>
+        <v>45174.36805555555</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45173.97638888889</v>
+        <v>45174.4375</v>
       </c>
     </row>
     <row r="38">
@@ -963,13 +963,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>83113</v>
+        <v>83165</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45173.33055555556</v>
+        <v>45174.3625</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45173.4</v>
+        <v>45174.53819444445</v>
       </c>
     </row>
     <row r="39">
@@ -977,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>83120</v>
+        <v>83167</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45173.21458333333</v>
+        <v>45174.38472222222</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45173.51527777778</v>
+        <v>45174.45416666667</v>
       </c>
     </row>
     <row r="40">
@@ -991,13 +991,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>83124</v>
+        <v>83168</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45173.29166666666</v>
+        <v>45174.56944444445</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45173.625</v>
+        <v>45174.87083333333</v>
       </c>
     </row>
     <row r="41">
@@ -1005,13 +1005,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>83127</v>
+        <v>83170</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45173.47222222222</v>
+        <v>45174.41388888889</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45173.54166666666</v>
+        <v>45174.48333333333</v>
       </c>
     </row>
     <row r="42">
@@ -1019,13 +1019,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83134</v>
+        <v>83181</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45173.41666666666</v>
+        <v>45174.34583333333</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45173.74236111111</v>
+        <v>45174.41527777778</v>
       </c>
     </row>
     <row r="43">
@@ -1033,13 +1033,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>83135</v>
+        <v>83182</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45173.46041666667</v>
+        <v>45174.57291666666</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45173.52986111111</v>
+        <v>45174.74652777778</v>
       </c>
     </row>
     <row r="44">
@@ -1047,13 +1047,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83137</v>
+        <v>83184</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45173.34444444445</v>
+        <v>45174.50902777778</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45173.41388888889</v>
+        <v>45174.80069444444</v>
       </c>
     </row>
     <row r="45">
@@ -1061,13 +1061,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>83139</v>
+        <v>83185</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45173.36666666667</v>
+        <v>45174.56875</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45173.43611111111</v>
+        <v>45174.86527777778</v>
       </c>
     </row>
     <row r="46">
@@ -1075,13 +1075,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>83143</v>
+        <v>83186</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45173.47777777778</v>
+        <v>45174.36319444444</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45173.54722222222</v>
+        <v>45174.65486111111</v>
       </c>
     </row>
     <row r="47">
@@ -1089,13 +1089,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>83145</v>
+        <v>83187</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45173.40208333333</v>
+        <v>45174.33333333334</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45173.47152777778</v>
+        <v>45174.65486111111</v>
       </c>
     </row>
     <row r="48">
@@ -1103,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>83146</v>
+        <v>83192</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45173.37361111111</v>
+        <v>45174.38055555556</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45173.44305555556</v>
+        <v>45174.45</v>
       </c>
     </row>
     <row r="49">
@@ -1117,13 +1117,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>83148</v>
+        <v>83198</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45173.47222222222</v>
+        <v>45174.37430555555</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45173.54166666666</v>
+        <v>45174.44375</v>
       </c>
     </row>
     <row r="50">
@@ -1131,13 +1131,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>83150</v>
+        <v>83203</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45173.44305555556</v>
+        <v>45174.66666666666</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45173.5125</v>
+        <v>45175.02430555555</v>
       </c>
     </row>
     <row r="51">
@@ -1145,13 +1145,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83152</v>
+        <v>83205</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45173.4625</v>
+        <v>45174.36597222222</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45173.53194444445</v>
+        <v>45174.43541666667</v>
       </c>
     </row>
     <row r="52">
@@ -1159,13 +1159,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83153</v>
+        <v>83210</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45173.43402777778</v>
+        <v>45174.40763888889</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45173.50347222222</v>
+        <v>45174.47708333333</v>
       </c>
     </row>
     <row r="53">
@@ -1173,13 +1173,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>83154</v>
+        <v>83214</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45173.56666666667</v>
+        <v>45174.33055555556</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45173.63611111111</v>
+        <v>45174.4</v>
       </c>
     </row>
     <row r="54">
@@ -1187,13 +1187,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>83155</v>
+        <v>83215</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45173.55555555555</v>
+        <v>45174.57152777778</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45173.625</v>
+        <v>45174.74652777778</v>
       </c>
     </row>
     <row r="55">
@@ -1201,13 +1201,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>83157</v>
+        <v>83217</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45173.42361111111</v>
+        <v>45174.34236111111</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45173.49305555555</v>
+        <v>45174.51736111111</v>
       </c>
     </row>
     <row r="56">
@@ -1215,13 +1215,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>83158</v>
+        <v>83219</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45173.45138888889</v>
+        <v>45174.36180555556</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45173.52083333334</v>
+        <v>45174.43125</v>
       </c>
     </row>
     <row r="57">
@@ -1229,13 +1229,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>83161</v>
+        <v>83221</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45173.46805555555</v>
+        <v>45174.5</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45173.5375</v>
+        <v>45174.82152777778</v>
       </c>
     </row>
     <row r="58">
@@ -1243,13 +1243,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>83163</v>
+        <v>83222</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45173.59305555555</v>
+        <v>45174.29861111111</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45173.88263888889</v>
+        <v>45174.6</v>
       </c>
     </row>
     <row r="59">
@@ -1257,13 +1257,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>83164</v>
+        <v>83226</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45173.33333333334</v>
+        <v>45174.36041666667</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45173.53819444445</v>
+        <v>45174.53819444445</v>
       </c>
     </row>
     <row r="60">
@@ -1271,13 +1271,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>83169</v>
+        <v>83227</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45173.40902777778</v>
+        <v>45174.21944444445</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45173.47847222222</v>
+        <v>45174.39236111111</v>
       </c>
     </row>
     <row r="61">
@@ -1285,13 +1285,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>83173</v>
+        <v>83230</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45173.48611111111</v>
+        <v>45174.34027777778</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45173.55555555555</v>
+        <v>45174.40972222222</v>
       </c>
     </row>
     <row r="62">
@@ -1299,13 +1299,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>83174</v>
+        <v>83232</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45173.40833333333</v>
+        <v>45174.34166666667</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45173.47777777778</v>
+        <v>45174.41111111111</v>
       </c>
     </row>
     <row r="63">
@@ -1313,13 +1313,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>83176</v>
+        <v>83257</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45173.29583333333</v>
+        <v>45174.375</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45173.47569444445</v>
+        <v>45174.57986111111</v>
       </c>
     </row>
     <row r="64">
@@ -1327,13 +1327,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>83178</v>
+        <v>83261</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45173.55277777778</v>
+        <v>45174.33333333334</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45173.62222222222</v>
+        <v>45174.53819444445</v>
       </c>
     </row>
     <row r="65">
@@ -1341,13 +1341,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>83179</v>
+        <v>83263</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45173.43611111111</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45173.50555555556</v>
+        <v>45174.49652777778</v>
       </c>
     </row>
     <row r="66">
@@ -1355,13 +1355,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>83180</v>
+        <v>83271</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45173.38194444445</v>
+        <v>45174.32361111111</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45173.45138888889</v>
+        <v>45174.64583333334</v>
       </c>
     </row>
     <row r="67">
@@ -1369,13 +1369,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>83182</v>
+        <v>83272</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45173.57291666666</v>
+        <v>45174.32361111111</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45173.74652777778</v>
+        <v>45174.64583333334</v>
       </c>
     </row>
     <row r="68">
@@ -1383,13 +1383,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>83183</v>
+        <v>83273</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45173.40972222222</v>
+        <v>45174.42777777778</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45173.47916666666</v>
+        <v>45174.75</v>
       </c>
     </row>
     <row r="69">
@@ -1397,13 +1397,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>83184</v>
+        <v>83274</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45173.43472222222</v>
+        <v>45174.42777777778</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45173.50416666667</v>
+        <v>45174.75</v>
       </c>
     </row>
     <row r="70">
@@ -1411,13 +1411,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>83185</v>
+        <v>83275</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45173.88194444445</v>
+        <v>45174.55277777778</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45173.95138888889</v>
+        <v>45174.875</v>
       </c>
     </row>
     <row r="71">
@@ -1425,13 +1425,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>83187</v>
+        <v>83276</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45173.55972222222</v>
+        <v>45174.55277777778</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45173.62916666667</v>
+        <v>45174.875</v>
       </c>
     </row>
     <row r="72">
@@ -1439,13 +1439,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>83191</v>
+        <v>83284</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45173.3125</v>
+        <v>45174.41805555556</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45173.67013888889</v>
+        <v>45174.72430555556</v>
       </c>
     </row>
     <row r="73">
@@ -1453,13 +1453,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>83195</v>
+        <v>83285</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45173.55138888889</v>
+        <v>45174.29305555556</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45173.84513888889</v>
+        <v>45174.59930555556</v>
       </c>
     </row>
     <row r="74">
@@ -1467,13 +1467,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>83196</v>
+        <v>83296</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45173.55138888889</v>
+        <v>45174.52083333334</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45173.62083333333</v>
+        <v>45174.70486111111</v>
       </c>
     </row>
     <row r="75">
@@ -1481,13 +1481,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>83199</v>
+        <v>83300</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45173.83333333334</v>
+        <v>45174.47222222222</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45173.90277777778</v>
+        <v>45174.54166666666</v>
       </c>
     </row>
     <row r="76">
@@ -1495,13 +1495,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>83206</v>
+        <v>83306</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45173.48194444444</v>
+        <v>45174.22916666666</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45173.55138888889</v>
+        <v>45174.43402777778</v>
       </c>
     </row>
     <row r="77">
@@ -1509,13 +1509,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>83207</v>
+        <v>83308</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45173.46111111111</v>
+        <v>45174.3125</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45173.53055555555</v>
+        <v>45174.51736111111</v>
       </c>
     </row>
     <row r="78">
@@ -1523,13 +1523,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>83208</v>
+        <v>83348</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45173.47291666667</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45173.54236111111</v>
+        <v>45174.61944444444</v>
       </c>
     </row>
     <row r="79">
@@ -1537,13 +1537,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>83215</v>
+        <v>83354</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45173.89305555556</v>
+        <v>45174.45833333334</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45173.9625</v>
+        <v>45174.66319444445</v>
       </c>
     </row>
     <row r="80">
@@ -1551,13 +1551,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>83221</v>
+        <v>83363</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45173.37916666667</v>
+        <v>45174.5</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45173.44861111111</v>
+        <v>45174.83611111111</v>
       </c>
     </row>
     <row r="81">
@@ -1565,13 +1565,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>83222</v>
+        <v>83364</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45173.47916666666</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45173.54861111111</v>
+        <v>45174.75277777778</v>
       </c>
     </row>
     <row r="82">
@@ -1579,13 +1579,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>83226</v>
+        <v>83375</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45173.34861111111</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45173.41805555556</v>
+        <v>45174.82986111111</v>
       </c>
     </row>
     <row r="83">
@@ -1593,13 +1593,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>83233</v>
+        <v>83376</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45173.45416666667</v>
+        <v>45174.45833333334</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45173.52361111111</v>
+        <v>45174.87152777778</v>
       </c>
     </row>
     <row r="84">
@@ -1607,13 +1607,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>83234</v>
+        <v>83378</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45173.38055555556</v>
+        <v>45174.30555555555</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45173.45</v>
+        <v>45174.43055555555</v>
       </c>
     </row>
     <row r="85">
@@ -1621,13 +1621,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>83235</v>
+        <v>83386</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45173.32152777778</v>
+        <v>45174.48194444444</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45173.49652777778</v>
+        <v>45174.55138888889</v>
       </c>
     </row>
     <row r="86">
@@ -1635,13 +1635,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>83237</v>
+        <v>83388</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45173.48055555556</v>
+        <v>45174.375</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45173.55</v>
+        <v>45174.44444444445</v>
       </c>
     </row>
     <row r="87">
@@ -1649,13 +1649,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>83256</v>
+        <v>83527</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45173.375</v>
+        <v>45174.32638888889</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45173.57986111111</v>
+        <v>45174.39583333334</v>
       </c>
     </row>
     <row r="88">
@@ -1663,13 +1663,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>83260</v>
+        <v>83530</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45173.33333333334</v>
+        <v>45174.34722222222</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45173.53819444445</v>
+        <v>45174.41666666666</v>
       </c>
     </row>
     <row r="89">
@@ -1677,13 +1677,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>83262</v>
+        <v>83532</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45173.29166666666</v>
+        <v>45174.35416666666</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45173.49652777778</v>
+        <v>45174.42361111111</v>
       </c>
     </row>
     <row r="90">
@@ -1691,13 +1691,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>83267</v>
+        <v>83541</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>45173.32361111111</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45173.64583333334</v>
+        <v>45174.61111111111</v>
       </c>
     </row>
     <row r="91">
@@ -1705,13 +1705,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>83268</v>
+        <v>83547</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45173.42777777778</v>
+        <v>45174.44861111111</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45173.75</v>
+        <v>45174.51805555556</v>
       </c>
     </row>
     <row r="92">
@@ -1719,13 +1719,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>83269</v>
+        <v>83551</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>45173.55277777778</v>
+        <v>45174.54305555556</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45173.875</v>
+        <v>45174.6125</v>
       </c>
     </row>
     <row r="93">
@@ -1733,13 +1733,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>83270</v>
+        <v>83556</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>45173.59444444445</v>
+        <v>45174.44513888889</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45173.91666666666</v>
+        <v>45174.51458333333</v>
       </c>
     </row>
     <row r="94">
@@ -1747,13 +1747,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>83284</v>
+        <v>83558</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>45173.87083333333</v>
+        <v>45174.55208333334</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45173.94027777778</v>
+        <v>45174.62152777778</v>
       </c>
     </row>
     <row r="95">
@@ -1761,13 +1761,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>83286</v>
+        <v>83562</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>45173.52222222222</v>
+        <v>45174.47638888889</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45173.82847222222</v>
+        <v>45174.54583333333</v>
       </c>
     </row>
     <row r="96">
@@ -1775,13 +1775,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>83296</v>
+        <v>83584</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>45173.64027777778</v>
+        <v>45174.65694444445</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45173.70972222222</v>
+        <v>45174.72638888889</v>
       </c>
     </row>
     <row r="97">
@@ -1789,13 +1789,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>83306</v>
+        <v>83600</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>45173.41875</v>
+        <v>45174.46041666667</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45173.48819444444</v>
+        <v>45174.52986111111</v>
       </c>
     </row>
     <row r="98">
@@ -1803,13 +1803,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>83309</v>
+        <v>83601</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>45173.35555555556</v>
+        <v>45174.43402777778</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45173.425</v>
+        <v>45174.50347222222</v>
       </c>
     </row>
     <row r="99">
@@ -1817,13 +1817,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>83312</v>
+        <v>83602</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>45173.22916666666</v>
+        <v>45174.47013888889</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45173.60347222222</v>
+        <v>45174.53958333333</v>
       </c>
     </row>
     <row r="100">
@@ -1831,13 +1831,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>83313</v>
+        <v>83614</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>45173.22916666666</v>
+        <v>45174.47777777778</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45173.60347222222</v>
+        <v>45174.54722222222</v>
       </c>
     </row>
     <row r="101">
@@ -1845,13 +1845,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>83343</v>
+        <v>83615</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>45173.34722222222</v>
+        <v>45174.64166666667</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45173.41666666666</v>
+        <v>45174.71111111111</v>
       </c>
     </row>
     <row r="102">
@@ -1859,13 +1859,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>83344</v>
+        <v>83617</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>45173.33611111111</v>
+        <v>45174.42986111111</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45173.40555555555</v>
+        <v>45174.49930555555</v>
       </c>
     </row>
     <row r="103">
@@ -1873,13 +1873,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>83345</v>
+        <v>83623</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>45173.33472222222</v>
+        <v>45174.47916666666</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45173.40416666667</v>
+        <v>45174.54861111111</v>
       </c>
     </row>
     <row r="104">
@@ -1887,13 +1887,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>83361</v>
+        <v>83634</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>45173.33888888889</v>
+        <v>45174.44166666667</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45173.40833333333</v>
+        <v>45174.51111111111</v>
       </c>
     </row>
     <row r="105">
@@ -1901,13 +1901,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>83362</v>
+        <v>83646</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>45173.3375</v>
+        <v>45174.43611111111</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45173.40694444445</v>
+        <v>45174.50555555556</v>
       </c>
     </row>
     <row r="106">
@@ -1915,13 +1915,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>83392</v>
+        <v>83650</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>45173.5</v>
+        <v>45174.33194444444</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45173.88402777778</v>
+        <v>45174.40138888889</v>
       </c>
     </row>
     <row r="107">
@@ -1929,13 +1929,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>83393</v>
+        <v>83651</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>45173.54166666666</v>
+        <v>45174.30763888889</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45173.92569444444</v>
+        <v>45174.43263888889</v>
       </c>
     </row>
     <row r="108">
@@ -1943,13 +1943,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>83528</v>
+        <v>83701</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>45173.88263888889</v>
+        <v>45174.5</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45173.95208333333</v>
+        <v>45174.91319444445</v>
       </c>
     </row>
     <row r="109">
@@ -1957,13 +1957,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>83529</v>
+        <v>83702</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>45173.30972222222</v>
+        <v>45174.25</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45173.65625</v>
+        <v>45174.375</v>
       </c>
     </row>
     <row r="110">
@@ -1971,13 +1971,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>83536</v>
+        <v>83703</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>45173.70833333334</v>
+        <v>45174.5</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45173.77777777778</v>
+        <v>45174.56944444445</v>
       </c>
     </row>
     <row r="111">
@@ -1985,13 +1985,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>83549</v>
+        <v>83728</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>45173.71111111111</v>
+        <v>45174.49861111111</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45173.78055555555</v>
+        <v>45174.56805555556</v>
       </c>
     </row>
     <row r="112">
@@ -1999,13 +1999,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>83550</v>
+        <v>83730</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>45173.85694444444</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45173.92638888889</v>
+        <v>45174.62361111111</v>
       </c>
     </row>
     <row r="113">
@@ -2013,13 +2013,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>83552</v>
+        <v>83745</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>45173.85763888889</v>
+        <v>45174.30138888889</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45173.92708333334</v>
+        <v>45174.62152777778</v>
       </c>
     </row>
     <row r="114">
@@ -2027,13 +2027,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>83553</v>
+        <v>83748</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>45173.81597222222</v>
+        <v>45174.70763888889</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45173.88541666666</v>
+        <v>45174.77708333333</v>
       </c>
     </row>
     <row r="115">
@@ -2041,13 +2041,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>83557</v>
+        <v>83749</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>45173.86388888889</v>
+        <v>45174.35138888889</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45173.93333333333</v>
+        <v>45174.47638888889</v>
       </c>
     </row>
     <row r="116">
@@ -2055,13 +2055,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>83559</v>
+        <v>83764</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>45173.79583333333</v>
+        <v>45174.34722222222</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45173.86527777778</v>
+        <v>45174.41666666666</v>
       </c>
     </row>
     <row r="117">
@@ -2069,13 +2069,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>83568</v>
+        <v>83786</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>45173.72777777778</v>
+        <v>45174.34722222222</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45173.79722222222</v>
+        <v>45174.62152777778</v>
       </c>
     </row>
     <row r="118">
@@ -2083,13 +2083,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>83577</v>
+        <v>83835</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>45173.88958333333</v>
+        <v>45174.29513888889</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45173.95902777778</v>
+        <v>45174.42013888889</v>
       </c>
     </row>
     <row r="119">
@@ -2097,13 +2097,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>83578</v>
+        <v>83888</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>45173.70833333334</v>
+        <v>45174.27083333334</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45173.77777777778</v>
+        <v>45174.58680555555</v>
       </c>
     </row>
     <row r="120">
@@ -2111,13 +2111,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>83588</v>
+        <v>83895</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>45173.69722222222</v>
+        <v>45174.41388888889</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45173.76666666667</v>
+        <v>45174.57986111111</v>
       </c>
     </row>
     <row r="121">
@@ -2125,13 +2125,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>83590</v>
+        <v>83897</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>45173.73402777778</v>
+        <v>45174.63888888889</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45173.80347222222</v>
+        <v>45174.70833333334</v>
       </c>
     </row>
     <row r="122">
@@ -2139,13 +2139,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>83611</v>
+        <v>83898</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>45173.69305555556</v>
+        <v>45174.48472222222</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45173.7625</v>
+        <v>45174.55416666667</v>
       </c>
     </row>
     <row r="123">
@@ -2153,13 +2153,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>83632</v>
+        <v>83899</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>45173.68611111111</v>
+        <v>45174.64583333334</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45173.75555555556</v>
+        <v>45174.71527777778</v>
       </c>
     </row>
     <row r="124">
@@ -2167,13 +2167,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>83649</v>
+        <v>83900</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>45173.69583333333</v>
+        <v>45174.4375</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45173.76527777778</v>
+        <v>45174.50694444445</v>
       </c>
     </row>
     <row r="125">
@@ -2181,13 +2181,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>83650</v>
+        <v>83901</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>45173.81458333333</v>
+        <v>45174.4375</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45173.88402777778</v>
+        <v>45174.50694444445</v>
       </c>
     </row>
     <row r="126">
@@ -2195,13 +2195,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>83664</v>
+        <v>83902</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>45173.25</v>
+        <v>45174.4375</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45173.57708333333</v>
+        <v>45174.50694444445</v>
       </c>
     </row>
     <row r="127">
@@ -2209,13 +2209,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>83691</v>
+        <v>83903</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>45173.25</v>
+        <v>45174.4375</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45173.375</v>
+        <v>45174.50694444445</v>
       </c>
     </row>
     <row r="128">
@@ -2223,13 +2223,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>83703</v>
+        <v>83904</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>45173.33333333334</v>
+        <v>45174.4375</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45173.69097222222</v>
+        <v>45174.50694444445</v>
       </c>
     </row>
     <row r="129">
@@ -2237,13 +2237,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>83729</v>
+        <v>83905</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>45173.5</v>
+        <v>45174.4375</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45173.82847222222</v>
+        <v>45174.50694444445</v>
       </c>
     </row>
     <row r="130">
@@ -2251,13 +2251,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>83730</v>
+        <v>83906</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>45173.33194444444</v>
+        <v>45174.51388888889</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45173.40138888889</v>
+        <v>45174.58333333334</v>
       </c>
     </row>
     <row r="131">
@@ -2265,13 +2265,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>83733</v>
+        <v>83907</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>45173.34444444445</v>
+        <v>45174.51388888889</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45173.41388888889</v>
+        <v>45174.58333333334</v>
       </c>
     </row>
     <row r="132">
@@ -2279,13 +2279,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>83736</v>
+        <v>83908</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>45173.70763888889</v>
+        <v>45174.51388888889</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45173.77708333333</v>
+        <v>45174.58333333334</v>
       </c>
     </row>
     <row r="133">
@@ -2293,13 +2293,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>83752</v>
+        <v>83909</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>45173.40694444445</v>
+        <v>45174.51388888889</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45173.47638888889</v>
+        <v>45174.58333333334</v>
       </c>
     </row>
     <row r="134">
@@ -2307,13 +2307,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>83835</v>
+        <v>83910</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>45173.39166666667</v>
+        <v>45174.5625</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45173.46111111111</v>
+        <v>45174.63194444445</v>
       </c>
     </row>
     <row r="135">
@@ -2321,13 +2321,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>83836</v>
+        <v>83911</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>45173.53888888889</v>
+        <v>45174.64583333334</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45173.60833333333</v>
+        <v>45174.71527777778</v>
       </c>
     </row>
     <row r="136">
@@ -2335,13 +2335,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>83889</v>
+        <v>83912</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>45173.38611111111</v>
+        <v>45174.64583333334</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45173.45555555556</v>
+        <v>45174.71527777778</v>
       </c>
     </row>
     <row r="137">
@@ -2349,13 +2349,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>83890</v>
+        <v>83913</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>45173.40277777778</v>
+        <v>45174.5625</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45173.47222222222</v>
+        <v>45174.63194444445</v>
       </c>
     </row>
     <row r="138">
@@ -2363,13 +2363,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>83347</v>
+        <v>83914</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>45173.55138888889</v>
+        <v>45174.5625</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45173.62083333333</v>
+        <v>45174.63194444445</v>
       </c>
     </row>
     <row r="139">
@@ -2377,13 +2377,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>83346</v>
+        <v>83915</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>45173.57638888889</v>
+        <v>45174.64583333334</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45173.87152777778</v>
+        <v>45174.71527777778</v>
       </c>
     </row>
     <row r="140">
@@ -2391,13 +2391,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>83734</v>
+        <v>83916</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>45173.50416666667</v>
+        <v>45174.5625</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45173.62916666667</v>
+        <v>45174.63194444445</v>
       </c>
     </row>
     <row r="141">
@@ -2405,13 +2405,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>83732</v>
+        <v>83917</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>45173.60416666666</v>
+        <v>45174.5625</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45173.72916666666</v>
+        <v>45174.63194444445</v>
       </c>
     </row>
     <row r="142">
@@ -2419,13 +2419,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>83735</v>
+        <v>83918</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>45173.86666666667</v>
+        <v>45174.64583333334</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45173.93611111111</v>
+        <v>45174.71527777778</v>
       </c>
     </row>
     <row r="143">
@@ -2433,13 +2433,41 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>83731</v>
+        <v>83919</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>45173.47916666666</v>
+        <v>45174.5625</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45173.54861111111</v>
+        <v>45174.63194444445</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>83603</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>83581</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>45174.64583333334</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>45174.71527777778</v>
       </c>
     </row>
   </sheetData>

--- a/static/tmp/planificacion3.xlsx
+++ b/static/tmp/planificacion3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,13 +529,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82179</v>
+        <v>81823</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.72013888889</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45174.78958333333</v>
       </c>
     </row>
     <row r="8">
@@ -543,13 +543,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82281</v>
+        <v>82179</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45174.5625</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45174.90486111111</v>
+        <v>45174.70486111111</v>
       </c>
     </row>
     <row r="9">
@@ -557,13 +557,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82286</v>
+        <v>82281</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.5625</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45174.92569444444</v>
+        <v>45174.90486111111</v>
       </c>
     </row>
     <row r="10">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82291</v>
+        <v>82286</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45174.84236111111</v>
+        <v>45174.92569444444</v>
       </c>
     </row>
     <row r="11">
@@ -585,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82292</v>
+        <v>82291</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45174.60416666666</v>
+        <v>45174.5</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45174.94652777778</v>
+        <v>45174.84236111111</v>
       </c>
     </row>
     <row r="12">
@@ -599,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82295</v>
+        <v>82292</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45174.53125</v>
+        <v>45174.60416666666</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45174.87361111111</v>
+        <v>45174.94652777778</v>
       </c>
     </row>
     <row r="13">
@@ -613,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>82298</v>
+        <v>82295</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45174.31319444445</v>
+        <v>45174.53125</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45174.62569444445</v>
+        <v>45174.87361111111</v>
       </c>
     </row>
     <row r="14">
@@ -627,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>82319</v>
+        <v>82298</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45174.41180555556</v>
+        <v>45174.43819444445</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45174.76041666666</v>
+        <v>45174.75069444445</v>
       </c>
     </row>
     <row r="15">
@@ -641,13 +641,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82320</v>
+        <v>82319</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45174.55763888889</v>
+        <v>45174.41180555556</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45174.8625</v>
+        <v>45174.76041666666</v>
       </c>
     </row>
     <row r="16">
@@ -655,13 +655,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82321</v>
+        <v>82320</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45174.48472222222</v>
+        <v>45174.55763888889</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45174.78333333333</v>
+        <v>45174.8625</v>
       </c>
     </row>
     <row r="17">
@@ -669,13 +669,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>82386</v>
+        <v>82321</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45174.30902777778</v>
+        <v>45174.48472222222</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45174.62638888889</v>
+        <v>45174.78333333333</v>
       </c>
     </row>
     <row r="18">
@@ -683,13 +683,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>82528</v>
+        <v>82328</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45174.43819444445</v>
+        <v>45174.23958333334</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45174.75138888889</v>
+        <v>45174.56597222222</v>
       </c>
     </row>
     <row r="19">
@@ -697,13 +697,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>82620</v>
+        <v>82340</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45174.37430555555</v>
+        <v>45174.66666666666</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45174.72986111111</v>
+        <v>45175.07986111111</v>
       </c>
     </row>
     <row r="20">
@@ -711,13 +711,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>82621</v>
+        <v>82356</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45174.41597222222</v>
+        <v>45174.70833333334</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45174.77152777778</v>
+        <v>45175.0875</v>
       </c>
     </row>
     <row r="21">
@@ -725,13 +725,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>82625</v>
+        <v>82361</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45174.27013888889</v>
+        <v>45174.69444444445</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45174.62569444445</v>
+        <v>45175.04513888889</v>
       </c>
     </row>
     <row r="22">
@@ -739,13 +739,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>82627</v>
+        <v>82386</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45174.29097222222</v>
+        <v>45174.30902777778</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45174.64652777778</v>
+        <v>45174.62638888889</v>
       </c>
     </row>
     <row r="23">
@@ -753,13 +753,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>82634</v>
+        <v>82429</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45174.33263888889</v>
+        <v>45174.80416666667</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45174.68819444445</v>
+        <v>45174.87361111111</v>
       </c>
     </row>
     <row r="24">
@@ -767,13 +767,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>82738</v>
+        <v>82435</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.81527777778</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45174.88472222222</v>
       </c>
     </row>
     <row r="25">
@@ -781,13 +781,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>82749</v>
+        <v>82436</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.81805555556</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45174.62361111111</v>
+        <v>45174.8875</v>
       </c>
     </row>
     <row r="26">
@@ -795,13 +795,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>82959</v>
+        <v>82442</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45174.42569444444</v>
+        <v>45174.81666666667</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45174.77361111111</v>
+        <v>45174.88611111111</v>
       </c>
     </row>
     <row r="27">
@@ -809,13 +809,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>83082</v>
+        <v>82528</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45174.63888888889</v>
+        <v>45174.31319444445</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45174.62638888889</v>
       </c>
     </row>
     <row r="28">
@@ -823,13 +823,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>83083</v>
+        <v>82620</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45174.63888888889</v>
+        <v>45174.37430555555</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45174.72986111111</v>
       </c>
     </row>
     <row r="29">
@@ -837,13 +837,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>83085</v>
+        <v>82621</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45174.63888888889</v>
+        <v>45174.41597222222</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45174.77152777778</v>
       </c>
     </row>
     <row r="30">
@@ -851,13 +851,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>83094</v>
+        <v>82625</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45174.27083333334</v>
+        <v>45174.27013888889</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45174.6</v>
+        <v>45174.62569444445</v>
       </c>
     </row>
     <row r="31">
@@ -865,13 +865,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>83100</v>
+        <v>82627</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45174.54166666666</v>
+        <v>45174.29097222222</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45174.89930555555</v>
+        <v>45174.65902777778</v>
       </c>
     </row>
     <row r="32">
@@ -879,13 +879,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>83111</v>
+        <v>82634</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45174.66944444444</v>
+        <v>45174.33263888889</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45174.97638888889</v>
+        <v>45174.68819444445</v>
       </c>
     </row>
     <row r="33">
@@ -893,13 +893,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>83136</v>
+        <v>82738</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45174.33611111111</v>
+        <v>45174.5</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45174.40555555555</v>
+        <v>45174.70486111111</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>83142</v>
+        <v>82749</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45174.65347222222</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45174.95277777778</v>
+        <v>45174.62361111111</v>
       </c>
     </row>
     <row r="35">
@@ -921,13 +921,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>83147</v>
+        <v>82959</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45174.37638888889</v>
+        <v>45174.42569444444</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45174.44583333333</v>
+        <v>45174.77361111111</v>
       </c>
     </row>
     <row r="36">
@@ -935,13 +935,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83156</v>
+        <v>83082</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45174.36319444444</v>
+        <v>45174.63888888889</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45174.70833333334</v>
       </c>
     </row>
     <row r="37">
@@ -949,13 +949,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>83160</v>
+        <v>83083</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45174.36805555555</v>
+        <v>45174.63888888889</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.70833333334</v>
       </c>
     </row>
     <row r="38">
@@ -963,13 +963,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>83165</v>
+        <v>83085</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45174.3625</v>
+        <v>45174.63888888889</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45174.70833333334</v>
       </c>
     </row>
     <row r="39">
@@ -977,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>83167</v>
+        <v>83094</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45174.38472222222</v>
+        <v>45174.27083333334</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45174.45416666667</v>
+        <v>45174.6</v>
       </c>
     </row>
     <row r="40">
@@ -991,13 +991,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>83168</v>
+        <v>83100</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45174.56944444445</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45174.87083333333</v>
+        <v>45174.89930555555</v>
       </c>
     </row>
     <row r="41">
@@ -1005,13 +1005,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>83170</v>
+        <v>83111</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45174.41388888889</v>
+        <v>45174.66944444444</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45174.48333333333</v>
+        <v>45174.97638888889</v>
       </c>
     </row>
     <row r="42">
@@ -1019,13 +1019,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83181</v>
+        <v>83136</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45174.34583333333</v>
+        <v>45174.33611111111</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45174.41527777778</v>
+        <v>45174.40555555555</v>
       </c>
     </row>
     <row r="43">
@@ -1033,13 +1033,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>83182</v>
+        <v>83142</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45174.57291666666</v>
+        <v>45174.65347222222</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45174.74652777778</v>
+        <v>45174.95277777778</v>
       </c>
     </row>
     <row r="44">
@@ -1047,13 +1047,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83184</v>
+        <v>83147</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45174.50902777778</v>
+        <v>45174.37638888889</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45174.80069444444</v>
+        <v>45174.44583333333</v>
       </c>
     </row>
     <row r="45">
@@ -1061,13 +1061,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>83185</v>
+        <v>83156</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45174.56875</v>
+        <v>45174.40486111111</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45174.86527777778</v>
+        <v>45174.57986111111</v>
       </c>
     </row>
     <row r="46">
@@ -1075,13 +1075,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>83186</v>
+        <v>83160</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45174.36319444444</v>
+        <v>45174.36805555555</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45174.65486111111</v>
+        <v>45174.4375</v>
       </c>
     </row>
     <row r="47">
@@ -1089,13 +1089,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>83187</v>
+        <v>83165</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45174.3625</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45174.65486111111</v>
+        <v>45174.53819444445</v>
       </c>
     </row>
     <row r="48">
@@ -1103,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>83192</v>
+        <v>83167</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45174.38055555556</v>
+        <v>45174.38472222222</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45174.45</v>
+        <v>45174.45416666667</v>
       </c>
     </row>
     <row r="49">
@@ -1117,13 +1117,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>83198</v>
+        <v>83168</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45174.37430555555</v>
+        <v>45174.56944444445</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45174.44375</v>
+        <v>45174.87083333333</v>
       </c>
     </row>
     <row r="50">
@@ -1131,13 +1131,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>83203</v>
+        <v>83170</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45174.66666666666</v>
+        <v>45174.41388888889</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45175.02430555555</v>
+        <v>45174.48333333333</v>
       </c>
     </row>
     <row r="51">
@@ -1145,13 +1145,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83205</v>
+        <v>83181</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45174.36597222222</v>
+        <v>45174.34583333333</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45174.43541666667</v>
+        <v>45174.41527777778</v>
       </c>
     </row>
     <row r="52">
@@ -1159,13 +1159,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83210</v>
+        <v>83182</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45174.40763888889</v>
+        <v>45174.57291666666</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45174.47708333333</v>
+        <v>45174.74652777778</v>
       </c>
     </row>
     <row r="53">
@@ -1173,13 +1173,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>83214</v>
+        <v>83184</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45174.33055555556</v>
+        <v>45174.50902777778</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45174.4</v>
+        <v>45174.80069444444</v>
       </c>
     </row>
     <row r="54">
@@ -1187,13 +1187,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>83215</v>
+        <v>83185</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45174.57152777778</v>
+        <v>45174.56875</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45174.74652777778</v>
+        <v>45174.86527777778</v>
       </c>
     </row>
     <row r="55">
@@ -1201,13 +1201,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>83217</v>
+        <v>83186</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45174.34236111111</v>
+        <v>45174.36319444444</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45174.51736111111</v>
+        <v>45174.65486111111</v>
       </c>
     </row>
     <row r="56">
@@ -1215,13 +1215,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>83219</v>
+        <v>83187</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45174.36180555556</v>
+        <v>45174.33333333334</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45174.43125</v>
+        <v>45174.65486111111</v>
       </c>
     </row>
     <row r="57">
@@ -1229,13 +1229,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>83221</v>
+        <v>83190</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.59305555555</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45174.82152777778</v>
+        <v>45174.88263888889</v>
       </c>
     </row>
     <row r="58">
@@ -1243,13 +1243,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>83222</v>
+        <v>83192</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45174.29861111111</v>
+        <v>45174.38055555556</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45174.6</v>
+        <v>45174.45</v>
       </c>
     </row>
     <row r="59">
@@ -1257,13 +1257,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>83226</v>
+        <v>83196</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45174.36041666667</v>
+        <v>45174.52083333334</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45174.72569444445</v>
       </c>
     </row>
     <row r="60">
@@ -1271,13 +1271,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>83227</v>
+        <v>83198</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45174.21944444445</v>
+        <v>45174.37430555555</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45174.39236111111</v>
+        <v>45174.44375</v>
       </c>
     </row>
     <row r="61">
@@ -1285,13 +1285,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>83230</v>
+        <v>83203</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45174.34027777778</v>
+        <v>45174.66666666666</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45174.40972222222</v>
+        <v>45175.02430555555</v>
       </c>
     </row>
     <row r="62">
@@ -1299,13 +1299,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>83232</v>
+        <v>83205</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45174.34166666667</v>
+        <v>45174.36597222222</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45174.41111111111</v>
+        <v>45174.43541666667</v>
       </c>
     </row>
     <row r="63">
@@ -1313,13 +1313,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>83257</v>
+        <v>83210</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.40763888889</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45174.47708333333</v>
       </c>
     </row>
     <row r="64">
@@ -1327,13 +1327,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>83261</v>
+        <v>83214</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45174.33055555556</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45174.4</v>
       </c>
     </row>
     <row r="65">
@@ -1341,13 +1341,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>83263</v>
+        <v>83215</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.57152777778</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45174.49652777778</v>
+        <v>45174.74652777778</v>
       </c>
     </row>
     <row r="66">
@@ -1355,13 +1355,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>83271</v>
+        <v>83217</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45174.32361111111</v>
+        <v>45174.34236111111</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.51736111111</v>
       </c>
     </row>
     <row r="67">
@@ -1369,13 +1369,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>83272</v>
+        <v>83219</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45174.32361111111</v>
+        <v>45174.36180555556</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.43125</v>
       </c>
     </row>
     <row r="68">
@@ -1383,13 +1383,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>83273</v>
+        <v>83221</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45174.42777777778</v>
+        <v>45174.5</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45174.75</v>
+        <v>45174.82152777778</v>
       </c>
     </row>
     <row r="69">
@@ -1397,13 +1397,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>83274</v>
+        <v>83222</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45174.42777777778</v>
+        <v>45174.29861111111</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45174.75</v>
+        <v>45174.6</v>
       </c>
     </row>
     <row r="70">
@@ -1411,13 +1411,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>83275</v>
+        <v>83226</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45174.55277777778</v>
+        <v>45174.36041666667</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45174.875</v>
+        <v>45174.53819444445</v>
       </c>
     </row>
     <row r="71">
@@ -1425,13 +1425,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>83276</v>
+        <v>83227</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45174.55277777778</v>
+        <v>45174.21944444445</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45174.875</v>
+        <v>45174.39236111111</v>
       </c>
     </row>
     <row r="72">
@@ -1439,13 +1439,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>83284</v>
+        <v>83230</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45174.41805555556</v>
+        <v>45174.34027777778</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45174.72430555556</v>
+        <v>45174.40972222222</v>
       </c>
     </row>
     <row r="73">
@@ -1453,13 +1453,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>83285</v>
+        <v>83232</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45174.29305555556</v>
+        <v>45174.34166666667</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45174.59930555556</v>
+        <v>45174.41111111111</v>
       </c>
     </row>
     <row r="74">
@@ -1467,13 +1467,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>83296</v>
+        <v>83257</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45174.52083333334</v>
+        <v>45174.375</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45174.57986111111</v>
       </c>
     </row>
     <row r="75">
@@ -1481,13 +1481,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>83300</v>
+        <v>83261</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45174.47222222222</v>
+        <v>45174.33333333334</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45174.54166666666</v>
+        <v>45174.53819444445</v>
       </c>
     </row>
     <row r="76">
@@ -1495,13 +1495,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>83306</v>
+        <v>83263</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45174.22916666666</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45174.43402777778</v>
+        <v>45174.49652777778</v>
       </c>
     </row>
     <row r="77">
@@ -1509,13 +1509,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>83308</v>
+        <v>83268</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45174.3125</v>
+        <v>45174.63611111111</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45174.51736111111</v>
+        <v>45174.95833333334</v>
       </c>
     </row>
     <row r="78">
@@ -1523,13 +1523,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>83348</v>
+        <v>83269</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.63611111111</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45174.61944444444</v>
+        <v>45174.95833333334</v>
       </c>
     </row>
     <row r="79">
@@ -1537,13 +1537,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>83354</v>
+        <v>83271</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.32361111111</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45174.66319444445</v>
+        <v>45174.64583333334</v>
       </c>
     </row>
     <row r="80">
@@ -1551,13 +1551,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>83363</v>
+        <v>83272</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.32361111111</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45174.83611111111</v>
+        <v>45174.64583333334</v>
       </c>
     </row>
     <row r="81">
@@ -1565,13 +1565,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>83364</v>
+        <v>83273</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.42777777778</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45174.75277777778</v>
+        <v>45174.75</v>
       </c>
     </row>
     <row r="82">
@@ -1579,13 +1579,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>83375</v>
+        <v>83274</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.42777777778</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45174.82986111111</v>
+        <v>45174.75</v>
       </c>
     </row>
     <row r="83">
@@ -1593,13 +1593,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>83376</v>
+        <v>83275</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.55277777778</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45174.87152777778</v>
+        <v>45174.875</v>
       </c>
     </row>
     <row r="84">
@@ -1607,13 +1607,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>83378</v>
+        <v>83276</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45174.30555555555</v>
+        <v>45174.55277777778</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45174.43055555555</v>
+        <v>45174.875</v>
       </c>
     </row>
     <row r="85">
@@ -1621,13 +1621,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>83386</v>
+        <v>83280</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45174.48194444444</v>
+        <v>45174.65833333333</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45174.55138888889</v>
+        <v>45174.72777777778</v>
       </c>
     </row>
     <row r="86">
@@ -1635,13 +1635,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>83388</v>
+        <v>83281</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.79722222222</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45174.44444444445</v>
+        <v>45174.86666666667</v>
       </c>
     </row>
     <row r="87">
@@ -1649,13 +1649,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>83527</v>
+        <v>83284</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45174.32638888889</v>
+        <v>45174.41805555556</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45174.39583333334</v>
+        <v>45174.72430555556</v>
       </c>
     </row>
     <row r="88">
@@ -1663,13 +1663,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>83530</v>
+        <v>83285</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45174.34722222222</v>
+        <v>45174.29305555556</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.59930555556</v>
       </c>
     </row>
     <row r="89">
@@ -1677,13 +1677,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>83532</v>
+        <v>83296</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45174.35416666666</v>
+        <v>45174.52083333334</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45174.42361111111</v>
+        <v>45174.70486111111</v>
       </c>
     </row>
     <row r="90">
@@ -1691,13 +1691,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>83541</v>
+        <v>83300</v>
       </c>
       <c r="C90" s="2" t="n">
+        <v>45174.47222222222</v>
+      </c>
+      <c r="D90" s="2" t="n">
         <v>45174.54166666666</v>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>45174.61111111111</v>
       </c>
     </row>
     <row r="91">
@@ -1705,13 +1705,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>83547</v>
+        <v>83306</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45174.44861111111</v>
+        <v>45174.3125</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45174.51805555556</v>
+        <v>45174.51736111111</v>
       </c>
     </row>
     <row r="92">
@@ -1719,13 +1719,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>83551</v>
+        <v>83308</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>45174.54305555556</v>
+        <v>45174.22916666666</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45174.6125</v>
+        <v>45174.43402777778</v>
       </c>
     </row>
     <row r="93">
@@ -1733,13 +1733,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>83556</v>
+        <v>83348</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>45174.44513888889</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45174.51458333333</v>
+        <v>45174.61944444444</v>
       </c>
     </row>
     <row r="94">
@@ -1747,13 +1747,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>83558</v>
+        <v>83360</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>45174.55208333334</v>
+        <v>45174.87083333333</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45174.62152777778</v>
+        <v>45174.94027777778</v>
       </c>
     </row>
     <row r="95">
@@ -1761,13 +1761,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>83562</v>
+        <v>83363</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>45174.47638888889</v>
+        <v>45174.5</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45174.54583333333</v>
+        <v>45174.83611111111</v>
       </c>
     </row>
     <row r="96">
@@ -1775,13 +1775,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>83584</v>
+        <v>83364</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>45174.65694444445</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45174.72638888889</v>
+        <v>45174.75277777778</v>
       </c>
     </row>
     <row r="97">
@@ -1789,13 +1789,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>83600</v>
+        <v>83375</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>45174.46041666667</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45174.52986111111</v>
+        <v>45174.82986111111</v>
       </c>
     </row>
     <row r="98">
@@ -1803,13 +1803,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>83601</v>
+        <v>83376</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>45174.43402777778</v>
+        <v>45174.45833333334</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45174.50347222222</v>
+        <v>45174.87152777778</v>
       </c>
     </row>
     <row r="99">
@@ -1817,13 +1817,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>83602</v>
+        <v>83378</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>45174.47013888889</v>
+        <v>45174.30555555555</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45174.53958333333</v>
+        <v>45174.43055555555</v>
       </c>
     </row>
     <row r="100">
@@ -1831,13 +1831,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>83614</v>
+        <v>83386</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>45174.47777777778</v>
+        <v>45174.48194444444</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45174.54722222222</v>
+        <v>45174.55138888889</v>
       </c>
     </row>
     <row r="101">
@@ -1845,13 +1845,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>83615</v>
+        <v>83388</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>45174.64166666667</v>
+        <v>45174.375</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45174.71111111111</v>
+        <v>45174.44444444445</v>
       </c>
     </row>
     <row r="102">
@@ -1859,13 +1859,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>83617</v>
+        <v>83389</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>45174.42986111111</v>
+        <v>45174.81111111111</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45174.49930555555</v>
+        <v>45174.88055555556</v>
       </c>
     </row>
     <row r="103">
@@ -1873,13 +1873,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>83623</v>
+        <v>83527</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>45174.47916666666</v>
+        <v>45174.32638888889</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45174.54861111111</v>
+        <v>45174.39583333334</v>
       </c>
     </row>
     <row r="104">
@@ -1887,13 +1887,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>83634</v>
+        <v>83530</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>45174.44166666667</v>
+        <v>45174.34722222222</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45174.51111111111</v>
+        <v>45174.41666666666</v>
       </c>
     </row>
     <row r="105">
@@ -1901,13 +1901,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>83646</v>
+        <v>83532</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>45174.43611111111</v>
+        <v>45174.35416666666</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45174.50555555556</v>
+        <v>45174.42361111111</v>
       </c>
     </row>
     <row r="106">
@@ -1915,13 +1915,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>83650</v>
+        <v>83541</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>45174.33194444444</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45174.40138888889</v>
+        <v>45174.61111111111</v>
       </c>
     </row>
     <row r="107">
@@ -1929,13 +1929,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>83651</v>
+        <v>83542</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>45174.30763888889</v>
+        <v>45174.68472222222</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45174.43263888889</v>
+        <v>45174.75416666667</v>
       </c>
     </row>
     <row r="108">
@@ -1943,13 +1943,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>83701</v>
+        <v>83547</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.44861111111</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45174.91319444445</v>
+        <v>45174.51805555556</v>
       </c>
     </row>
     <row r="109">
@@ -1957,13 +1957,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>83702</v>
+        <v>83551</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>45174.25</v>
+        <v>45174.54305555556</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.6125</v>
       </c>
     </row>
     <row r="110">
@@ -1971,13 +1971,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>83703</v>
+        <v>83556</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.44513888889</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45174.56944444445</v>
+        <v>45174.98194444444</v>
       </c>
     </row>
     <row r="111">
@@ -1985,13 +1985,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>83728</v>
+        <v>83558</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>45174.49861111111</v>
+        <v>45174.55208333334</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45174.56805555556</v>
+        <v>45174.62152777778</v>
       </c>
     </row>
     <row r="112">
@@ -1999,13 +1999,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>83730</v>
+        <v>83562</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.47638888889</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45174.62361111111</v>
+        <v>45174.54583333333</v>
       </c>
     </row>
     <row r="113">
@@ -2013,13 +2013,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>83745</v>
+        <v>83563</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>45174.30138888889</v>
+        <v>45174.85972222222</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45174.62152777778</v>
+        <v>45174.92916666667</v>
       </c>
     </row>
     <row r="114">
@@ -2027,13 +2027,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>83748</v>
+        <v>83581</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>45174.70763888889</v>
+        <v>45174.65694444445</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45174.77708333333</v>
+        <v>45174.72638888889</v>
       </c>
     </row>
     <row r="115">
@@ -2041,13 +2041,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>83749</v>
+        <v>83584</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>45174.35138888889</v>
+        <v>45174.46041666667</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45174.47638888889</v>
+        <v>45174.52986111111</v>
       </c>
     </row>
     <row r="116">
@@ -2055,13 +2055,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>83764</v>
+        <v>83600</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>45174.34722222222</v>
+        <v>45174.43402777778</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.50347222222</v>
       </c>
     </row>
     <row r="117">
@@ -2069,13 +2069,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>83786</v>
+        <v>83601</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>45174.34722222222</v>
+        <v>45174.47013888889</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45174.62152777778</v>
+        <v>45174.53958333333</v>
       </c>
     </row>
     <row r="118">
@@ -2083,13 +2083,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>83835</v>
+        <v>83602</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>45174.29513888889</v>
+        <v>45174.47777777778</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45174.42013888889</v>
+        <v>45174.54722222222</v>
       </c>
     </row>
     <row r="119">
@@ -2097,13 +2097,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>83888</v>
+        <v>83603</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>45174.27083333334</v>
+        <v>45174.64166666667</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45174.58680555555</v>
+        <v>45174.71111111111</v>
       </c>
     </row>
     <row r="120">
@@ -2111,13 +2111,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>83895</v>
+        <v>83605</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>45174.41388888889</v>
+        <v>45174.86805555555</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45174.9375</v>
       </c>
     </row>
     <row r="121">
@@ -2125,13 +2125,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>83897</v>
+        <v>83614</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>45174.63888888889</v>
+        <v>45174.42986111111</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45174.49930555555</v>
       </c>
     </row>
     <row r="122">
@@ -2139,13 +2139,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>83898</v>
+        <v>83615</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>45174.48472222222</v>
+        <v>45174.47916666666</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45174.55416666667</v>
+        <v>45174.54861111111</v>
       </c>
     </row>
     <row r="123">
@@ -2153,13 +2153,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>83899</v>
+        <v>83617</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.44166666667</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45174.71527777778</v>
+        <v>45174.51111111111</v>
       </c>
     </row>
     <row r="124">
@@ -2167,13 +2167,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>83900</v>
+        <v>83623</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.43611111111</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45174.50694444445</v>
+        <v>45174.50555555556</v>
       </c>
     </row>
     <row r="125">
@@ -2181,13 +2181,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>83901</v>
+        <v>83634</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.33194444444</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45174.50694444445</v>
+        <v>45174.40138888889</v>
       </c>
     </row>
     <row r="126">
@@ -2195,13 +2195,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>83902</v>
+        <v>83646</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.30763888889</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45174.50694444445</v>
+        <v>45174.43263888889</v>
       </c>
     </row>
     <row r="127">
@@ -2209,13 +2209,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>83903</v>
+        <v>83650</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.5</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45174.50694444445</v>
+        <v>45174.85347222222</v>
       </c>
     </row>
     <row r="128">
@@ -2223,13 +2223,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>83904</v>
+        <v>83651</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.25</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45174.50694444445</v>
+        <v>45174.375</v>
       </c>
     </row>
     <row r="129">
@@ -2237,13 +2237,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>83905</v>
+        <v>83701</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.5</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45174.50694444445</v>
+        <v>45174.56944444445</v>
       </c>
     </row>
     <row r="130">
@@ -2251,13 +2251,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>83906</v>
+        <v>83702</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>45174.51388888889</v>
+        <v>45174.49861111111</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.56805555556</v>
       </c>
     </row>
     <row r="131">
@@ -2265,13 +2265,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>83907</v>
+        <v>83703</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>45174.51388888889</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.62361111111</v>
       </c>
     </row>
     <row r="132">
@@ -2279,13 +2279,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>83908</v>
+        <v>83728</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>45174.51388888889</v>
+        <v>45174.30138888889</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.62152777778</v>
       </c>
     </row>
     <row r="133">
@@ -2293,13 +2293,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>83909</v>
+        <v>83730</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>45174.51388888889</v>
+        <v>45174.70763888889</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.77708333333</v>
       </c>
     </row>
     <row r="134">
@@ -2307,13 +2307,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>83910</v>
+        <v>83744</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>45174.5625</v>
+        <v>45174.72013888889</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45174.63194444445</v>
+        <v>45174.78958333333</v>
       </c>
     </row>
     <row r="135">
@@ -2321,13 +2321,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>83911</v>
+        <v>83745</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.35138888889</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45174.71527777778</v>
+        <v>45174.47638888889</v>
       </c>
     </row>
     <row r="136">
@@ -2335,13 +2335,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>83912</v>
+        <v>83748</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.34722222222</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45174.71527777778</v>
+        <v>45174.41666666666</v>
       </c>
     </row>
     <row r="137">
@@ -2349,13 +2349,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>83913</v>
+        <v>83749</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>45174.5625</v>
+        <v>45174.34722222222</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45174.63194444445</v>
+        <v>45174.62152777778</v>
       </c>
     </row>
     <row r="138">
@@ -2363,13 +2363,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>83914</v>
+        <v>83752</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>45174.5625</v>
+        <v>45174.23888888889</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45174.63194444445</v>
+        <v>45174.47569444445</v>
       </c>
     </row>
     <row r="139">
@@ -2377,13 +2377,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>83915</v>
+        <v>83757</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.44791666666</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45174.71527777778</v>
+        <v>45174.62152777778</v>
       </c>
     </row>
     <row r="140">
@@ -2391,13 +2391,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>83916</v>
+        <v>83764</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>45174.5625</v>
+        <v>45174.29513888889</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45174.63194444445</v>
+        <v>45174.42013888889</v>
       </c>
     </row>
     <row r="141">
@@ -2405,13 +2405,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>83917</v>
+        <v>83786</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>45174.5625</v>
+        <v>45174.27083333334</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45174.63194444445</v>
+        <v>45174.58680555555</v>
       </c>
     </row>
     <row r="142">
@@ -2419,13 +2419,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>83918</v>
+        <v>83835</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.41388888889</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45174.71527777778</v>
+        <v>45174.76875</v>
       </c>
     </row>
     <row r="143">
@@ -2433,13 +2433,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>83919</v>
+        <v>83888</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>45174.5625</v>
+        <v>45174.63888888889</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45174.63194444445</v>
+        <v>45174.70833333334</v>
       </c>
     </row>
     <row r="144">
@@ -2447,13 +2447,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>83603</v>
+        <v>83894</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>45174.5625</v>
+        <v>45174.79861111111</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45174.63194444445</v>
+        <v>45174.86805555555</v>
       </c>
     </row>
     <row r="145">
@@ -2461,13 +2461,349 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>83581</v>
+        <v>83895</v>
       </c>
       <c r="C145" s="2" t="n">
+        <v>45174.48472222222</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>45174.55416666667</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>83897</v>
+      </c>
+      <c r="C146" s="2" t="n">
         <v>45174.64583333334</v>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D146" s="2" t="n">
         <v>45174.71527777778</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>83898</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>45174.50694444445</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>83899</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>45174.50694444445</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>83900</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>45174.50694444445</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>83901</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>45174.50694444445</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>83902</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>45174.50694444445</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>83903</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>45174.50694444445</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>83904</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>45174.58333333334</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>83905</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>45174.58333333334</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>83906</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>45174.58333333334</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>83907</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>45174.58333333334</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>83908</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>83909</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>45174.64583333334</v>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>45174.71527777778</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>83910</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>45174.64583333334</v>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>45174.71527777778</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>83911</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>83912</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>83913</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>45174.64583333334</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>45174.71527777778</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>83914</v>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>83915</v>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>83916</v>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>45174.64583333334</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>45174.71527777778</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>83917</v>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>83918</v>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>83919</v>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>45174.64583333334</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>45174.71527777778</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>83961</v>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>45174.64236111111</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>45174.71180555555</v>
       </c>
     </row>
   </sheetData>

--- a/static/tmp/planificacion3.xlsx
+++ b/static/tmp/planificacion3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,13 +543,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82179</v>
+        <v>82152</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.80555555555</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45174.875</v>
       </c>
     </row>
     <row r="9">
@@ -557,13 +557,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82281</v>
+        <v>82179</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45174.5625</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45174.90486111111</v>
+        <v>45174.70486111111</v>
       </c>
     </row>
     <row r="10">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82286</v>
+        <v>82281</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45174.92569444444</v>
+        <v>45174.88402777778</v>
       </c>
     </row>
     <row r="11">
@@ -585,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82291</v>
+        <v>82286</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.58333333334</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45174.84236111111</v>
+        <v>45174.92569444444</v>
       </c>
     </row>
     <row r="12">
@@ -599,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82292</v>
+        <v>82291</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45174.60416666666</v>
+        <v>45174.5</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45174.94652777778</v>
+        <v>45174.84236111111</v>
       </c>
     </row>
     <row r="13">
@@ -613,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>82295</v>
+        <v>82292</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45174.53125</v>
+        <v>45174.60416666666</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45174.87361111111</v>
+        <v>45174.94652777778</v>
       </c>
     </row>
     <row r="14">
@@ -627,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>82298</v>
+        <v>82295</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45174.43819444445</v>
+        <v>45174.53125</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45174.75069444445</v>
+        <v>45174.87361111111</v>
       </c>
     </row>
     <row r="15">
@@ -641,13 +641,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82319</v>
+        <v>82298</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45174.41180555556</v>
+        <v>45174.43819444445</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45174.76041666666</v>
+        <v>45174.75069444445</v>
       </c>
     </row>
     <row r="16">
@@ -655,13 +655,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82320</v>
+        <v>82319</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45174.55763888889</v>
+        <v>45174.41180555556</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45174.8625</v>
+        <v>45174.76041666666</v>
       </c>
     </row>
     <row r="17">
@@ -669,13 +669,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>82321</v>
+        <v>82320</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45174.48472222222</v>
+        <v>45174.55763888889</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45174.78333333333</v>
+        <v>45174.8625</v>
       </c>
     </row>
     <row r="18">
@@ -683,13 +683,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>82328</v>
+        <v>82321</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45174.23958333334</v>
+        <v>45174.48472222222</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45174.56597222222</v>
+        <v>45174.78333333333</v>
       </c>
     </row>
     <row r="19">
@@ -697,13 +697,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>82340</v>
+        <v>82328</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45174.66666666666</v>
+        <v>45174.23958333334</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45175.07986111111</v>
+        <v>45174.56597222222</v>
       </c>
     </row>
     <row r="20">
@@ -711,13 +711,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>82356</v>
+        <v>82340</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45174.66666666666</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45175.0875</v>
+        <v>45175.07986111111</v>
       </c>
     </row>
     <row r="21">
@@ -725,13 +725,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>82361</v>
+        <v>82356</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45174.69444444445</v>
+        <v>45174.73819444444</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45175.04513888889</v>
+        <v>45175.0875</v>
       </c>
     </row>
     <row r="22">
@@ -739,13 +739,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>82386</v>
+        <v>82361</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45174.30902777778</v>
+        <v>45174.69444444445</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45174.62638888889</v>
+        <v>45175.04513888889</v>
       </c>
     </row>
     <row r="23">
@@ -753,13 +753,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>82429</v>
+        <v>82386</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45174.80416666667</v>
+        <v>45174.30902777778</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45174.87361111111</v>
+        <v>45174.62638888889</v>
       </c>
     </row>
     <row r="24">
@@ -767,13 +767,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>82435</v>
+        <v>82429</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45174.81527777778</v>
+        <v>45174.80416666667</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45174.88472222222</v>
+        <v>45174.87361111111</v>
       </c>
     </row>
     <row r="25">
@@ -781,13 +781,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>82436</v>
+        <v>82435</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45174.81805555556</v>
+        <v>45174.81527777778</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45174.8875</v>
+        <v>45174.88472222222</v>
       </c>
     </row>
     <row r="26">
@@ -795,13 +795,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>82442</v>
+        <v>82436</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45174.81666666667</v>
+        <v>45174.81805555556</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45174.88611111111</v>
+        <v>45174.8875</v>
       </c>
     </row>
     <row r="27">
@@ -809,13 +809,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>82528</v>
+        <v>82442</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45174.31319444445</v>
+        <v>45174.81666666667</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45174.62638888889</v>
+        <v>45174.88611111111</v>
       </c>
     </row>
     <row r="28">
@@ -823,13 +823,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>82620</v>
+        <v>82528</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45174.37430555555</v>
+        <v>45174.31319444445</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45174.72986111111</v>
+        <v>45174.62638888889</v>
       </c>
     </row>
     <row r="29">
@@ -837,13 +837,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>82621</v>
+        <v>82543</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45174.41597222222</v>
+        <v>45174.71388888889</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45174.77152777778</v>
+        <v>45175.00972222222</v>
       </c>
     </row>
     <row r="30">
@@ -851,13 +851,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>82625</v>
+        <v>82566</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45174.27013888889</v>
+        <v>45174.67013888889</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45174.62569444445</v>
+        <v>45174.73958333334</v>
       </c>
     </row>
     <row r="31">
@@ -865,13 +865,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>82627</v>
+        <v>82571</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45174.29097222222</v>
+        <v>45174.68055555555</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45174.65902777778</v>
+        <v>45174.75</v>
       </c>
     </row>
     <row r="32">
@@ -879,13 +879,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>82634</v>
+        <v>82589</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45174.33263888889</v>
+        <v>45174.65972222222</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45174.68819444445</v>
+        <v>45174.72916666666</v>
       </c>
     </row>
     <row r="33">
@@ -893,13 +893,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>82738</v>
+        <v>82590</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.71180555555</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45174.78125</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>82749</v>
+        <v>82620</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.37430555555</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45174.62361111111</v>
+        <v>45174.72986111111</v>
       </c>
     </row>
     <row r="35">
@@ -921,13 +921,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>82959</v>
+        <v>82621</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45174.42569444444</v>
+        <v>45174.41597222222</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45174.77361111111</v>
+        <v>45174.77152777778</v>
       </c>
     </row>
     <row r="36">
@@ -935,13 +935,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83082</v>
+        <v>82625</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45174.63888888889</v>
+        <v>45174.27013888889</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45174.62569444445</v>
       </c>
     </row>
     <row r="37">
@@ -949,13 +949,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>83083</v>
+        <v>82627</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45174.63888888889</v>
+        <v>45174.29097222222</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45174.65902777778</v>
       </c>
     </row>
     <row r="38">
@@ -963,13 +963,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>83085</v>
+        <v>82634</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45174.63888888889</v>
+        <v>45174.33263888889</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45174.68819444445</v>
       </c>
     </row>
     <row r="39">
@@ -977,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>83094</v>
+        <v>82738</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45174.27083333334</v>
+        <v>45174.5</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45174.6</v>
+        <v>45174.70486111111</v>
       </c>
     </row>
     <row r="40">
@@ -991,13 +991,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>83100</v>
+        <v>82749</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45174.54166666666</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45174.89930555555</v>
+        <v>45174.62361111111</v>
       </c>
     </row>
     <row r="41">
@@ -1005,13 +1005,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>83111</v>
+        <v>82959</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45174.66944444444</v>
+        <v>45174.42569444444</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45174.97638888889</v>
+        <v>45174.77361111111</v>
       </c>
     </row>
     <row r="42">
@@ -1019,13 +1019,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83136</v>
+        <v>83082</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45174.33611111111</v>
+        <v>45174.63888888889</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45174.40555555555</v>
+        <v>45174.70833333334</v>
       </c>
     </row>
     <row r="43">
@@ -1033,13 +1033,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>83142</v>
+        <v>83083</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45174.65347222222</v>
+        <v>45174.63888888889</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45174.95277777778</v>
+        <v>45174.70833333334</v>
       </c>
     </row>
     <row r="44">
@@ -1047,13 +1047,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83147</v>
+        <v>83085</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45174.37638888889</v>
+        <v>45174.63888888889</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45174.44583333333</v>
+        <v>45174.70833333334</v>
       </c>
     </row>
     <row r="45">
@@ -1061,13 +1061,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>83156</v>
+        <v>83094</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45174.40486111111</v>
+        <v>45174.27083333334</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45174.6</v>
       </c>
     </row>
     <row r="46">
@@ -1075,13 +1075,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>83160</v>
+        <v>83100</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45174.36805555555</v>
+        <v>45174.5</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.85763888889</v>
       </c>
     </row>
     <row r="47">
@@ -1089,13 +1089,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>83165</v>
+        <v>83111</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45174.3625</v>
+        <v>45174.66944444444</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45174.97638888889</v>
       </c>
     </row>
     <row r="48">
@@ -1103,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>83167</v>
+        <v>83136</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45174.38472222222</v>
+        <v>45174.33611111111</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45174.45416666667</v>
+        <v>45174.40555555555</v>
       </c>
     </row>
     <row r="49">
@@ -1117,13 +1117,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>83168</v>
+        <v>83142</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45174.56944444445</v>
+        <v>45174.65347222222</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45174.87083333333</v>
+        <v>45174.95277777778</v>
       </c>
     </row>
     <row r="50">
@@ -1131,13 +1131,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>83170</v>
+        <v>83147</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45174.41388888889</v>
+        <v>45174.37638888889</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45174.48333333333</v>
+        <v>45174.44583333333</v>
       </c>
     </row>
     <row r="51">
@@ -1145,13 +1145,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83181</v>
+        <v>83156</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45174.34583333333</v>
+        <v>45174.40486111111</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45174.41527777778</v>
+        <v>45174.57986111111</v>
       </c>
     </row>
     <row r="52">
@@ -1159,13 +1159,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83182</v>
+        <v>83160</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45174.57291666666</v>
+        <v>45174.36805555555</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45174.74652777778</v>
+        <v>45174.4375</v>
       </c>
     </row>
     <row r="53">
@@ -1173,13 +1173,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>83184</v>
+        <v>83165</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45174.50902777778</v>
+        <v>45174.3625</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45174.80069444444</v>
+        <v>45174.53819444445</v>
       </c>
     </row>
     <row r="54">
@@ -1187,13 +1187,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>83185</v>
+        <v>83167</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45174.56875</v>
+        <v>45174.38472222222</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45174.86527777778</v>
+        <v>45174.45416666667</v>
       </c>
     </row>
     <row r="55">
@@ -1201,13 +1201,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>83186</v>
+        <v>83168</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45174.36319444444</v>
+        <v>45174.56944444445</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45174.65486111111</v>
+        <v>45174.87083333333</v>
       </c>
     </row>
     <row r="56">
@@ -1215,13 +1215,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>83187</v>
+        <v>83170</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45174.41388888889</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45174.65486111111</v>
+        <v>45174.48333333333</v>
       </c>
     </row>
     <row r="57">
@@ -1229,13 +1229,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>83190</v>
+        <v>83181</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45174.59305555555</v>
+        <v>45174.34583333333</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45174.88263888889</v>
+        <v>45174.41527777778</v>
       </c>
     </row>
     <row r="58">
@@ -1243,13 +1243,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>83192</v>
+        <v>83182</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45174.38055555556</v>
+        <v>45174.57291666666</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45174.45</v>
+        <v>45174.74652777778</v>
       </c>
     </row>
     <row r="59">
@@ -1257,13 +1257,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>83196</v>
+        <v>83184</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45174.52083333334</v>
+        <v>45174.50902777778</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45174.72569444445</v>
+        <v>45174.80069444444</v>
       </c>
     </row>
     <row r="60">
@@ -1271,13 +1271,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>83198</v>
+        <v>83185</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45174.37430555555</v>
+        <v>45174.65208333333</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45174.44375</v>
+        <v>45174.94861111111</v>
       </c>
     </row>
     <row r="61">
@@ -1285,13 +1285,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>83203</v>
+        <v>83186</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45174.66666666666</v>
+        <v>45174.36319444444</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45175.02430555555</v>
+        <v>45174.65486111111</v>
       </c>
     </row>
     <row r="62">
@@ -1299,13 +1299,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>83205</v>
+        <v>83187</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45174.36597222222</v>
+        <v>45174.33333333334</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45174.43541666667</v>
+        <v>45174.65486111111</v>
       </c>
     </row>
     <row r="63">
@@ -1313,13 +1313,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>83210</v>
+        <v>83190</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45174.40763888889</v>
+        <v>45174.59305555555</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45174.47708333333</v>
+        <v>45174.88263888889</v>
       </c>
     </row>
     <row r="64">
@@ -1327,13 +1327,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>83214</v>
+        <v>83192</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45174.33055555556</v>
+        <v>45174.38055555556</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45174.4</v>
+        <v>45174.45</v>
       </c>
     </row>
     <row r="65">
@@ -1341,13 +1341,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>83215</v>
+        <v>83196</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45174.57152777778</v>
+        <v>45174.52083333334</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45174.74652777778</v>
+        <v>45174.72569444445</v>
       </c>
     </row>
     <row r="66">
@@ -1355,13 +1355,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>83217</v>
+        <v>83198</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45174.34236111111</v>
+        <v>45174.37430555555</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45174.51736111111</v>
+        <v>45174.44375</v>
       </c>
     </row>
     <row r="67">
@@ -1369,13 +1369,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>83219</v>
+        <v>83203</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45174.36180555556</v>
+        <v>45174.66666666666</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45174.43125</v>
+        <v>45175.02430555555</v>
       </c>
     </row>
     <row r="68">
@@ -1383,13 +1383,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>83221</v>
+        <v>83205</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.36597222222</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45174.82152777778</v>
+        <v>45174.43541666667</v>
       </c>
     </row>
     <row r="69">
@@ -1397,13 +1397,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>83222</v>
+        <v>83210</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45174.29861111111</v>
+        <v>45174.40763888889</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45174.6</v>
+        <v>45174.47708333333</v>
       </c>
     </row>
     <row r="70">
@@ -1411,13 +1411,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>83226</v>
+        <v>83214</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45174.36041666667</v>
+        <v>45174.33055555556</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45174.4</v>
       </c>
     </row>
     <row r="71">
@@ -1425,13 +1425,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>83227</v>
+        <v>83215</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45174.21944444445</v>
+        <v>45174.57152777778</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45174.39236111111</v>
+        <v>45174.74652777778</v>
       </c>
     </row>
     <row r="72">
@@ -1439,13 +1439,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>83230</v>
+        <v>83217</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45174.34027777778</v>
+        <v>45174.34236111111</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45174.40972222222</v>
+        <v>45174.51736111111</v>
       </c>
     </row>
     <row r="73">
@@ -1453,13 +1453,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>83232</v>
+        <v>83219</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45174.34166666667</v>
+        <v>45174.36180555556</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45174.41111111111</v>
+        <v>45174.43125</v>
       </c>
     </row>
     <row r="74">
@@ -1467,13 +1467,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>83257</v>
+        <v>83221</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.5</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45174.82152777778</v>
       </c>
     </row>
     <row r="75">
@@ -1481,13 +1481,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>83261</v>
+        <v>83222</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45174.29861111111</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45174.6</v>
       </c>
     </row>
     <row r="76">
@@ -1495,13 +1495,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>83263</v>
+        <v>83226</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.36041666667</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45174.49652777778</v>
+        <v>45174.53819444445</v>
       </c>
     </row>
     <row r="77">
@@ -1509,13 +1509,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>83268</v>
+        <v>83227</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45174.63611111111</v>
+        <v>45174.21944444445</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45174.95833333334</v>
+        <v>45174.39236111111</v>
       </c>
     </row>
     <row r="78">
@@ -1523,13 +1523,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>83269</v>
+        <v>83230</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45174.63611111111</v>
+        <v>45174.34027777778</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45174.95833333334</v>
+        <v>45174.40972222222</v>
       </c>
     </row>
     <row r="79">
@@ -1537,13 +1537,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>83271</v>
+        <v>83232</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45174.32361111111</v>
+        <v>45174.34166666667</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.41111111111</v>
       </c>
     </row>
     <row r="80">
@@ -1551,13 +1551,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>83272</v>
+        <v>83257</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45174.32361111111</v>
+        <v>45174.375</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.57986111111</v>
       </c>
     </row>
     <row r="81">
@@ -1565,13 +1565,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>83273</v>
+        <v>83261</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45174.42777777778</v>
+        <v>45174.33333333334</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45174.75</v>
+        <v>45174.53819444445</v>
       </c>
     </row>
     <row r="82">
@@ -1579,13 +1579,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>83274</v>
+        <v>83263</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45174.42777777778</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45174.75</v>
+        <v>45174.49652777778</v>
       </c>
     </row>
     <row r="83">
@@ -1593,13 +1593,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>83275</v>
+        <v>83268</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45174.55277777778</v>
+        <v>45174.63611111111</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45174.875</v>
+        <v>45174.95833333334</v>
       </c>
     </row>
     <row r="84">
@@ -1607,13 +1607,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>83276</v>
+        <v>83269</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45174.55277777778</v>
+        <v>45174.63611111111</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45174.875</v>
+        <v>45174.95833333334</v>
       </c>
     </row>
     <row r="85">
@@ -1621,13 +1621,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>83280</v>
+        <v>83271</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45174.65833333333</v>
+        <v>45174.32361111111</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45174.72777777778</v>
+        <v>45174.64583333334</v>
       </c>
     </row>
     <row r="86">
@@ -1635,13 +1635,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>83281</v>
+        <v>83272</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45174.79722222222</v>
+        <v>45174.32361111111</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45174.86666666667</v>
+        <v>45174.64583333334</v>
       </c>
     </row>
     <row r="87">
@@ -1649,13 +1649,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>83284</v>
+        <v>83273</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45174.41805555556</v>
+        <v>45174.42777777778</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45174.72430555556</v>
+        <v>45174.75</v>
       </c>
     </row>
     <row r="88">
@@ -1663,13 +1663,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>83285</v>
+        <v>83274</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45174.29305555556</v>
+        <v>45174.42777777778</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45174.59930555556</v>
+        <v>45174.75</v>
       </c>
     </row>
     <row r="89">
@@ -1677,13 +1677,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>83296</v>
+        <v>83275</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45174.52083333334</v>
+        <v>45174.55277777778</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45174.875</v>
       </c>
     </row>
     <row r="90">
@@ -1691,13 +1691,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>83300</v>
+        <v>83276</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>45174.47222222222</v>
+        <v>45174.55277777778</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45174.54166666666</v>
+        <v>45174.875</v>
       </c>
     </row>
     <row r="91">
@@ -1705,13 +1705,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>83306</v>
+        <v>83280</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45174.3125</v>
+        <v>45174.65833333333</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45174.51736111111</v>
+        <v>45174.72777777778</v>
       </c>
     </row>
     <row r="92">
@@ -1719,13 +1719,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>83308</v>
+        <v>83281</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>45174.22916666666</v>
+        <v>45174.79722222222</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45174.43402777778</v>
+        <v>45174.86666666667</v>
       </c>
     </row>
     <row r="93">
@@ -1733,13 +1733,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>83348</v>
+        <v>83284</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.41805555556</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45174.61944444444</v>
+        <v>45174.72430555556</v>
       </c>
     </row>
     <row r="94">
@@ -1747,13 +1747,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>83360</v>
+        <v>83285</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>45174.87083333333</v>
+        <v>45174.29305555556</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45174.94027777778</v>
+        <v>45174.59930555556</v>
       </c>
     </row>
     <row r="95">
@@ -1761,13 +1761,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>83363</v>
+        <v>83296</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.52083333334</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45174.83611111111</v>
+        <v>45174.70486111111</v>
       </c>
     </row>
     <row r="96">
@@ -1775,13 +1775,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>83364</v>
+        <v>83300</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.47222222222</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45174.75277777778</v>
+        <v>45174.54166666666</v>
       </c>
     </row>
     <row r="97">
@@ -1789,13 +1789,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>83375</v>
+        <v>83306</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.3125</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45174.82986111111</v>
+        <v>45174.51736111111</v>
       </c>
     </row>
     <row r="98">
@@ -1803,13 +1803,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>83376</v>
+        <v>83308</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>45174.45833333334</v>
+        <v>45174.22916666666</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45174.87152777778</v>
+        <v>45174.43402777778</v>
       </c>
     </row>
     <row r="99">
@@ -1817,13 +1817,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>83378</v>
+        <v>83348</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>45174.30555555555</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45174.43055555555</v>
+        <v>45174.61944444444</v>
       </c>
     </row>
     <row r="100">
@@ -1831,13 +1831,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>83386</v>
+        <v>83360</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>45174.48194444444</v>
+        <v>45174.87083333333</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45174.55138888889</v>
+        <v>45174.94027777778</v>
       </c>
     </row>
     <row r="101">
@@ -1845,13 +1845,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>83388</v>
+        <v>83363</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.5</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45174.44444444445</v>
+        <v>45174.83611111111</v>
       </c>
     </row>
     <row r="102">
@@ -1859,13 +1859,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>83389</v>
+        <v>83364</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>45174.81111111111</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45174.88055555556</v>
+        <v>45174.75277777778</v>
       </c>
     </row>
     <row r="103">
@@ -1873,13 +1873,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>83527</v>
+        <v>83375</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>45174.32638888889</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45174.39583333334</v>
+        <v>45174.82986111111</v>
       </c>
     </row>
     <row r="104">
@@ -1887,13 +1887,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>83530</v>
+        <v>83376</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>45174.34722222222</v>
+        <v>45174.45833333334</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.87152777778</v>
       </c>
     </row>
     <row r="105">
@@ -1901,13 +1901,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>83532</v>
+        <v>83378</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>45174.35416666666</v>
+        <v>45174.30555555555</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45174.42361111111</v>
+        <v>45174.43055555555</v>
       </c>
     </row>
     <row r="106">
@@ -1915,13 +1915,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>83541</v>
+        <v>83386</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>45174.54166666666</v>
+        <v>45174.48194444444</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45174.61111111111</v>
+        <v>45174.55138888889</v>
       </c>
     </row>
     <row r="107">
@@ -1929,13 +1929,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>83542</v>
+        <v>83388</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>45174.68472222222</v>
+        <v>45174.375</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45174.75416666667</v>
+        <v>45174.44444444445</v>
       </c>
     </row>
     <row r="108">
@@ -1943,13 +1943,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>83547</v>
+        <v>83389</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>45174.44861111111</v>
+        <v>45174.81111111111</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45174.51805555556</v>
+        <v>45174.88055555556</v>
       </c>
     </row>
     <row r="109">
@@ -1957,13 +1957,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>83551</v>
+        <v>83527</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>45174.54305555556</v>
+        <v>45174.32638888889</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45174.6125</v>
+        <v>45174.39583333334</v>
       </c>
     </row>
     <row r="110">
@@ -1971,13 +1971,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>83556</v>
+        <v>83530</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>45174.44513888889</v>
+        <v>45174.34722222222</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45174.98194444444</v>
+        <v>45174.41666666666</v>
       </c>
     </row>
     <row r="111">
@@ -1985,13 +1985,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>83558</v>
+        <v>83532</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>45174.55208333334</v>
+        <v>45174.35416666666</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45174.62152777778</v>
+        <v>45174.42361111111</v>
       </c>
     </row>
     <row r="112">
@@ -1999,13 +1999,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>83562</v>
+        <v>83541</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>45174.47638888889</v>
+        <v>45174.54166666666</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45174.54583333333</v>
+        <v>45174.61111111111</v>
       </c>
     </row>
     <row r="113">
@@ -2013,13 +2013,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>83563</v>
+        <v>83542</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>45174.85972222222</v>
+        <v>45174.68472222222</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45174.92916666667</v>
+        <v>45174.75416666667</v>
       </c>
     </row>
     <row r="114">
@@ -2027,13 +2027,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>83581</v>
+        <v>83547</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>45174.65694444445</v>
+        <v>45174.44861111111</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45174.72638888889</v>
+        <v>45174.51805555556</v>
       </c>
     </row>
     <row r="115">
@@ -2041,13 +2041,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>83584</v>
+        <v>83551</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>45174.46041666667</v>
+        <v>45174.54305555556</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45174.52986111111</v>
+        <v>45174.6125</v>
       </c>
     </row>
     <row r="116">
@@ -2055,13 +2055,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>83600</v>
+        <v>83556</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>45174.43402777778</v>
+        <v>45174.44513888889</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45174.50347222222</v>
+        <v>45174.98194444444</v>
       </c>
     </row>
     <row r="117">
@@ -2069,13 +2069,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>83601</v>
+        <v>83558</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>45174.47013888889</v>
+        <v>45174.55208333334</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45174.53958333333</v>
+        <v>45174.62152777778</v>
       </c>
     </row>
     <row r="118">
@@ -2083,13 +2083,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>83602</v>
+        <v>83562</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>45174.47777777778</v>
+        <v>45174.47638888889</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45174.54722222222</v>
+        <v>45174.54583333333</v>
       </c>
     </row>
     <row r="119">
@@ -2097,13 +2097,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>83603</v>
+        <v>83563</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>45174.64166666667</v>
+        <v>45174.85972222222</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45174.71111111111</v>
+        <v>45174.92916666667</v>
       </c>
     </row>
     <row r="120">
@@ -2111,13 +2111,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>83605</v>
+        <v>83581</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>45174.86805555555</v>
+        <v>45174.65694444445</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45174.9375</v>
+        <v>45174.72638888889</v>
       </c>
     </row>
     <row r="121">
@@ -2125,13 +2125,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>83614</v>
+        <v>83584</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>45174.42986111111</v>
+        <v>45174.46041666667</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45174.49930555555</v>
+        <v>45174.52986111111</v>
       </c>
     </row>
     <row r="122">
@@ -2139,13 +2139,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>83615</v>
+        <v>83600</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>45174.47916666666</v>
+        <v>45174.43402777778</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45174.54861111111</v>
+        <v>45174.50347222222</v>
       </c>
     </row>
     <row r="123">
@@ -2153,13 +2153,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>83617</v>
+        <v>83601</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>45174.44166666667</v>
+        <v>45174.47013888889</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45174.51111111111</v>
+        <v>45174.53958333333</v>
       </c>
     </row>
     <row r="124">
@@ -2167,13 +2167,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>83623</v>
+        <v>83602</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>45174.43611111111</v>
+        <v>45174.47777777778</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45174.50555555556</v>
+        <v>45174.54722222222</v>
       </c>
     </row>
     <row r="125">
@@ -2181,13 +2181,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>83634</v>
+        <v>83603</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>45174.33194444444</v>
+        <v>45174.64166666667</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45174.40138888889</v>
+        <v>45174.71111111111</v>
       </c>
     </row>
     <row r="126">
@@ -2195,13 +2195,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>83646</v>
+        <v>83605</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>45174.30763888889</v>
+        <v>45174.86805555555</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45174.43263888889</v>
+        <v>45174.9375</v>
       </c>
     </row>
     <row r="127">
@@ -2209,13 +2209,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>83650</v>
+        <v>83614</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.42986111111</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45174.85347222222</v>
+        <v>45174.49930555555</v>
       </c>
     </row>
     <row r="128">
@@ -2223,13 +2223,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>83651</v>
+        <v>83615</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>45174.25</v>
+        <v>45174.47916666666</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45174.375</v>
+        <v>45174.54861111111</v>
       </c>
     </row>
     <row r="129">
@@ -2237,13 +2237,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>83701</v>
+        <v>83617</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>45174.5</v>
+        <v>45174.44166666667</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45174.56944444445</v>
+        <v>45174.51111111111</v>
       </c>
     </row>
     <row r="130">
@@ -2251,13 +2251,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>83702</v>
+        <v>83623</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>45174.49861111111</v>
+        <v>45174.43611111111</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45174.56805555556</v>
+        <v>45174.50555555556</v>
       </c>
     </row>
     <row r="131">
@@ -2265,13 +2265,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>83703</v>
+        <v>83634</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45174.33194444444</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45174.62361111111</v>
+        <v>45174.40138888889</v>
       </c>
     </row>
     <row r="132">
@@ -2279,13 +2279,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>83728</v>
+        <v>83646</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>45174.30138888889</v>
+        <v>45174.30763888889</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45174.62152777778</v>
+        <v>45174.43263888889</v>
       </c>
     </row>
     <row r="133">
@@ -2293,13 +2293,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>83730</v>
+        <v>83650</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>45174.70763888889</v>
+        <v>45174.5</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45174.77708333333</v>
+        <v>45174.85347222222</v>
       </c>
     </row>
     <row r="134">
@@ -2307,13 +2307,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>83744</v>
+        <v>83651</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>45174.72013888889</v>
+        <v>45174.25</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45174.78958333333</v>
+        <v>45174.375</v>
       </c>
     </row>
     <row r="135">
@@ -2321,13 +2321,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>83745</v>
+        <v>83701</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>45174.35138888889</v>
+        <v>45174.5</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45174.47638888889</v>
+        <v>45174.56944444445</v>
       </c>
     </row>
     <row r="136">
@@ -2335,13 +2335,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>83748</v>
+        <v>83702</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>45174.34722222222</v>
+        <v>45174.49861111111</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45174.56805555556</v>
       </c>
     </row>
     <row r="137">
@@ -2349,13 +2349,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>83749</v>
+        <v>83703</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>45174.34722222222</v>
+        <v>45174.29166666666</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45174.62152777778</v>
+        <v>45174.62361111111</v>
       </c>
     </row>
     <row r="138">
@@ -2363,13 +2363,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>83752</v>
+        <v>83728</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>45174.23888888889</v>
+        <v>45174.30138888889</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45174.47569444445</v>
+        <v>45174.62152777778</v>
       </c>
     </row>
     <row r="139">
@@ -2377,13 +2377,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>83757</v>
+        <v>83730</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>45174.44791666666</v>
+        <v>45174.70763888889</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45174.62152777778</v>
+        <v>45174.77708333333</v>
       </c>
     </row>
     <row r="140">
@@ -2391,13 +2391,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>83764</v>
+        <v>83744</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>45174.29513888889</v>
+        <v>45174.72013888889</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45174.42013888889</v>
+        <v>45174.78958333333</v>
       </c>
     </row>
     <row r="141">
@@ -2405,13 +2405,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>83786</v>
+        <v>83745</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>45174.27083333334</v>
+        <v>45174.35138888889</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45174.58680555555</v>
+        <v>45174.47638888889</v>
       </c>
     </row>
     <row r="142">
@@ -2419,13 +2419,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>83835</v>
+        <v>83748</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>45174.41388888889</v>
+        <v>45174.34722222222</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45174.76875</v>
+        <v>45174.41666666666</v>
       </c>
     </row>
     <row r="143">
@@ -2433,13 +2433,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>83888</v>
+        <v>83749</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>45174.63888888889</v>
+        <v>45174.34722222222</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45174.74375</v>
       </c>
     </row>
     <row r="144">
@@ -2447,13 +2447,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>83894</v>
+        <v>83752</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>45174.79861111111</v>
+        <v>45174.23888888889</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45174.86805555555</v>
+        <v>45174.47569444445</v>
       </c>
     </row>
     <row r="145">
@@ -2461,13 +2461,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>83895</v>
+        <v>83757</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>45174.48472222222</v>
+        <v>45174.44791666666</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45174.55416666667</v>
+        <v>45174.62152777778</v>
       </c>
     </row>
     <row r="146">
@@ -2475,13 +2475,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>83897</v>
+        <v>83764</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.29513888889</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45174.71527777778</v>
+        <v>45174.42013888889</v>
       </c>
     </row>
     <row r="147">
@@ -2489,13 +2489,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>83898</v>
+        <v>83786</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.27083333334</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45174.50694444445</v>
+        <v>45174.58680555555</v>
       </c>
     </row>
     <row r="148">
@@ -2503,13 +2503,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>83899</v>
+        <v>83835</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.41388888889</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45174.50694444445</v>
+        <v>45174.76875</v>
       </c>
     </row>
     <row r="149">
@@ -2517,13 +2517,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>83900</v>
+        <v>83888</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.63888888889</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45174.50694444445</v>
+        <v>45174.70833333334</v>
       </c>
     </row>
     <row r="150">
@@ -2531,13 +2531,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>83901</v>
+        <v>83894</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.79861111111</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45174.50694444445</v>
+        <v>45174.86805555555</v>
       </c>
     </row>
     <row r="151">
@@ -2545,13 +2545,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>83902</v>
+        <v>83895</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.48472222222</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45174.50694444445</v>
+        <v>45174.55416666667</v>
       </c>
     </row>
     <row r="152">
@@ -2559,13 +2559,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>83903</v>
+        <v>83897</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45174.64583333334</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45174.50694444445</v>
+        <v>45174.71527777778</v>
       </c>
     </row>
     <row r="153">
@@ -2573,13 +2573,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>83904</v>
+        <v>83898</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>45174.51388888889</v>
+        <v>45174.4375</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.50694444445</v>
       </c>
     </row>
     <row r="154">
@@ -2587,13 +2587,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>83905</v>
+        <v>83899</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>45174.51388888889</v>
+        <v>45174.4375</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.50694444445</v>
       </c>
     </row>
     <row r="155">
@@ -2601,13 +2601,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>83906</v>
+        <v>83900</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>45174.51388888889</v>
+        <v>45174.4375</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.50694444445</v>
       </c>
     </row>
     <row r="156">
@@ -2615,13 +2615,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>83907</v>
+        <v>83901</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>45174.51388888889</v>
+        <v>45174.4375</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45174.50694444445</v>
       </c>
     </row>
     <row r="157">
@@ -2629,13 +2629,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>83908</v>
+        <v>83902</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>45174.5625</v>
+        <v>45174.4375</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45174.63194444445</v>
+        <v>45174.50694444445</v>
       </c>
     </row>
     <row r="158">
@@ -2643,13 +2643,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>83909</v>
+        <v>83903</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.4375</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45174.71527777778</v>
+        <v>45174.50694444445</v>
       </c>
     </row>
     <row r="159">
@@ -2657,13 +2657,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>83910</v>
+        <v>83904</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.51388888889</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45174.71527777778</v>
+        <v>45174.58333333334</v>
       </c>
     </row>
     <row r="160">
@@ -2671,13 +2671,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>83911</v>
+        <v>83905</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>45174.5625</v>
+        <v>45174.51388888889</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45174.63194444445</v>
+        <v>45174.58333333334</v>
       </c>
     </row>
     <row r="161">
@@ -2685,13 +2685,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>83912</v>
+        <v>83906</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>45174.5625</v>
+        <v>45174.51388888889</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45174.63194444445</v>
+        <v>45174.58333333334</v>
       </c>
     </row>
     <row r="162">
@@ -2699,13 +2699,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>83913</v>
+        <v>83907</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45174.51388888889</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45174.71527777778</v>
+        <v>45174.58333333334</v>
       </c>
     </row>
     <row r="163">
@@ -2713,7 +2713,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>83914</v>
+        <v>83908</v>
       </c>
       <c r="C163" s="2" t="n">
         <v>45174.5625</v>
@@ -2727,13 +2727,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>83915</v>
+        <v>83909</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>45174.5625</v>
+        <v>45174.64583333334</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45174.63194444445</v>
+        <v>45174.71527777778</v>
       </c>
     </row>
     <row r="165">
@@ -2741,7 +2741,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>83916</v>
+        <v>83910</v>
       </c>
       <c r="C165" s="2" t="n">
         <v>45174.64583333334</v>
@@ -2755,7 +2755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>83917</v>
+        <v>83911</v>
       </c>
       <c r="C166" s="2" t="n">
         <v>45174.5625</v>
@@ -2769,7 +2769,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>83918</v>
+        <v>83912</v>
       </c>
       <c r="C167" s="2" t="n">
         <v>45174.5625</v>
@@ -2783,7 +2783,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>83919</v>
+        <v>83913</v>
       </c>
       <c r="C168" s="2" t="n">
         <v>45174.64583333334</v>
@@ -2797,13 +2797,97 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>83914</v>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>83915</v>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>83916</v>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>45174.64583333334</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>45174.71527777778</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>83917</v>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>83918</v>
+      </c>
+      <c r="C173" s="2" t="n">
+        <v>45174.5625</v>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>45174.63194444445</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>83919</v>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>45174.64583333334</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>45174.71527777778</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
         <v>83961</v>
       </c>
-      <c r="C169" s="2" t="n">
-        <v>45174.64236111111</v>
-      </c>
-      <c r="D169" s="2" t="n">
-        <v>45174.71180555555</v>
+      <c r="C175" s="2" t="n">
+        <v>45174.72569444445</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>45174.79513888889</v>
       </c>
     </row>
   </sheetData>

--- a/static/tmp/planificacion3.xlsx
+++ b/static/tmp/planificacion3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,13 +459,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81316</v>
+        <v>81522</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45174.6125</v>
+        <v>45180.52291666667</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45174.90902777778</v>
+        <v>45180.64791666667</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>81808</v>
+        <v>82533</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45174.25</v>
+        <v>45180.40416666667</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45174.57638888889</v>
+        <v>45180.6834375</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +487,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>81810</v>
+        <v>82534</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45180.27916666667</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45174.65972222222</v>
+        <v>45180.55427083333</v>
       </c>
     </row>
     <row r="5">
@@ -501,13 +501,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>81811</v>
+        <v>82983</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45174.41666666666</v>
+        <v>45180.34166666667</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45174.74305555555</v>
+        <v>45180.61677083333</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81812</v>
+        <v>83150</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45174.5</v>
+        <v>45180.42222222222</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45174.82638888889</v>
+        <v>45180.72763888889</v>
       </c>
     </row>
     <row r="7">
@@ -529,13 +529,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>81823</v>
+        <v>83180</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45174.72013888889</v>
+        <v>45180.39583333334</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45174.78958333333</v>
+        <v>45180.63847222222</v>
       </c>
     </row>
     <row r="8">
@@ -543,13 +543,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82152</v>
+        <v>83207</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45174.80555555555</v>
+        <v>45180.34236111111</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45174.875</v>
+        <v>45180.47708333333</v>
       </c>
     </row>
     <row r="9">
@@ -557,13 +557,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82179</v>
+        <v>83241</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45180.42569444444</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45180.56041666667</v>
       </c>
     </row>
     <row r="10">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82281</v>
+        <v>83242</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45174.54166666666</v>
+        <v>45180.33333333334</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45174.88402777778</v>
+        <v>45180.58819444444</v>
       </c>
     </row>
     <row r="11">
@@ -585,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82286</v>
+        <v>83248</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45174.58333333334</v>
+        <v>45180.29166666666</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45174.92569444444</v>
+        <v>45180.54652777778</v>
       </c>
     </row>
     <row r="12">
@@ -599,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82291</v>
+        <v>83279</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45174.5</v>
+        <v>45180.25763888889</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45174.84236111111</v>
+        <v>45180.49861111111</v>
       </c>
     </row>
     <row r="13">
@@ -613,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>82292</v>
+        <v>83297</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45174.60416666666</v>
+        <v>45180.27152777778</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45174.94652777778</v>
+        <v>45180.67708333334</v>
       </c>
     </row>
     <row r="14">
@@ -627,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>82295</v>
+        <v>83301</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45174.53125</v>
+        <v>45180.29166666666</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45174.87361111111</v>
+        <v>45180.68041666667</v>
       </c>
     </row>
     <row r="15">
@@ -641,13 +641,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82298</v>
+        <v>83316</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45174.43819444445</v>
+        <v>45180.29375</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45174.75069444445</v>
+        <v>45180.63225694445</v>
       </c>
     </row>
     <row r="16">
@@ -655,13 +655,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82319</v>
+        <v>83328</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45174.41180555556</v>
+        <v>45180.44583333333</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45174.76041666666</v>
+        <v>45180.7209375</v>
       </c>
     </row>
     <row r="17">
@@ -669,13 +669,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>82320</v>
+        <v>83329</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45174.55763888889</v>
+        <v>45180.575</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45174.8625</v>
+        <v>45180.64444444444</v>
       </c>
     </row>
     <row r="18">
@@ -683,13 +683,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>82321</v>
+        <v>83335</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45174.48472222222</v>
+        <v>45180.64930555555</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45174.78333333333</v>
+        <v>45180.71875</v>
       </c>
     </row>
     <row r="19">
@@ -697,13 +697,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>82328</v>
+        <v>83336</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45174.23958333334</v>
+        <v>45180.35694444444</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45174.56597222222</v>
+        <v>45180.59166666667</v>
       </c>
     </row>
     <row r="20">
@@ -711,13 +711,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>82340</v>
+        <v>83344</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45174.66666666666</v>
+        <v>45180.27152777778</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45175.07986111111</v>
+        <v>45180.50833333333</v>
       </c>
     </row>
     <row r="21">
@@ -725,13 +725,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>82356</v>
+        <v>83345</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45174.73819444444</v>
+        <v>45180.25</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45175.0875</v>
+        <v>45180.66572916666</v>
       </c>
     </row>
     <row r="22">
@@ -739,13 +739,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>82361</v>
+        <v>83346</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45174.69444444445</v>
+        <v>45180.375</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45175.04513888889</v>
+        <v>45180.79072916666</v>
       </c>
     </row>
     <row r="23">
@@ -753,13 +753,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>82386</v>
+        <v>83347</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45174.30902777778</v>
+        <v>45180.5</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45174.62638888889</v>
+        <v>45180.91572916666</v>
       </c>
     </row>
     <row r="24">
@@ -767,13 +767,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>82429</v>
+        <v>83349</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45174.80416666667</v>
+        <v>45180.58333333334</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45174.87361111111</v>
+        <v>45180.9990625</v>
       </c>
     </row>
     <row r="25">
@@ -781,13 +781,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>82435</v>
+        <v>83358</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45174.81527777778</v>
+        <v>45180.42430555556</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45174.88472222222</v>
+        <v>45180.66527777778</v>
       </c>
     </row>
     <row r="26">
@@ -795,13 +795,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>82436</v>
+        <v>83372</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45174.81805555556</v>
+        <v>45180.36041666667</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45174.8875</v>
+        <v>45180.66180555556</v>
       </c>
     </row>
     <row r="27">
@@ -809,13 +809,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>82442</v>
+        <v>83373</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45174.81666666667</v>
+        <v>45180.33333333334</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45174.88611111111</v>
+        <v>45180.711875</v>
       </c>
     </row>
     <row r="28">
@@ -823,13 +823,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>82528</v>
+        <v>83383</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45174.31319444445</v>
+        <v>45180.3125</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45174.62638888889</v>
+        <v>45180.65166666666</v>
       </c>
     </row>
     <row r="29">
@@ -837,13 +837,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>82543</v>
+        <v>83387</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45174.71388888889</v>
+        <v>45180.29166666666</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45175.00972222222</v>
+        <v>45180.60347222222</v>
       </c>
     </row>
     <row r="30">
@@ -851,13 +851,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>82566</v>
+        <v>83390</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45174.67013888889</v>
+        <v>45180.31180555555</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45174.73958333334</v>
+        <v>45180.65416666667</v>
       </c>
     </row>
     <row r="31">
@@ -865,13 +865,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>82571</v>
+        <v>83445</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45174.68055555555</v>
+        <v>45180.29097222222</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45174.75</v>
+        <v>45180.63333333333</v>
       </c>
     </row>
     <row r="32">
@@ -879,13 +879,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>82589</v>
+        <v>83460</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45174.65972222222</v>
+        <v>45180.56944444445</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45174.72916666666</v>
+        <v>45180.63888888889</v>
       </c>
     </row>
     <row r="33">
@@ -893,13 +893,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>82590</v>
+        <v>83464</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45174.71180555555</v>
+        <v>45180.56388888889</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45174.78125</v>
+        <v>45180.63333333333</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>82620</v>
+        <v>83474</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45174.37430555555</v>
+        <v>45180.55972222222</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45174.72986111111</v>
+        <v>45180.62916666667</v>
       </c>
     </row>
     <row r="35">
@@ -921,13 +921,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>82621</v>
+        <v>83478</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45174.41597222222</v>
+        <v>45180.56805555556</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45174.77152777778</v>
+        <v>45180.6375</v>
       </c>
     </row>
     <row r="36">
@@ -935,13 +935,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>82625</v>
+        <v>83483</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45174.27013888889</v>
+        <v>45180.56527777778</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45174.62569444445</v>
+        <v>45180.63472222222</v>
       </c>
     </row>
     <row r="37">
@@ -949,13 +949,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>82627</v>
+        <v>83497</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45174.29097222222</v>
+        <v>45180.56666666667</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45174.65902777778</v>
+        <v>45180.63611111111</v>
       </c>
     </row>
     <row r="38">
@@ -963,13 +963,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>82634</v>
+        <v>83503</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45174.33263888889</v>
+        <v>45180.56111111111</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45174.68819444445</v>
+        <v>45180.63055555556</v>
       </c>
     </row>
     <row r="39">
@@ -977,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>82738</v>
+        <v>83512</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45174.5</v>
+        <v>45180.57777777778</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45174.70486111111</v>
+        <v>45180.64722222222</v>
       </c>
     </row>
     <row r="40">
@@ -991,13 +991,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>82749</v>
+        <v>83521</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45180.55555555555</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45174.62361111111</v>
+        <v>45180.625</v>
       </c>
     </row>
     <row r="41">
@@ -1005,13 +1005,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>82959</v>
+        <v>83544</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45174.42569444444</v>
+        <v>45180.58055555556</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45174.77361111111</v>
+        <v>45180.65</v>
       </c>
     </row>
     <row r="42">
@@ -1019,13 +1019,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83082</v>
+        <v>83552</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45174.63888888889</v>
+        <v>45180.29166666666</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45180.66111111111</v>
       </c>
     </row>
     <row r="43">
@@ -1033,13 +1033,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>83083</v>
+        <v>83642</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45174.63888888889</v>
+        <v>45180.79166666666</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45181.15277777778</v>
       </c>
     </row>
     <row r="44">
@@ -1047,13 +1047,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83085</v>
+        <v>83660</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45174.63888888889</v>
+        <v>45180.36180555556</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45174.70833333334</v>
+        <v>45180.71663194444</v>
       </c>
     </row>
     <row r="45">
@@ -1061,13 +1061,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>83094</v>
+        <v>83700</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45174.27083333334</v>
+        <v>45180.26597222222</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45174.6</v>
+        <v>45180.63333333333</v>
       </c>
     </row>
     <row r="46">
@@ -1075,13 +1075,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>83100</v>
+        <v>83790</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45174.5</v>
+        <v>45180.36388888889</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45174.85763888889</v>
+        <v>45180.70763888889</v>
       </c>
     </row>
     <row r="47">
@@ -1089,13 +1089,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>83111</v>
+        <v>83804</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45174.66944444444</v>
+        <v>45180.33888888889</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45174.97638888889</v>
+        <v>45180.40833333333</v>
       </c>
     </row>
     <row r="48">
@@ -1103,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>83136</v>
+        <v>83810</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45174.33611111111</v>
+        <v>45180.38819444444</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45174.40555555555</v>
+        <v>45180.45763888889</v>
       </c>
     </row>
     <row r="49">
@@ -1117,13 +1117,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>83142</v>
+        <v>83817</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45174.65347222222</v>
+        <v>45180.32638888889</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45174.95277777778</v>
+        <v>45180.39583333334</v>
       </c>
     </row>
     <row r="50">
@@ -1131,13 +1131,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>83147</v>
+        <v>83827</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45174.37638888889</v>
+        <v>45180.34027777778</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45174.44583333333</v>
+        <v>45180.40972222222</v>
       </c>
     </row>
     <row r="51">
@@ -1145,13 +1145,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83156</v>
+        <v>83845</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45174.40486111111</v>
+        <v>45180.54930555556</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45180.61875</v>
       </c>
     </row>
     <row r="52">
@@ -1159,13 +1159,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83160</v>
+        <v>83846</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45174.36805555555</v>
+        <v>45180.39652777778</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45174.4375</v>
+        <v>45180.46597222222</v>
       </c>
     </row>
     <row r="53">
@@ -1173,13 +1173,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>83165</v>
+        <v>83851</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45174.3625</v>
+        <v>45180.56805555556</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45180.6375</v>
       </c>
     </row>
     <row r="54">
@@ -1187,13 +1187,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>83167</v>
+        <v>83853</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45174.38472222222</v>
+        <v>45180.42777777778</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45174.45416666667</v>
+        <v>45180.49722222222</v>
       </c>
     </row>
     <row r="55">
@@ -1201,13 +1201,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>83168</v>
+        <v>83854</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45174.56944444445</v>
+        <v>45180.53194444445</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45174.87083333333</v>
+        <v>45180.60138888889</v>
       </c>
     </row>
     <row r="56">
@@ -1215,13 +1215,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>83170</v>
+        <v>83855</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45174.41388888889</v>
+        <v>45180.46666666667</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45174.48333333333</v>
+        <v>45180.53611111111</v>
       </c>
     </row>
     <row r="57">
@@ -1229,13 +1229,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>83181</v>
+        <v>83857</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45174.34583333333</v>
+        <v>45180.27083333334</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45174.41527777778</v>
+        <v>45180.59861111111</v>
       </c>
     </row>
     <row r="58">
@@ -1243,13 +1243,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>83182</v>
+        <v>83864</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45174.57291666666</v>
+        <v>45180.36111111111</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45174.74652777778</v>
+        <v>45180.61458333334</v>
       </c>
     </row>
     <row r="59">
@@ -1257,13 +1257,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>83184</v>
+        <v>83865</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45174.50902777778</v>
+        <v>45180.3</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45174.80069444444</v>
+        <v>45180.65392361111</v>
       </c>
     </row>
     <row r="60">
@@ -1271,13 +1271,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>83185</v>
+        <v>83895</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45174.65208333333</v>
+        <v>45180.44930555556</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45174.94861111111</v>
+        <v>45180.74770833334</v>
       </c>
     </row>
     <row r="61">
@@ -1285,13 +1285,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>83186</v>
+        <v>83897</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45174.36319444444</v>
+        <v>45180.39791666667</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45174.65486111111</v>
+        <v>45180.73642361111</v>
       </c>
     </row>
     <row r="62">
@@ -1299,13 +1299,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>83187</v>
+        <v>83898</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45180.32708333333</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45174.65486111111</v>
+        <v>45180.6615625</v>
       </c>
     </row>
     <row r="63">
@@ -1313,13 +1313,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>83190</v>
+        <v>83899</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45174.59305555555</v>
+        <v>45180.32708333333</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45174.88263888889</v>
+        <v>45180.6615625</v>
       </c>
     </row>
     <row r="64">
@@ -1327,13 +1327,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>83192</v>
+        <v>83900</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45174.38055555556</v>
+        <v>45180.41041666667</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45174.45</v>
+        <v>45180.74489583333</v>
       </c>
     </row>
     <row r="65">
@@ -1341,13 +1341,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>83196</v>
+        <v>83901</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45174.52083333334</v>
+        <v>45180.41041666667</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45174.72569444445</v>
+        <v>45180.74489583333</v>
       </c>
     </row>
     <row r="66">
@@ -1355,13 +1355,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>83198</v>
+        <v>83902</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45174.37430555555</v>
+        <v>45180.49375</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45174.44375</v>
+        <v>45180.82822916667</v>
       </c>
     </row>
     <row r="67">
@@ -1369,13 +1369,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>83203</v>
+        <v>83903</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45174.66666666666</v>
+        <v>45180.49375</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45175.02430555555</v>
+        <v>45180.82822916667</v>
       </c>
     </row>
     <row r="68">
@@ -1383,13 +1383,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>83205</v>
+        <v>83904</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45174.36597222222</v>
+        <v>45180.61875</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45174.43541666667</v>
+        <v>45180.95322916667</v>
       </c>
     </row>
     <row r="69">
@@ -1397,13 +1397,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>83210</v>
+        <v>83931</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45174.40763888889</v>
+        <v>45180.61875</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45174.47708333333</v>
+        <v>45180.95322916667</v>
       </c>
     </row>
     <row r="70">
@@ -1411,13 +1411,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>83214</v>
+        <v>83956</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45174.33055555556</v>
+        <v>45180.27083333334</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45174.4</v>
+        <v>45180.83944444444</v>
       </c>
     </row>
     <row r="71">
@@ -1425,13 +1425,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>83215</v>
+        <v>83965</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45174.57152777778</v>
+        <v>45180.27430555555</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45174.74652777778</v>
+        <v>45180.39930555555</v>
       </c>
     </row>
     <row r="72">
@@ -1439,13 +1439,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>83217</v>
+        <v>83966</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45174.34236111111</v>
+        <v>45180.375</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45174.51736111111</v>
+        <v>45180.71298611111</v>
       </c>
     </row>
     <row r="73">
@@ -1453,13 +1453,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>83219</v>
+        <v>83968</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45174.36180555556</v>
+        <v>45180.29166666666</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45174.43125</v>
+        <v>45180.62965277778</v>
       </c>
     </row>
     <row r="74">
@@ -1467,13 +1467,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>83221</v>
+        <v>83970</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45174.5</v>
+        <v>45180.34305555555</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45174.82152777778</v>
+        <v>45180.46805555555</v>
       </c>
     </row>
     <row r="75">
@@ -1481,13 +1481,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>83222</v>
+        <v>83972</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45174.29861111111</v>
+        <v>45180.29166666666</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45174.6</v>
+        <v>45180.68260416666</v>
       </c>
     </row>
     <row r="76">
@@ -1495,13 +1495,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>83226</v>
+        <v>83975</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45174.36041666667</v>
+        <v>45180.40972222222</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45180.75482638889</v>
       </c>
     </row>
     <row r="77">
@@ -1509,13 +1509,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>83227</v>
+        <v>83984</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45174.21944444445</v>
+        <v>45180.33333333334</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45174.39236111111</v>
+        <v>45180.54166666666</v>
       </c>
     </row>
     <row r="78">
@@ -1523,13 +1523,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>83230</v>
+        <v>83998</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45174.34027777778</v>
+        <v>45180.28263888889</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45174.40972222222</v>
+        <v>45180.40763888889</v>
       </c>
     </row>
     <row r="79">
@@ -1537,13 +1537,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>83232</v>
+        <v>84014</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45174.34166666667</v>
+        <v>45180.28680555556</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45174.41111111111</v>
+        <v>45180.41180555556</v>
       </c>
     </row>
     <row r="80">
@@ -1551,13 +1551,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>83257</v>
+        <v>84021</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45174.375</v>
+        <v>45180.5</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45174.57986111111</v>
+        <v>45180.70833333334</v>
       </c>
     </row>
     <row r="81">
@@ -1565,13 +1565,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>83261</v>
+        <v>84022</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45174.33333333334</v>
+        <v>45180.56111111111</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45174.53819444445</v>
+        <v>45180.63055555556</v>
       </c>
     </row>
     <row r="82">
@@ -1579,13 +1579,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>83263</v>
+        <v>84023</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45174.29166666666</v>
+        <v>45180.27083333334</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45174.49652777778</v>
+        <v>45180.70368055555</v>
       </c>
     </row>
     <row r="83">
@@ -1593,13 +1593,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>83268</v>
+        <v>84089</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45174.63611111111</v>
+        <v>45180.27083333334</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45174.95833333334</v>
+        <v>45180.70368055555</v>
       </c>
     </row>
     <row r="84">
@@ -1607,13 +1607,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>83269</v>
+        <v>84116</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45174.63611111111</v>
+        <v>45180.27083333334</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45174.95833333334</v>
+        <v>45180.70368055555</v>
       </c>
     </row>
     <row r="85">
@@ -1621,13 +1621,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>83271</v>
+        <v>84154</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45174.32361111111</v>
+        <v>45180.51666666667</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45180.58611111111</v>
       </c>
     </row>
     <row r="86">
@@ -1635,13 +1635,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>83272</v>
+        <v>84159</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45174.32361111111</v>
+        <v>45180.44166666667</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45174.64583333334</v>
+        <v>45180.51111111111</v>
       </c>
     </row>
     <row r="87">
@@ -1649,13 +1649,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>83273</v>
+        <v>84160</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45174.42777777778</v>
+        <v>45180.44444444445</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45174.75</v>
+        <v>45180.51388888889</v>
       </c>
     </row>
     <row r="88">
@@ -1663,13 +1663,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>83274</v>
+        <v>84163</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45174.42777777778</v>
+        <v>45180.35972222222</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45174.75</v>
+        <v>45180.42916666667</v>
       </c>
     </row>
     <row r="89">
@@ -1677,13 +1677,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>83275</v>
+        <v>84166</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45174.55277777778</v>
+        <v>45180.41180555556</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45174.875</v>
+        <v>45180.53680555556</v>
       </c>
     </row>
     <row r="90">
@@ -1691,13 +1691,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>83276</v>
+        <v>84168</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>45174.55277777778</v>
+        <v>45180.33333333334</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45174.875</v>
+        <v>45180.40277777778</v>
       </c>
     </row>
     <row r="91">
@@ -1705,13 +1705,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>83280</v>
+        <v>81145</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45174.65833333333</v>
+        <v>45180.34861111111</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45174.72777777778</v>
+        <v>45180.41805555556</v>
       </c>
     </row>
     <row r="92">
@@ -1719,13 +1719,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>83281</v>
+        <v>83985</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>45174.79722222222</v>
+        <v>45180.34444444445</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45174.86666666667</v>
+        <v>45180.41388888889</v>
       </c>
     </row>
     <row r="93">
@@ -1733,13 +1733,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>83284</v>
+        <v>84057</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>45174.41805555556</v>
+        <v>45180.32916666667</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45174.72430555556</v>
+        <v>45180.39861111111</v>
       </c>
     </row>
     <row r="94">
@@ -1747,13 +1747,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>83285</v>
+        <v>84058</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>45174.29305555556</v>
+        <v>45180.54722222222</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45174.59930555556</v>
+        <v>45180.61666666667</v>
       </c>
     </row>
     <row r="95">
@@ -1761,1133 +1761,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>83296</v>
+        <v>84056</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>45174.52083333334</v>
+        <v>45180.35138888889</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45174.70486111111</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>83300</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>45174.47222222222</v>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>45174.54166666666</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>83306</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>45174.3125</v>
-      </c>
-      <c r="D97" s="2" t="n">
-        <v>45174.51736111111</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>83308</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>45174.22916666666</v>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>45174.43402777778</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>83348</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>45174.29166666666</v>
-      </c>
-      <c r="D99" s="2" t="n">
-        <v>45174.61944444444</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>83360</v>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>45174.87083333333</v>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>45174.94027777778</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>83363</v>
-      </c>
-      <c r="C101" s="2" t="n">
-        <v>45174.5</v>
-      </c>
-      <c r="D101" s="2" t="n">
-        <v>45174.83611111111</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>83364</v>
-      </c>
-      <c r="C102" s="2" t="n">
-        <v>45174.41666666666</v>
-      </c>
-      <c r="D102" s="2" t="n">
-        <v>45174.75277777778</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>83375</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>45174.41666666666</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>45174.82986111111</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>83376</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>45174.45833333334</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>45174.87152777778</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>83378</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>45174.30555555555</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>45174.43055555555</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>83386</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>45174.48194444444</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>45174.55138888889</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>83388</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>45174.375</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>45174.44444444445</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>83389</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>45174.81111111111</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>45174.88055555556</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>83527</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>45174.32638888889</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>45174.39583333334</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>83530</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>45174.34722222222</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>45174.41666666666</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>83532</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>45174.35416666666</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>45174.42361111111</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>83541</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>45174.54166666666</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>45174.61111111111</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>83542</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>45174.68472222222</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>45174.75416666667</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>83547</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>45174.44861111111</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>45174.51805555556</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>83551</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>45174.54305555556</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>45174.6125</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>83556</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>45174.44513888889</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>45174.98194444444</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>83558</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>45174.55208333334</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>45174.62152777778</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>83562</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>45174.47638888889</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>45174.54583333333</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>83563</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>45174.85972222222</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>45174.92916666667</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>83581</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>45174.65694444445</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>45174.72638888889</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>83584</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>45174.46041666667</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>45174.52986111111</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>83600</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>45174.43402777778</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>45174.50347222222</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>83601</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>45174.47013888889</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>45174.53958333333</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>83602</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>45174.47777777778</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>45174.54722222222</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>83603</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>45174.64166666667</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>45174.71111111111</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>83605</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>45174.86805555555</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>45174.9375</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>83614</v>
-      </c>
-      <c r="C127" s="2" t="n">
-        <v>45174.42986111111</v>
-      </c>
-      <c r="D127" s="2" t="n">
-        <v>45174.49930555555</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>83615</v>
-      </c>
-      <c r="C128" s="2" t="n">
-        <v>45174.47916666666</v>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>45174.54861111111</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>83617</v>
-      </c>
-      <c r="C129" s="2" t="n">
-        <v>45174.44166666667</v>
-      </c>
-      <c r="D129" s="2" t="n">
-        <v>45174.51111111111</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>83623</v>
-      </c>
-      <c r="C130" s="2" t="n">
-        <v>45174.43611111111</v>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>45174.50555555556</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>83634</v>
-      </c>
-      <c r="C131" s="2" t="n">
-        <v>45174.33194444444</v>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>45174.40138888889</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>83646</v>
-      </c>
-      <c r="C132" s="2" t="n">
-        <v>45174.30763888889</v>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>45174.43263888889</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>83650</v>
-      </c>
-      <c r="C133" s="2" t="n">
-        <v>45174.5</v>
-      </c>
-      <c r="D133" s="2" t="n">
-        <v>45174.85347222222</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>83651</v>
-      </c>
-      <c r="C134" s="2" t="n">
-        <v>45174.25</v>
-      </c>
-      <c r="D134" s="2" t="n">
-        <v>45174.375</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>83701</v>
-      </c>
-      <c r="C135" s="2" t="n">
-        <v>45174.5</v>
-      </c>
-      <c r="D135" s="2" t="n">
-        <v>45174.56944444445</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>83702</v>
-      </c>
-      <c r="C136" s="2" t="n">
-        <v>45174.49861111111</v>
-      </c>
-      <c r="D136" s="2" t="n">
-        <v>45174.56805555556</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>83703</v>
-      </c>
-      <c r="C137" s="2" t="n">
-        <v>45174.29166666666</v>
-      </c>
-      <c r="D137" s="2" t="n">
-        <v>45174.62361111111</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>83728</v>
-      </c>
-      <c r="C138" s="2" t="n">
-        <v>45174.30138888889</v>
-      </c>
-      <c r="D138" s="2" t="n">
-        <v>45174.62152777778</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>83730</v>
-      </c>
-      <c r="C139" s="2" t="n">
-        <v>45174.70763888889</v>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>45174.77708333333</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>83744</v>
-      </c>
-      <c r="C140" s="2" t="n">
-        <v>45174.72013888889</v>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>45174.78958333333</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>83745</v>
-      </c>
-      <c r="C141" s="2" t="n">
-        <v>45174.35138888889</v>
-      </c>
-      <c r="D141" s="2" t="n">
-        <v>45174.47638888889</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>83748</v>
-      </c>
-      <c r="C142" s="2" t="n">
-        <v>45174.34722222222</v>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>45174.41666666666</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>83749</v>
-      </c>
-      <c r="C143" s="2" t="n">
-        <v>45174.34722222222</v>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>45174.74375</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>83752</v>
-      </c>
-      <c r="C144" s="2" t="n">
-        <v>45174.23888888889</v>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>45174.47569444445</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>83757</v>
-      </c>
-      <c r="C145" s="2" t="n">
-        <v>45174.44791666666</v>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>45174.62152777778</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>83764</v>
-      </c>
-      <c r="C146" s="2" t="n">
-        <v>45174.29513888889</v>
-      </c>
-      <c r="D146" s="2" t="n">
-        <v>45174.42013888889</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>83786</v>
-      </c>
-      <c r="C147" s="2" t="n">
-        <v>45174.27083333334</v>
-      </c>
-      <c r="D147" s="2" t="n">
-        <v>45174.58680555555</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>83835</v>
-      </c>
-      <c r="C148" s="2" t="n">
-        <v>45174.41388888889</v>
-      </c>
-      <c r="D148" s="2" t="n">
-        <v>45174.76875</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>83888</v>
-      </c>
-      <c r="C149" s="2" t="n">
-        <v>45174.63888888889</v>
-      </c>
-      <c r="D149" s="2" t="n">
-        <v>45174.70833333334</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>83894</v>
-      </c>
-      <c r="C150" s="2" t="n">
-        <v>45174.79861111111</v>
-      </c>
-      <c r="D150" s="2" t="n">
-        <v>45174.86805555555</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>83895</v>
-      </c>
-      <c r="C151" s="2" t="n">
-        <v>45174.48472222222</v>
-      </c>
-      <c r="D151" s="2" t="n">
-        <v>45174.55416666667</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>83897</v>
-      </c>
-      <c r="C152" s="2" t="n">
-        <v>45174.64583333334</v>
-      </c>
-      <c r="D152" s="2" t="n">
-        <v>45174.71527777778</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>83898</v>
-      </c>
-      <c r="C153" s="2" t="n">
-        <v>45174.4375</v>
-      </c>
-      <c r="D153" s="2" t="n">
-        <v>45174.50694444445</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>83899</v>
-      </c>
-      <c r="C154" s="2" t="n">
-        <v>45174.4375</v>
-      </c>
-      <c r="D154" s="2" t="n">
-        <v>45174.50694444445</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>83900</v>
-      </c>
-      <c r="C155" s="2" t="n">
-        <v>45174.4375</v>
-      </c>
-      <c r="D155" s="2" t="n">
-        <v>45174.50694444445</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>83901</v>
-      </c>
-      <c r="C156" s="2" t="n">
-        <v>45174.4375</v>
-      </c>
-      <c r="D156" s="2" t="n">
-        <v>45174.50694444445</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>83902</v>
-      </c>
-      <c r="C157" s="2" t="n">
-        <v>45174.4375</v>
-      </c>
-      <c r="D157" s="2" t="n">
-        <v>45174.50694444445</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>83903</v>
-      </c>
-      <c r="C158" s="2" t="n">
-        <v>45174.4375</v>
-      </c>
-      <c r="D158" s="2" t="n">
-        <v>45174.50694444445</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>83904</v>
-      </c>
-      <c r="C159" s="2" t="n">
-        <v>45174.51388888889</v>
-      </c>
-      <c r="D159" s="2" t="n">
-        <v>45174.58333333334</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>83905</v>
-      </c>
-      <c r="C160" s="2" t="n">
-        <v>45174.51388888889</v>
-      </c>
-      <c r="D160" s="2" t="n">
-        <v>45174.58333333334</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>83906</v>
-      </c>
-      <c r="C161" s="2" t="n">
-        <v>45174.51388888889</v>
-      </c>
-      <c r="D161" s="2" t="n">
-        <v>45174.58333333334</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>83907</v>
-      </c>
-      <c r="C162" s="2" t="n">
-        <v>45174.51388888889</v>
-      </c>
-      <c r="D162" s="2" t="n">
-        <v>45174.58333333334</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>83908</v>
-      </c>
-      <c r="C163" s="2" t="n">
-        <v>45174.5625</v>
-      </c>
-      <c r="D163" s="2" t="n">
-        <v>45174.63194444445</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>83909</v>
-      </c>
-      <c r="C164" s="2" t="n">
-        <v>45174.64583333334</v>
-      </c>
-      <c r="D164" s="2" t="n">
-        <v>45174.71527777778</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>83910</v>
-      </c>
-      <c r="C165" s="2" t="n">
-        <v>45174.64583333334</v>
-      </c>
-      <c r="D165" s="2" t="n">
-        <v>45174.71527777778</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>83911</v>
-      </c>
-      <c r="C166" s="2" t="n">
-        <v>45174.5625</v>
-      </c>
-      <c r="D166" s="2" t="n">
-        <v>45174.63194444445</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>83912</v>
-      </c>
-      <c r="C167" s="2" t="n">
-        <v>45174.5625</v>
-      </c>
-      <c r="D167" s="2" t="n">
-        <v>45174.63194444445</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>83913</v>
-      </c>
-      <c r="C168" s="2" t="n">
-        <v>45174.64583333334</v>
-      </c>
-      <c r="D168" s="2" t="n">
-        <v>45174.71527777778</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>83914</v>
-      </c>
-      <c r="C169" s="2" t="n">
-        <v>45174.5625</v>
-      </c>
-      <c r="D169" s="2" t="n">
-        <v>45174.63194444445</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>83915</v>
-      </c>
-      <c r="C170" s="2" t="n">
-        <v>45174.5625</v>
-      </c>
-      <c r="D170" s="2" t="n">
-        <v>45174.63194444445</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>83916</v>
-      </c>
-      <c r="C171" s="2" t="n">
-        <v>45174.64583333334</v>
-      </c>
-      <c r="D171" s="2" t="n">
-        <v>45174.71527777778</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>83917</v>
-      </c>
-      <c r="C172" s="2" t="n">
-        <v>45174.5625</v>
-      </c>
-      <c r="D172" s="2" t="n">
-        <v>45174.63194444445</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>83918</v>
-      </c>
-      <c r="C173" s="2" t="n">
-        <v>45174.5625</v>
-      </c>
-      <c r="D173" s="2" t="n">
-        <v>45174.63194444445</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>83919</v>
-      </c>
-      <c r="C174" s="2" t="n">
-        <v>45174.64583333334</v>
-      </c>
-      <c r="D174" s="2" t="n">
-        <v>45174.71527777778</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>83961</v>
-      </c>
-      <c r="C175" s="2" t="n">
-        <v>45174.72569444445</v>
-      </c>
-      <c r="D175" s="2" t="n">
-        <v>45174.79513888889</v>
+        <v>45180.42083333333</v>
       </c>
     </row>
   </sheetData>

--- a/static/tmp/planificacion3.xlsx
+++ b/static/tmp/planificacion3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,13 +459,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81522</v>
+        <v>81155</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45180.52291666667</v>
+        <v>45183.375</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45180.64791666667</v>
+        <v>45183.66597222222</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>82533</v>
+        <v>81381</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45180.40416666667</v>
+        <v>45183.33333333334</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45180.6834375</v>
+        <v>45183.62430555555</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +487,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>82534</v>
+        <v>81394</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45180.27916666667</v>
+        <v>45183.29166666666</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45180.55427083333</v>
+        <v>45183.58263888889</v>
       </c>
     </row>
     <row r="5">
@@ -501,13 +501,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>82983</v>
+        <v>81416</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45180.34166666667</v>
+        <v>45183.49027777778</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45180.61677083333</v>
+        <v>45183.61527777778</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83150</v>
+        <v>81524</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45180.42222222222</v>
+        <v>45183.54722222222</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45180.72763888889</v>
+        <v>45183.61666666667</v>
       </c>
     </row>
     <row r="7">
@@ -529,13 +529,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83180</v>
+        <v>82532</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45180.39583333334</v>
+        <v>45183.52916666667</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45180.63847222222</v>
+        <v>45183.78333333333</v>
       </c>
     </row>
     <row r="8">
@@ -543,13 +543,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83207</v>
+        <v>82596</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45180.34236111111</v>
+        <v>45183.3125</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45180.47708333333</v>
+        <v>45183.63819444444</v>
       </c>
     </row>
     <row r="9">
@@ -557,13 +557,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83241</v>
+        <v>82597</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45180.42569444444</v>
+        <v>45183.39583333334</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45180.56041666667</v>
+        <v>45183.72152777778</v>
       </c>
     </row>
     <row r="10">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83242</v>
+        <v>83088</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45180.33333333334</v>
+        <v>45183.69861111111</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45180.58819444444</v>
+        <v>45183.99236111111</v>
       </c>
     </row>
     <row r="11">
@@ -585,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83248</v>
+        <v>83179</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45180.29166666666</v>
+        <v>45183.42569444444</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45180.54652777778</v>
+        <v>45183.53819444445</v>
       </c>
     </row>
     <row r="12">
@@ -599,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83279</v>
+        <v>83194</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45180.25763888889</v>
+        <v>45183.46458333333</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45180.49861111111</v>
+        <v>45183.76458333333</v>
       </c>
     </row>
     <row r="13">
@@ -613,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>83297</v>
+        <v>83199</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45180.27152777778</v>
+        <v>45183.34236111111</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45180.67708333334</v>
+        <v>45183.45486111111</v>
       </c>
     </row>
     <row r="14">
@@ -627,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83301</v>
+        <v>83206</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45180.29166666666</v>
+        <v>45183.50902777778</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45180.68041666667</v>
+        <v>45183.62152777778</v>
       </c>
     </row>
     <row r="15">
@@ -641,13 +641,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>83316</v>
+        <v>83220</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45180.29375</v>
+        <v>45183.34305555555</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45180.63225694445</v>
+        <v>45183.44583333333</v>
       </c>
     </row>
     <row r="16">
@@ -655,13 +655,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83328</v>
+        <v>83249</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45180.44583333333</v>
+        <v>45183.32013888889</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45180.7209375</v>
+        <v>45183.54722222222</v>
       </c>
     </row>
     <row r="17">
@@ -669,13 +669,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>83329</v>
+        <v>83317</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45180.575</v>
+        <v>45183.41666666666</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45180.64444444444</v>
+        <v>45183.48611111111</v>
       </c>
     </row>
     <row r="18">
@@ -683,13 +683,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>83335</v>
+        <v>83318</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45180.64930555555</v>
+        <v>45183.27916666667</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45180.71875</v>
+        <v>45183.5375</v>
       </c>
     </row>
     <row r="19">
@@ -697,13 +697,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>83336</v>
+        <v>83319</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45180.35694444444</v>
+        <v>45183.6125</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45180.59166666667</v>
+        <v>45183.87083333333</v>
       </c>
     </row>
     <row r="20">
@@ -711,13 +711,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>83344</v>
+        <v>83320</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45180.27152777778</v>
+        <v>45183.32083333333</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45180.50833333333</v>
+        <v>45183.57916666667</v>
       </c>
     </row>
     <row r="21">
@@ -725,13 +725,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>83345</v>
+        <v>83321</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45180.25</v>
+        <v>45183.55</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45180.66572916666</v>
+        <v>45183.61944444444</v>
       </c>
     </row>
     <row r="22">
@@ -739,13 +739,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>83346</v>
+        <v>83323</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45180.375</v>
+        <v>45183.40416666667</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45180.79072916666</v>
+        <v>45183.6625</v>
       </c>
     </row>
     <row r="23">
@@ -753,13 +753,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>83347</v>
+        <v>83324</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45180.5</v>
+        <v>45183.3625</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45180.91572916666</v>
+        <v>45183.62083333333</v>
       </c>
     </row>
     <row r="24">
@@ -767,13 +767,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>83349</v>
+        <v>83327</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45180.58333333334</v>
+        <v>45183.44583333333</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45180.9990625</v>
+        <v>45183.70416666667</v>
       </c>
     </row>
     <row r="25">
@@ -781,13 +781,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>83358</v>
+        <v>83394</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45180.42430555556</v>
+        <v>45183.40416666667</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45180.66527777778</v>
+        <v>45183.47361111111</v>
       </c>
     </row>
     <row r="26">
@@ -795,13 +795,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>83372</v>
+        <v>83399</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45180.36041666667</v>
+        <v>45183.41875</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45180.66180555556</v>
+        <v>45183.48819444444</v>
       </c>
     </row>
     <row r="27">
@@ -809,13 +809,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>83373</v>
+        <v>83400</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45180.33333333334</v>
+        <v>45183.52777777778</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45180.711875</v>
+        <v>45183.59722222222</v>
       </c>
     </row>
     <row r="28">
@@ -823,13 +823,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>83383</v>
+        <v>83405</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45180.3125</v>
+        <v>45183.425</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45180.65166666666</v>
+        <v>45183.49444444444</v>
       </c>
     </row>
     <row r="29">
@@ -837,13 +837,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>83387</v>
+        <v>83406</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45180.29166666666</v>
+        <v>45183.32916666667</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45180.60347222222</v>
+        <v>45183.39861111111</v>
       </c>
     </row>
     <row r="30">
@@ -851,13 +851,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>83390</v>
+        <v>83411</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45180.31180555555</v>
+        <v>45183.55138888889</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45180.65416666667</v>
+        <v>45183.62083333333</v>
       </c>
     </row>
     <row r="31">
@@ -865,13 +865,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>83445</v>
+        <v>83414</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45180.29097222222</v>
+        <v>45183.54027777778</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45180.63333333333</v>
+        <v>45183.60972222222</v>
       </c>
     </row>
     <row r="32">
@@ -879,13 +879,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>83460</v>
+        <v>83421</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45180.56944444445</v>
+        <v>45183.4</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45180.63888888889</v>
+        <v>45183.46944444445</v>
       </c>
     </row>
     <row r="33">
@@ -893,13 +893,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>83464</v>
+        <v>83433</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45180.56388888889</v>
+        <v>45183.53055555555</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45180.63333333333</v>
+        <v>45183.6</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>83474</v>
+        <v>83435</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45180.55972222222</v>
+        <v>45183.53611111111</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45180.62916666667</v>
+        <v>45183.60555555556</v>
       </c>
     </row>
     <row r="35">
@@ -921,13 +921,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>83478</v>
+        <v>83436</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45180.56805555556</v>
+        <v>45183.42638888889</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45180.6375</v>
+        <v>45183.49583333333</v>
       </c>
     </row>
     <row r="36">
@@ -935,13 +935,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83483</v>
+        <v>83441</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45180.56527777778</v>
+        <v>45183.40694444445</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45180.63472222222</v>
+        <v>45183.47638888889</v>
       </c>
     </row>
     <row r="37">
@@ -949,13 +949,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>83497</v>
+        <v>83454</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45180.56666666667</v>
+        <v>45183.41875</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45180.63611111111</v>
+        <v>45183.48819444444</v>
       </c>
     </row>
     <row r="38">
@@ -963,13 +963,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>83503</v>
+        <v>83455</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45180.56111111111</v>
+        <v>45183.55138888889</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45180.63055555556</v>
+        <v>45183.62083333333</v>
       </c>
     </row>
     <row r="39">
@@ -977,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>83512</v>
+        <v>83456</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45180.57777777778</v>
+        <v>45183.54027777778</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45180.64722222222</v>
+        <v>45183.60972222222</v>
       </c>
     </row>
     <row r="40">
@@ -991,13 +991,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>83521</v>
+        <v>83463</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45180.55555555555</v>
+        <v>45183.4</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45180.625</v>
+        <v>45183.46944444445</v>
       </c>
     </row>
     <row r="41">
@@ -1005,13 +1005,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>83544</v>
+        <v>83468</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45180.58055555556</v>
+        <v>45183.53611111111</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45180.65</v>
+        <v>45183.60555555556</v>
       </c>
     </row>
     <row r="42">
@@ -1019,13 +1019,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83552</v>
+        <v>83469</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45180.29166666666</v>
+        <v>45183.42638888889</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45180.66111111111</v>
+        <v>45183.49583333333</v>
       </c>
     </row>
     <row r="43">
@@ -1033,13 +1033,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>83642</v>
+        <v>83470</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45180.79166666666</v>
+        <v>45183.42222222222</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45181.15277777778</v>
+        <v>45183.49166666667</v>
       </c>
     </row>
     <row r="44">
@@ -1047,13 +1047,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83660</v>
+        <v>83473</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45180.36180555556</v>
+        <v>45183.4125</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45180.71663194444</v>
+        <v>45183.48194444444</v>
       </c>
     </row>
     <row r="45">
@@ -1061,13 +1061,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>83700</v>
+        <v>83475</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45180.26597222222</v>
+        <v>45183.425</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45180.63333333333</v>
+        <v>45183.49444444444</v>
       </c>
     </row>
     <row r="46">
@@ -1075,13 +1075,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>83790</v>
+        <v>83476</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45180.36388888889</v>
+        <v>45183.42708333334</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45180.70763888889</v>
+        <v>45183.49652777778</v>
       </c>
     </row>
     <row r="47">
@@ -1089,13 +1089,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>83804</v>
+        <v>83477</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45180.33888888889</v>
+        <v>45183.40972222222</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45180.40833333333</v>
+        <v>45183.47916666666</v>
       </c>
     </row>
     <row r="48">
@@ -1103,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>83810</v>
+        <v>83482</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45180.38819444444</v>
+        <v>45183.44375</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45180.45763888889</v>
+        <v>45183.51319444444</v>
       </c>
     </row>
     <row r="49">
@@ -1117,13 +1117,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>83817</v>
+        <v>83486</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45180.32638888889</v>
+        <v>45183.32638888889</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45180.39583333334</v>
+        <v>45183.39583333334</v>
       </c>
     </row>
     <row r="50">
@@ -1131,13 +1131,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>83827</v>
+        <v>83487</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45180.34027777778</v>
+        <v>45183.42916666667</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45180.40972222222</v>
+        <v>45183.49861111111</v>
       </c>
     </row>
     <row r="51">
@@ -1145,13 +1145,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83845</v>
+        <v>83489</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45180.54930555556</v>
+        <v>45183.43125</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45180.61875</v>
+        <v>45183.50069444445</v>
       </c>
     </row>
     <row r="52">
@@ -1159,13 +1159,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83846</v>
+        <v>83491</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45180.39652777778</v>
+        <v>45183.54861111111</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45180.46597222222</v>
+        <v>45183.61805555555</v>
       </c>
     </row>
     <row r="53">
@@ -1173,13 +1173,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>83851</v>
+        <v>83492</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45180.56805555556</v>
+        <v>45183.39583333334</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45180.6375</v>
+        <v>45183.46527777778</v>
       </c>
     </row>
     <row r="54">
@@ -1187,13 +1187,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>83853</v>
+        <v>83504</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45180.42777777778</v>
+        <v>45183.40833333333</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45180.49722222222</v>
+        <v>45183.47777777778</v>
       </c>
     </row>
     <row r="55">
@@ -1201,13 +1201,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>83854</v>
+        <v>83505</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45180.53194444445</v>
+        <v>45183.40416666667</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45180.60138888889</v>
+        <v>45183.47361111111</v>
       </c>
     </row>
     <row r="56">
@@ -1215,13 +1215,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>83855</v>
+        <v>83509</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45180.46666666667</v>
+        <v>45183.53888888889</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45180.53611111111</v>
+        <v>45183.60833333333</v>
       </c>
     </row>
     <row r="57">
@@ -1229,13 +1229,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>83857</v>
+        <v>83510</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45180.27083333334</v>
+        <v>45183.42361111111</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45180.59861111111</v>
+        <v>45183.49305555555</v>
       </c>
     </row>
     <row r="58">
@@ -1243,13 +1243,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>83864</v>
+        <v>83517</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45180.36111111111</v>
+        <v>45183.42291666667</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45180.61458333334</v>
+        <v>45183.49236111111</v>
       </c>
     </row>
     <row r="59">
@@ -1257,13 +1257,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>83865</v>
+        <v>83519</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45180.3</v>
+        <v>45183.52916666667</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45180.65392361111</v>
+        <v>45183.59861111111</v>
       </c>
     </row>
     <row r="60">
@@ -1271,13 +1271,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>83895</v>
+        <v>83524</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45180.44930555556</v>
+        <v>45183.54305555556</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45180.74770833334</v>
+        <v>45183.6125</v>
       </c>
     </row>
     <row r="61">
@@ -1285,13 +1285,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>83897</v>
+        <v>83566</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45180.39791666667</v>
+        <v>45183.43333333333</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45180.73642361111</v>
+        <v>45183.50277777778</v>
       </c>
     </row>
     <row r="62">
@@ -1299,13 +1299,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>83898</v>
+        <v>83597</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45180.32708333333</v>
+        <v>45183.41041666667</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45180.6615625</v>
+        <v>45183.47986111111</v>
       </c>
     </row>
     <row r="63">
@@ -1313,13 +1313,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>83899</v>
+        <v>83608</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45180.32708333333</v>
+        <v>45183.41527777778</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45180.6615625</v>
+        <v>45183.48472222222</v>
       </c>
     </row>
     <row r="64">
@@ -1327,13 +1327,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>83900</v>
+        <v>83612</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45180.41041666667</v>
+        <v>45183.54166666666</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45180.74489583333</v>
+        <v>45183.61111111111</v>
       </c>
     </row>
     <row r="65">
@@ -1341,13 +1341,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>83901</v>
+        <v>83629</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45180.41041666667</v>
+        <v>45183.42083333333</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45180.74489583333</v>
+        <v>45183.49027777778</v>
       </c>
     </row>
     <row r="66">
@@ -1355,13 +1355,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>83902</v>
+        <v>83707</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45180.49375</v>
+        <v>45183.3875</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45180.82822916667</v>
+        <v>45183.45694444444</v>
       </c>
     </row>
     <row r="67">
@@ -1369,13 +1369,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>83903</v>
+        <v>83711</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45180.49375</v>
+        <v>45183.39583333334</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45180.82822916667</v>
+        <v>45183.81875</v>
       </c>
     </row>
     <row r="68">
@@ -1383,13 +1383,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>83904</v>
+        <v>83714</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45180.61875</v>
+        <v>45183.33333333334</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45180.95322916667</v>
+        <v>45183.66805555556</v>
       </c>
     </row>
     <row r="69">
@@ -1397,13 +1397,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>83931</v>
+        <v>83715</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45180.61875</v>
+        <v>45183.66666666666</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45180.95322916667</v>
+        <v>45184.0125</v>
       </c>
     </row>
     <row r="70">
@@ -1411,13 +1411,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>83956</v>
+        <v>83723</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45180.27083333334</v>
+        <v>45183.66944444444</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45180.83944444444</v>
+        <v>45183.98888888889</v>
       </c>
     </row>
     <row r="71">
@@ -1425,13 +1425,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>83965</v>
+        <v>83839</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45180.27430555555</v>
+        <v>45183.25</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45180.39930555555</v>
+        <v>45183.61527777778</v>
       </c>
     </row>
     <row r="72">
@@ -1439,13 +1439,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>83966</v>
+        <v>83856</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45180.375</v>
+        <v>45183.26597222222</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45180.71298611111</v>
+        <v>45183.59652777778</v>
       </c>
     </row>
     <row r="73">
@@ -1453,13 +1453,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>83968</v>
+        <v>83861</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45180.29166666666</v>
+        <v>45183.53680555556</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45180.62965277778</v>
+        <v>45183.86736111111</v>
       </c>
     </row>
     <row r="74">
@@ -1467,13 +1467,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>83970</v>
+        <v>83933</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45180.34305555555</v>
+        <v>45183.49513888889</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45180.46805555555</v>
+        <v>45183.82569444444</v>
       </c>
     </row>
     <row r="75">
@@ -1481,13 +1481,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>83972</v>
+        <v>83937</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45180.29166666666</v>
+        <v>45183.39097222222</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45180.68260416666</v>
+        <v>45183.72152777778</v>
       </c>
     </row>
     <row r="76">
@@ -1495,13 +1495,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>83975</v>
+        <v>83946</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45180.40972222222</v>
+        <v>45183.43263888889</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45180.75482638889</v>
+        <v>45183.76319444444</v>
       </c>
     </row>
     <row r="77">
@@ -1509,13 +1509,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>83984</v>
+        <v>83948</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45180.33333333334</v>
+        <v>45183.58333333334</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45180.54166666666</v>
+        <v>45183.88194444445</v>
       </c>
     </row>
     <row r="78">
@@ -1523,13 +1523,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>83998</v>
+        <v>84009</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45180.28263888889</v>
+        <v>45183.41666666666</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45180.40763888889</v>
+        <v>45183.67916666667</v>
       </c>
     </row>
     <row r="79">
@@ -1537,13 +1537,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>84014</v>
+        <v>84010</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45180.28680555556</v>
+        <v>45183.29583333333</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45180.41180555556</v>
+        <v>45183.475</v>
       </c>
     </row>
     <row r="80">
@@ -1551,13 +1551,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>84021</v>
+        <v>84011</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45180.5</v>
+        <v>45183.27083333334</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45180.70833333334</v>
+        <v>45183.48402777778</v>
       </c>
     </row>
     <row r="81">
@@ -1565,13 +1565,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>84022</v>
+        <v>84012</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45180.56111111111</v>
+        <v>45183.43819444445</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45180.63055555556</v>
+        <v>45183.73541666667</v>
       </c>
     </row>
     <row r="82">
@@ -1579,13 +1579,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>84023</v>
+        <v>84013</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45180.27083333334</v>
+        <v>45183.31319444445</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45180.70368055555</v>
+        <v>45183.48402777778</v>
       </c>
     </row>
     <row r="83">
@@ -1593,13 +1593,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>84089</v>
+        <v>84026</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45180.27083333334</v>
+        <v>45183.31319444445</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45180.70368055555</v>
+        <v>45183.60902777778</v>
       </c>
     </row>
     <row r="84">
@@ -1607,13 +1607,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>84116</v>
+        <v>84027</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45180.27083333334</v>
+        <v>45183.69236111111</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45180.70368055555</v>
+        <v>45183.98263888889</v>
       </c>
     </row>
     <row r="85">
@@ -1621,13 +1621,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>84154</v>
+        <v>84028</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45180.51666666667</v>
+        <v>45183.40486111111</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45180.58611111111</v>
+        <v>45183.66388888889</v>
       </c>
     </row>
     <row r="86">
@@ -1635,13 +1635,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>84159</v>
+        <v>84029</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45180.44166666667</v>
+        <v>45183.36319444444</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45180.51111111111</v>
+        <v>45183.62430555555</v>
       </c>
     </row>
     <row r="87">
@@ -1649,13 +1649,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>84160</v>
+        <v>84030</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45180.44444444445</v>
+        <v>45183.32152777778</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45180.51388888889</v>
+        <v>45183.58055555556</v>
       </c>
     </row>
     <row r="88">
@@ -1663,13 +1663,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>84163</v>
+        <v>84031</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45180.35972222222</v>
+        <v>45183.52638888889</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45180.42916666667</v>
+        <v>45183.59583333333</v>
       </c>
     </row>
     <row r="89">
@@ -1677,13 +1677,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>84166</v>
+        <v>84039</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45180.41180555556</v>
+        <v>45183.57986111111</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45180.53680555556</v>
+        <v>45183.64930555555</v>
       </c>
     </row>
     <row r="90">
@@ -1691,13 +1691,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>84168</v>
+        <v>84087</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>45180.33333333334</v>
+        <v>45183.29166666666</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45180.40277777778</v>
+        <v>45183.56388888889</v>
       </c>
     </row>
     <row r="91">
@@ -1705,13 +1705,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>81145</v>
+        <v>84120</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45180.34861111111</v>
+        <v>45183.38611111111</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45180.41805555556</v>
+        <v>45183.60555555556</v>
       </c>
     </row>
     <row r="92">
@@ -1719,13 +1719,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>83985</v>
+        <v>84121</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>45180.34444444445</v>
+        <v>45183.42777777778</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45180.41388888889</v>
+        <v>45183.64722222222</v>
       </c>
     </row>
     <row r="93">
@@ -1733,13 +1733,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>84057</v>
+        <v>84123</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>45180.32916666667</v>
+        <v>45183.46944444445</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45180.39861111111</v>
+        <v>45183.68888888889</v>
       </c>
     </row>
     <row r="94">
@@ -1747,13 +1747,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>84058</v>
+        <v>84125</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>45180.54722222222</v>
+        <v>45183.55277777778</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45180.61666666667</v>
+        <v>45183.77222222222</v>
       </c>
     </row>
     <row r="95">
@@ -1761,13 +1761,251 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>84056</v>
+        <v>84175</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>45180.35138888889</v>
+        <v>45183.33333333334</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45180.42083333333</v>
+        <v>45183.65555555555</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>84208</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45183.28958333333</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45183.45104166667</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>84295</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45183.41111111111</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45183.48055555556</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>84298</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45183.40694444445</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45183.47638888889</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>84302</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45183.40694444445</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45183.47638888889</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>84305</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45183.40555555555</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45183.475</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>84306</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45183.525</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45183.59444444445</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>84326</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45183.57083333333</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45183.64027777778</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>84331</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45183.31597222222</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45183.44097222222</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>84338</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45183.33333333334</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45183.69444444445</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>84339</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>45183.28472222222</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45183.46284722222</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>84340</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45183.5</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45183.871875</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>83410</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>45183.375</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45183.746875</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>83425</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>45183.33263888889</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45183.64861111111</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>83415</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>45183.27777777778</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45183.58263888889</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>83440</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>45183.40833333333</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45183.47777777778</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>83409</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>45183.33611111111</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45183.40555555555</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>83407</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>45183.41805555556</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45183.4875</v>
       </c>
     </row>
   </sheetData>

--- a/static/tmp/planificacion3.xlsx
+++ b/static/tmp/planificacion3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,13 +459,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81155</v>
+        <v>81144</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.74097222222</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45183.66597222222</v>
+        <v>45190.97555555555</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>81381</v>
+        <v>81396</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.5</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45183.62430555555</v>
+        <v>45190.86111111111</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +487,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>81394</v>
+        <v>83321</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45183.29166666666</v>
+        <v>45190.44583333333</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45183.58263888889</v>
+        <v>45190.72208333333</v>
       </c>
     </row>
     <row r="5">
@@ -501,13 +501,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>81416</v>
+        <v>83330</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45183.49027777778</v>
+        <v>45190.25</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45183.61527777778</v>
+        <v>45190.55541666667</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81524</v>
+        <v>83355</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45183.54722222222</v>
+        <v>45190.44027777778</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45183.61666666667</v>
+        <v>45190.81763888889</v>
       </c>
     </row>
     <row r="7">
@@ -529,13 +529,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82532</v>
+        <v>83559</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45183.52916666667</v>
+        <v>45190.47916666666</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45183.78333333333</v>
+        <v>45190.74791666667</v>
       </c>
     </row>
     <row r="8">
@@ -543,13 +543,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82596</v>
+        <v>83602</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45183.3125</v>
+        <v>45190.39583333334</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45183.63819444444</v>
+        <v>45190.66458333333</v>
       </c>
     </row>
     <row r="9">
@@ -557,13 +557,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82597</v>
+        <v>83626</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.35972222222</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45183.72152777778</v>
+        <v>45190.63694444444</v>
       </c>
     </row>
     <row r="10">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83088</v>
+        <v>83632</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45183.69861111111</v>
+        <v>45190.3125</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45183.99236111111</v>
+        <v>45190.58125</v>
       </c>
     </row>
     <row r="11">
@@ -585,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83179</v>
+        <v>83661</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45183.42569444444</v>
+        <v>45190.5</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45183.53819444445</v>
+        <v>45190.80541666667</v>
       </c>
     </row>
     <row r="12">
@@ -599,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83194</v>
+        <v>83663</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45183.46458333333</v>
+        <v>45190.57083333333</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45183.76458333333</v>
+        <v>45190.84708333333</v>
       </c>
     </row>
     <row r="13">
@@ -613,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>83199</v>
+        <v>83704</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45183.34236111111</v>
+        <v>45190.29166666666</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45183.45486111111</v>
+        <v>45190.68055555555</v>
       </c>
     </row>
     <row r="14">
@@ -627,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83206</v>
+        <v>83708</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45183.50902777778</v>
+        <v>45190.37013888889</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45183.62152777778</v>
+        <v>45190.71041666667</v>
       </c>
     </row>
     <row r="15">
@@ -641,13 +641,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>83220</v>
+        <v>83709</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45183.34305555555</v>
+        <v>45190.43263888889</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45183.44583333333</v>
+        <v>45190.77291666667</v>
       </c>
     </row>
     <row r="16">
@@ -655,13 +655,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83249</v>
+        <v>83772</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45183.32013888889</v>
+        <v>45190.89583333334</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45183.54722222222</v>
+        <v>45190.96527777778</v>
       </c>
     </row>
     <row r="17">
@@ -669,13 +669,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>83317</v>
+        <v>83774</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.90277777778</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45183.48611111111</v>
+        <v>45190.97222222222</v>
       </c>
     </row>
     <row r="18">
@@ -683,13 +683,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>83318</v>
+        <v>83777</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45183.27916666667</v>
+        <v>45190.725</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45183.5375</v>
+        <v>45190.79444444444</v>
       </c>
     </row>
     <row r="19">
@@ -697,13 +697,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>83319</v>
+        <v>83778</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45183.6125</v>
+        <v>45190.24444444444</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45183.87083333333</v>
+        <v>45190.53986111111</v>
       </c>
     </row>
     <row r="20">
@@ -711,13 +711,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>83320</v>
+        <v>83781</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45183.32083333333</v>
+        <v>45190.51527777778</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45183.57916666667</v>
+        <v>45190.81069444444</v>
       </c>
     </row>
     <row r="21">
@@ -725,13 +725,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>83321</v>
+        <v>83782</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45183.55</v>
+        <v>45190.55902777778</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45183.61944444444</v>
+        <v>45190.62847222222</v>
       </c>
     </row>
     <row r="22">
@@ -739,13 +739,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>83323</v>
+        <v>83841</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45183.40416666667</v>
+        <v>45190.40555555555</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45183.6625</v>
+        <v>45190.475</v>
       </c>
     </row>
     <row r="23">
@@ -753,13 +753,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>83324</v>
+        <v>83884</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45183.3625</v>
+        <v>45190.56736111111</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45183.62083333333</v>
+        <v>45190.63680555556</v>
       </c>
     </row>
     <row r="24">
@@ -767,13 +767,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>83327</v>
+        <v>83921</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45183.44583333333</v>
+        <v>45190.39513888889</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45183.70416666667</v>
+        <v>45190.46458333333</v>
       </c>
     </row>
     <row r="25">
@@ -781,13 +781,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>83394</v>
+        <v>83935</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45183.40416666667</v>
+        <v>45190.38194444445</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45183.47361111111</v>
+        <v>45190.64041666667</v>
       </c>
     </row>
     <row r="26">
@@ -795,13 +795,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>83399</v>
+        <v>83967</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45183.41875</v>
+        <v>45190.25</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45183.48819444444</v>
+        <v>45190.61111111111</v>
       </c>
     </row>
     <row r="27">
@@ -809,13 +809,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>83400</v>
+        <v>83976</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45183.52777777778</v>
+        <v>45190.71944444445</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45183.59722222222</v>
+        <v>45191.01388888889</v>
       </c>
     </row>
     <row r="28">
@@ -823,13 +823,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>83405</v>
+        <v>83987</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45183.425</v>
+        <v>45190.27083333334</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45183.49444444444</v>
+        <v>45190.65555555555</v>
       </c>
     </row>
     <row r="29">
@@ -837,13 +837,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>83406</v>
+        <v>83988</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45183.32916666667</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45183.39861111111</v>
+        <v>45190.63875</v>
       </c>
     </row>
     <row r="30">
@@ -851,13 +851,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>83411</v>
+        <v>83991</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45183.55138888889</v>
+        <v>45190.57222222222</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45183.62083333333</v>
+        <v>45190.64166666667</v>
       </c>
     </row>
     <row r="31">
@@ -865,13 +865,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>83414</v>
+        <v>83992</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45183.54027777778</v>
+        <v>45190.60208333333</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45183.60972222222</v>
+        <v>45190.91666666666</v>
       </c>
     </row>
     <row r="32">
@@ -879,13 +879,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>83421</v>
+        <v>83994</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45183.4</v>
+        <v>45190.39375</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45183.46944444445</v>
+        <v>45190.70833333334</v>
       </c>
     </row>
     <row r="33">
@@ -893,13 +893,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>83433</v>
+        <v>84024</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45183.53055555555</v>
+        <v>45190.45625</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45183.6</v>
+        <v>45190.77083333334</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>83435</v>
+        <v>84025</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45183.53611111111</v>
+        <v>45190.31041666667</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45183.60555555556</v>
+        <v>45190.625</v>
       </c>
     </row>
     <row r="35">
@@ -921,13 +921,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>83436</v>
+        <v>84034</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45183.42638888889</v>
+        <v>45190.58125</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45183.49583333333</v>
+        <v>45190.89583333334</v>
       </c>
     </row>
     <row r="36">
@@ -935,13 +935,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83441</v>
+        <v>84036</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45183.40694444445</v>
+        <v>45190.27847222222</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45183.47638888889</v>
+        <v>45190.57708333333</v>
       </c>
     </row>
     <row r="37">
@@ -949,13 +949,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>83454</v>
+        <v>84051</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45183.41875</v>
+        <v>45190.36180555556</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45183.48819444444</v>
+        <v>45190.66041666667</v>
       </c>
     </row>
     <row r="38">
@@ -963,13 +963,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>83455</v>
+        <v>84113</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45183.55138888889</v>
+        <v>45190.3125</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45183.62083333333</v>
+        <v>45190.64166666667</v>
       </c>
     </row>
     <row r="39">
@@ -977,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>83456</v>
+        <v>84124</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45183.54027777778</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45183.60972222222</v>
+        <v>45190.70347222222</v>
       </c>
     </row>
     <row r="40">
@@ -991,13 +991,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>83463</v>
+        <v>84125</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45183.4</v>
+        <v>45190.3125</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45183.46944444445</v>
+        <v>45190.485</v>
       </c>
     </row>
     <row r="41">
@@ -1005,13 +1005,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>83468</v>
+        <v>84126</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45183.53611111111</v>
+        <v>45190.6875</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45183.60555555556</v>
+        <v>45190.75694444445</v>
       </c>
     </row>
     <row r="42">
@@ -1019,13 +1019,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83469</v>
+        <v>84127</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45183.42638888889</v>
+        <v>45190.33472222222</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45183.49583333333</v>
+        <v>45190.40416666667</v>
       </c>
     </row>
     <row r="43">
@@ -1033,13 +1033,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>83470</v>
+        <v>84128</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45183.42222222222</v>
+        <v>45190.69861111111</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45183.49166666667</v>
+        <v>45190.76805555556</v>
       </c>
     </row>
     <row r="44">
@@ -1047,13 +1047,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83473</v>
+        <v>84129</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45183.4125</v>
+        <v>45190.34166666667</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45183.48194444444</v>
+        <v>45190.41111111111</v>
       </c>
     </row>
     <row r="45">
@@ -1061,13 +1061,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>83475</v>
+        <v>84130</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45183.425</v>
+        <v>45190.36875</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45183.49444444444</v>
+        <v>45190.43819444445</v>
       </c>
     </row>
     <row r="46">
@@ -1075,13 +1075,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>83476</v>
+        <v>84133</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45183.42708333334</v>
+        <v>45190.36458333334</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45183.49652777778</v>
+        <v>45190.56875</v>
       </c>
     </row>
     <row r="47">
@@ -1089,13 +1089,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>83477</v>
+        <v>84138</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45183.40972222222</v>
+        <v>45190.48958333334</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45183.47916666666</v>
+        <v>45190.69375</v>
       </c>
     </row>
     <row r="48">
@@ -1103,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>83482</v>
+        <v>84140</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45183.44375</v>
+        <v>45190.57291666666</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45183.51319444444</v>
+        <v>45190.77708333333</v>
       </c>
     </row>
     <row r="49">
@@ -1117,13 +1117,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>83486</v>
+        <v>84141</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45183.32638888889</v>
+        <v>45190.65625</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.86041666667</v>
       </c>
     </row>
     <row r="50">
@@ -1131,13 +1131,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>83487</v>
+        <v>84142</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45183.42916666667</v>
+        <v>45190.875</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45183.49861111111</v>
+        <v>45190.94444444445</v>
       </c>
     </row>
     <row r="51">
@@ -1145,13 +1145,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83489</v>
+        <v>84143</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45183.43125</v>
+        <v>45190.38194444445</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45183.50069444445</v>
+        <v>45190.45138888889</v>
       </c>
     </row>
     <row r="52">
@@ -1159,13 +1159,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83491</v>
+        <v>84146</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45183.54861111111</v>
+        <v>45190.53680555556</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45183.61805555555</v>
+        <v>45190.83680555555</v>
       </c>
     </row>
     <row r="53">
@@ -1173,13 +1173,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>83492</v>
+        <v>84147</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.32638888889</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45183.46527777778</v>
+        <v>45190.39583333334</v>
       </c>
     </row>
     <row r="54">
@@ -1187,13 +1187,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>83504</v>
+        <v>84214</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45183.40833333333</v>
+        <v>45190.75972222222</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45183.47777777778</v>
+        <v>45190.82916666667</v>
       </c>
     </row>
     <row r="55">
@@ -1201,13 +1201,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>83505</v>
+        <v>84220</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45183.40416666667</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45183.47361111111</v>
+        <v>45190.40277777778</v>
       </c>
     </row>
     <row r="56">
@@ -1215,13 +1215,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>83509</v>
+        <v>84221</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45183.53888888889</v>
+        <v>45190.32847222222</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45183.60833333333</v>
+        <v>45190.62847222222</v>
       </c>
     </row>
     <row r="57">
@@ -1229,13 +1229,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>83510</v>
+        <v>84229</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45183.42361111111</v>
+        <v>45190.35277777778</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45183.49305555555</v>
+        <v>45190.42222222222</v>
       </c>
     </row>
     <row r="58">
@@ -1243,13 +1243,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>83517</v>
+        <v>84232</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45183.42291666667</v>
+        <v>45190.67222222222</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45183.49236111111</v>
+        <v>45190.74166666667</v>
       </c>
     </row>
     <row r="59">
@@ -1257,13 +1257,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>83519</v>
+        <v>84235</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45183.52916666667</v>
+        <v>45190.28680555556</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45183.59861111111</v>
+        <v>45190.58680555555</v>
       </c>
     </row>
     <row r="60">
@@ -1271,13 +1271,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>83524</v>
+        <v>84239</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45183.54305555556</v>
+        <v>45190.3625</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45183.6125</v>
+        <v>45190.43194444444</v>
       </c>
     </row>
     <row r="61">
@@ -1285,13 +1285,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>83566</v>
+        <v>84247</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45183.43333333333</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45183.50277777778</v>
+        <v>45190.62597222222</v>
       </c>
     </row>
     <row r="62">
@@ -1299,13 +1299,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>83597</v>
+        <v>84249</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45183.41041666667</v>
+        <v>45190.49583333333</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45183.47986111111</v>
+        <v>45190.72916666666</v>
       </c>
     </row>
     <row r="63">
@@ -1313,13 +1313,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>83608</v>
+        <v>84251</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45183.41527777778</v>
+        <v>45190.32916666667</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45183.48472222222</v>
+        <v>45190.5625</v>
       </c>
     </row>
     <row r="64">
@@ -1327,13 +1327,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>83612</v>
+        <v>84275</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45183.54166666666</v>
+        <v>45190.29583333333</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45183.61111111111</v>
+        <v>45190.62</v>
       </c>
     </row>
     <row r="65">
@@ -1341,13 +1341,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>83629</v>
+        <v>84280</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45183.42083333333</v>
+        <v>45190.34375</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45183.49027777778</v>
+        <v>45190.64236111111</v>
       </c>
     </row>
     <row r="66">
@@ -1355,13 +1355,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>83707</v>
+        <v>84282</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45183.3875</v>
+        <v>45190.27638888889</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45183.45694444444</v>
+        <v>45190.57638888889</v>
       </c>
     </row>
     <row r="67">
@@ -1369,13 +1369,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>83711</v>
+        <v>84283</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45183.39583333334</v>
+        <v>45190.75</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45183.81875</v>
+        <v>45191.11111111111</v>
       </c>
     </row>
     <row r="68">
@@ -1383,13 +1383,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>83714</v>
+        <v>84291</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.57222222222</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45183.66805555556</v>
+        <v>45190.86</v>
       </c>
     </row>
     <row r="69">
@@ -1397,13 +1397,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>83715</v>
+        <v>84295</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45183.66666666666</v>
+        <v>45190.36319444444</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45184.0125</v>
+        <v>45190.48777777778</v>
       </c>
     </row>
     <row r="70">
@@ -1411,13 +1411,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>83723</v>
+        <v>84303</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45183.66944444444</v>
+        <v>45190.65416666667</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45183.98888888889</v>
+        <v>45190.83361111111</v>
       </c>
     </row>
     <row r="71">
@@ -1425,13 +1425,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>83839</v>
+        <v>84312</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45183.25</v>
+        <v>45190.57430555556</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45183.61527777778</v>
+        <v>45190.84166666667</v>
       </c>
     </row>
     <row r="72">
@@ -1439,13 +1439,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>83856</v>
+        <v>84320</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45183.26597222222</v>
+        <v>45190.59722222222</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45183.59652777778</v>
+        <v>45190.66666666666</v>
       </c>
     </row>
     <row r="73">
@@ -1453,13 +1453,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>83861</v>
+        <v>84321</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45183.53680555556</v>
+        <v>45190.61388888889</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45183.86736111111</v>
+        <v>45190.76888888889</v>
       </c>
     </row>
     <row r="74">
@@ -1467,13 +1467,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>83933</v>
+        <v>84344</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45183.49513888889</v>
+        <v>45190.3625</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45183.82569444444</v>
+        <v>45190.625</v>
       </c>
     </row>
     <row r="75">
@@ -1481,13 +1481,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>83937</v>
+        <v>84357</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45183.39097222222</v>
+        <v>45190.30972222222</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45183.72152777778</v>
+        <v>45190.67361111111</v>
       </c>
     </row>
     <row r="76">
@@ -1495,13 +1495,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>83946</v>
+        <v>84363</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45183.43263888889</v>
+        <v>45190.31388888889</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45183.76319444444</v>
+        <v>45190.66319444445</v>
       </c>
     </row>
     <row r="77">
@@ -1509,13 +1509,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>83948</v>
+        <v>84364</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45183.58333333334</v>
+        <v>45190.25</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45183.88194444445</v>
+        <v>45190.63402777778</v>
       </c>
     </row>
     <row r="78">
@@ -1523,13 +1523,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>84009</v>
+        <v>84368</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45183.41666666666</v>
+        <v>45190.47777777778</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45183.67916666667</v>
+        <v>45190.925</v>
       </c>
     </row>
     <row r="79">
@@ -1537,13 +1537,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>84010</v>
+        <v>84370</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45183.29583333333</v>
+        <v>45190.52222222222</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45183.475</v>
+        <v>45190.59166666667</v>
       </c>
     </row>
     <row r="80">
@@ -1551,13 +1551,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>84011</v>
+        <v>84372</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45183.27083333334</v>
+        <v>45190.33472222222</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45183.48402777778</v>
+        <v>45190.40416666667</v>
       </c>
     </row>
     <row r="81">
@@ -1565,13 +1565,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>84012</v>
+        <v>84427</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45183.43819444445</v>
+        <v>45190.25</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45183.73541666667</v>
+        <v>45190.58680555555</v>
       </c>
     </row>
     <row r="82">
@@ -1579,13 +1579,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>84013</v>
+        <v>84429</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45183.31319444445</v>
+        <v>45190.34166666667</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45183.48402777778</v>
+        <v>45190.6025</v>
       </c>
     </row>
     <row r="83">
@@ -1593,13 +1593,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>84026</v>
+        <v>84430</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45183.31319444445</v>
+        <v>45190.55555555555</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45183.60902777778</v>
+        <v>45190.85208333333</v>
       </c>
     </row>
     <row r="84">
@@ -1607,13 +1607,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>84027</v>
+        <v>84431</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45183.69236111111</v>
+        <v>45190.34722222222</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45183.98263888889</v>
+        <v>45190.64375</v>
       </c>
     </row>
     <row r="85">
@@ -1621,13 +1621,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>84028</v>
+        <v>84436</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45183.40486111111</v>
+        <v>45190.38888888889</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45183.66388888889</v>
+        <v>45190.68541666667</v>
       </c>
     </row>
     <row r="86">
@@ -1635,13 +1635,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>84029</v>
+        <v>84442</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45183.36319444444</v>
+        <v>45190.5</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45183.62430555555</v>
+        <v>45190.68888888889</v>
       </c>
     </row>
     <row r="87">
@@ -1649,13 +1649,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>84030</v>
+        <v>84443</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45183.32152777778</v>
+        <v>45190.30555555555</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45183.58055555556</v>
+        <v>45190.60208333333</v>
       </c>
     </row>
     <row r="88">
@@ -1663,13 +1663,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>84031</v>
+        <v>84455</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45183.52638888889</v>
+        <v>45190.33472222222</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45183.59583333333</v>
+        <v>45190.40416666667</v>
       </c>
     </row>
     <row r="89">
@@ -1677,13 +1677,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>84039</v>
+        <v>84456</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45183.57986111111</v>
+        <v>45190.29166666666</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45183.64930555555</v>
+        <v>45190.66805555556</v>
       </c>
     </row>
     <row r="90">
@@ -1691,13 +1691,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>84087</v>
+        <v>84457</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>45183.29166666666</v>
+        <v>45190.25</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45183.56388888889</v>
+        <v>45190.57708333333</v>
       </c>
     </row>
     <row r="91">
@@ -1705,13 +1705,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>84120</v>
+        <v>84473</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45183.38611111111</v>
+        <v>45190.375</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45183.60555555556</v>
+        <v>45190.70208333333</v>
       </c>
     </row>
     <row r="92">
@@ -1719,13 +1719,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>84121</v>
+        <v>84480</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>45183.42777777778</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45183.64722222222</v>
+        <v>45190.66041666667</v>
       </c>
     </row>
     <row r="93">
@@ -1733,13 +1733,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>84123</v>
+        <v>84482</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>45183.46944444445</v>
+        <v>45190.35069444445</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45183.68888888889</v>
+        <v>45190.67152777778</v>
       </c>
     </row>
     <row r="94">
@@ -1747,13 +1747,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>84125</v>
+        <v>84527</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>45183.55277777778</v>
+        <v>45190.33333333334</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45183.77222222222</v>
+        <v>45190.52972222222</v>
       </c>
     </row>
     <row r="95">
@@ -1761,13 +1761,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>84175</v>
+        <v>84528</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.39583333334</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45183.65555555555</v>
+        <v>45190.59222222222</v>
       </c>
     </row>
     <row r="96">
@@ -1775,13 +1775,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>84208</v>
+        <v>84533</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>45183.28958333333</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45183.45104166667</v>
+        <v>45190.81111111111</v>
       </c>
     </row>
     <row r="97">
@@ -1789,13 +1789,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>84295</v>
+        <v>84534</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>45183.41111111111</v>
+        <v>45190.41666666666</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45183.48055555556</v>
+        <v>45190.81111111111</v>
       </c>
     </row>
     <row r="98">
@@ -1803,13 +1803,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>84298</v>
+        <v>84535</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>45183.40694444445</v>
+        <v>45190.4375</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45183.47638888889</v>
+        <v>45190.83194444444</v>
       </c>
     </row>
     <row r="99">
@@ -1817,13 +1817,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>84302</v>
+        <v>84536</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>45183.40694444445</v>
+        <v>45190.90416666667</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45183.47638888889</v>
+        <v>45190.97361111111</v>
       </c>
     </row>
     <row r="100">
@@ -1831,13 +1831,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>84305</v>
+        <v>84538</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>45183.40555555555</v>
+        <v>45190.29166666666</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45183.475</v>
+        <v>45190.66652777778</v>
       </c>
     </row>
     <row r="101">
@@ -1845,13 +1845,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>84306</v>
+        <v>84540</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>45183.525</v>
+        <v>45190.43125</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45183.59444444445</v>
+        <v>45190.50069444445</v>
       </c>
     </row>
     <row r="102">
@@ -1859,13 +1859,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>84326</v>
+        <v>84543</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>45183.57083333333</v>
+        <v>45190.53333333333</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45183.64027777778</v>
+        <v>45190.65833333333</v>
       </c>
     </row>
     <row r="103">
@@ -1873,13 +1873,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>84331</v>
+        <v>84553</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>45183.31597222222</v>
+        <v>45190.72222222222</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45183.44097222222</v>
+        <v>45190.79166666666</v>
       </c>
     </row>
     <row r="104">
@@ -1887,13 +1887,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>84338</v>
+        <v>84569</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>45183.33333333334</v>
+        <v>45190.52291666667</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45183.69444444445</v>
+        <v>45190.64791666667</v>
       </c>
     </row>
     <row r="105">
@@ -1901,13 +1901,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>84339</v>
+        <v>84579</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>45183.28472222222</v>
+        <v>45190.52430555555</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45183.46284722222</v>
+        <v>45190.92013888889</v>
       </c>
     </row>
     <row r="106">
@@ -1915,13 +1915,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>84340</v>
+        <v>84605</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>45183.5</v>
+        <v>45190.36805555555</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45183.871875</v>
+        <v>45190.4375</v>
       </c>
     </row>
     <row r="107">
@@ -1929,13 +1929,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>83410</v>
+        <v>84617</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>45183.375</v>
+        <v>45190.38888888889</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45183.746875</v>
+        <v>45190.45833333334</v>
       </c>
     </row>
     <row r="108">
@@ -1943,13 +1943,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>83425</v>
+        <v>84618</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>45183.33263888889</v>
+        <v>45190.40972222222</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45183.64861111111</v>
+        <v>45190.47916666666</v>
       </c>
     </row>
     <row r="109">
@@ -1957,13 +1957,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>83415</v>
+        <v>84699</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>45183.27777777778</v>
+        <v>45190.57222222222</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45183.58263888889</v>
+        <v>45190.64166666667</v>
       </c>
     </row>
     <row r="110">
@@ -1971,13 +1971,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>83440</v>
+        <v>84715</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>45183.40833333333</v>
+        <v>45190.36111111111</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45183.47777777778</v>
+        <v>45190.71069444445</v>
       </c>
     </row>
     <row r="111">
@@ -1985,13 +1985,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>83409</v>
+        <v>84716</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>45183.33611111111</v>
+        <v>45190.42569444444</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45183.40555555555</v>
+        <v>45190.49513888889</v>
       </c>
     </row>
     <row r="112">
@@ -1999,13 +1999,209 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>83407</v>
+        <v>84748</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>45183.41805555556</v>
+        <v>45190.39930555555</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45183.4875</v>
+        <v>45190.46875</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>84750</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>45190.33333333334</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45190.40277777778</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>84751</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>45190.36666666667</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45190.43611111111</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>84752</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>45190.46527777778</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45190.53472222222</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>84754</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>45190.37847222222</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45190.44791666666</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>84749</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>45190.37430555555</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45190.44375</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>84529</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>45190.36388888889</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45190.43333333333</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>84423</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>45190.27083333334</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45190.68680555555</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>84086</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>45190.27083333334</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45190.48888888889</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>84107</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>45190.53819444445</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45190.60763888889</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>84085</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>45190.48541666667</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>45190.61041666667</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>84101</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>45190.33888888889</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45190.40833333333</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>83763</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>45190.58263888889</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45190.70763888889</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>83759</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>45190.47222222222</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>45190.54166666666</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>83760</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>45190.55555555555</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>45190.625</v>
       </c>
     </row>
   </sheetData>

--- a/static/tmp/planificacion3.xlsx
+++ b/static/tmp/planificacion3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,13 +459,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>83213</v>
+        <v>82910</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45194.29166666666</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45194.62791666666</v>
+        <v>45219.66527777778</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83574</v>
+        <v>85088</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45194.42222222222</v>
+        <v>45219.28680555556</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45194.74944444445</v>
+        <v>45219.59444444445</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +487,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>83595</v>
+        <v>85108</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45194.375</v>
+        <v>45219.52916666667</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45194.76680555556</v>
+        <v>45219.7875</v>
       </c>
     </row>
     <row r="5">
@@ -501,13 +501,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>83747</v>
+        <v>85112</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45194.72569444445</v>
+        <v>45219.57083333333</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45194.79513888889</v>
+        <v>45219.82916666667</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83759</v>
+        <v>85116</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45194.52013888889</v>
+        <v>45219.44583333333</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45194.81069444444</v>
+        <v>45219.7</v>
       </c>
     </row>
     <row r="7">
@@ -529,13 +529,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83777</v>
+        <v>85127</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45194.24444444444</v>
+        <v>45219.27916666667</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45194.53986111111</v>
+        <v>45219.53333333333</v>
       </c>
     </row>
     <row r="8">
@@ -543,13 +543,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83778</v>
+        <v>85128</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45194.24444444444</v>
+        <v>45219.3625</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45194.53986111111</v>
+        <v>45219.61666666667</v>
       </c>
     </row>
     <row r="9">
@@ -557,13 +557,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83882</v>
+        <v>85457</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45194.48472222222</v>
+        <v>45219.39027777778</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45194.76194444444</v>
+        <v>45219.68055555555</v>
       </c>
     </row>
     <row r="10">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83893</v>
+        <v>85460</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45194.38611111111</v>
+        <v>45219.43194444444</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45194.70347222222</v>
+        <v>45219.71805555555</v>
       </c>
     </row>
     <row r="11">
@@ -585,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83952</v>
+        <v>85465</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45194.54166666666</v>
+        <v>45219.24444444444</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45194.90277777778</v>
+        <v>45219.53055555555</v>
       </c>
     </row>
     <row r="12">
@@ -599,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83953</v>
+        <v>85481</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45194.625</v>
+        <v>45219.75763888889</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45194.98611111111</v>
+        <v>45219.82708333333</v>
       </c>
     </row>
     <row r="13">
@@ -613,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>84032</v>
+        <v>85482</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45194.34375</v>
+        <v>45219.83958333333</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45194.54791666667</v>
+        <v>45219.90902777778</v>
       </c>
     </row>
     <row r="14">
@@ -627,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>84033</v>
+        <v>85483</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45194.40625</v>
+        <v>45219.3875</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45194.61041666667</v>
+        <v>45219.52083333334</v>
       </c>
     </row>
     <row r="15">
@@ -641,13 +641,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>84093</v>
+        <v>85484</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45194.33333333334</v>
+        <v>45219.35694444444</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45194.70902777778</v>
+        <v>45219.42638888889</v>
       </c>
     </row>
     <row r="16">
@@ -655,13 +655,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>84097</v>
+        <v>85485</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45194.43402777778</v>
+        <v>45219.67638888889</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45194.74583333333</v>
+        <v>45219.74583333333</v>
       </c>
     </row>
     <row r="17">
@@ -669,13 +669,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>84100</v>
+        <v>85486</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45194.26736111111</v>
+        <v>45219.35833333333</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45194.57916666667</v>
+        <v>45219.42777777778</v>
       </c>
     </row>
     <row r="18">
@@ -683,13 +683,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>84117</v>
+        <v>85487</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45194.57291666666</v>
+        <v>45219.82013888889</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45194.77708333333</v>
+        <v>45219.88958333333</v>
       </c>
     </row>
     <row r="19">
@@ -697,13 +697,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>84118</v>
+        <v>85488</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45194.65625</v>
+        <v>45219.87638888889</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45194.86041666667</v>
+        <v>45219.94583333333</v>
       </c>
     </row>
     <row r="20">
@@ -711,13 +711,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>84128</v>
+        <v>85489</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45194.46736111111</v>
+        <v>45219.67152777778</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45194.7275</v>
+        <v>45219.74097222222</v>
       </c>
     </row>
     <row r="21">
@@ -725,13 +725,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>84132</v>
+        <v>85490</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45194.26597222222</v>
+        <v>45219.64583333334</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45194.56597222222</v>
+        <v>45219.71527777778</v>
       </c>
     </row>
     <row r="22">
@@ -739,13 +739,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>84133</v>
+        <v>85491</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45194.32847222222</v>
+        <v>45219.65555555555</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45194.62847222222</v>
+        <v>45219.725</v>
       </c>
     </row>
     <row r="23">
@@ -753,13 +753,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>84135</v>
+        <v>85492</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45194.36875</v>
+        <v>45219.66666666666</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45194.5575</v>
+        <v>45219.73611111111</v>
       </c>
     </row>
     <row r="24">
@@ -767,13 +767,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>84136</v>
+        <v>85493</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45194.39097222222</v>
+        <v>45219.65347222222</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45194.69097222222</v>
+        <v>45219.72291666667</v>
       </c>
     </row>
     <row r="25">
@@ -781,13 +781,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>84137</v>
+        <v>85494</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45194.43263888889</v>
+        <v>45219.64930555555</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45194.73263888889</v>
+        <v>45219.71875</v>
       </c>
     </row>
     <row r="26">
@@ -795,13 +795,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>84138</v>
+        <v>85495</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45194.51597222222</v>
+        <v>45219.64236111111</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45194.81597222222</v>
+        <v>45219.71180555555</v>
       </c>
     </row>
     <row r="27">
@@ -809,13 +809,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>84143</v>
+        <v>85496</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45194.55763888889</v>
+        <v>45219.66388888889</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45194.85763888889</v>
+        <v>45219.73333333333</v>
       </c>
     </row>
     <row r="28">
@@ -823,13 +823,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>84151</v>
+        <v>85497</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45194.32291666666</v>
+        <v>45219.65694444445</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45194.61666666667</v>
+        <v>45219.72638888889</v>
       </c>
     </row>
     <row r="29">
@@ -837,13 +837,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>84176</v>
+        <v>85500</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45194.34305555555</v>
+        <v>45219.72013888889</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45194.56722222222</v>
+        <v>45219.78958333333</v>
       </c>
     </row>
     <row r="30">
@@ -851,13 +851,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>84219</v>
+        <v>85501</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45194.55138888889</v>
+        <v>45219.64375</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45194.70736111111</v>
+        <v>45219.71319444444</v>
       </c>
     </row>
     <row r="31">
@@ -865,13 +865,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>84244</v>
+        <v>85502</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45194.50972222222</v>
+        <v>45219.69166666667</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45194.61305555556</v>
+        <v>45219.76111111111</v>
       </c>
     </row>
     <row r="32">
@@ -879,13 +879,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>84272</v>
+        <v>85505</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45194.63472222222</v>
+        <v>45219.83680555555</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45194.905</v>
+        <v>45219.90625</v>
       </c>
     </row>
     <row r="33">
@@ -893,13 +893,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>84284</v>
+        <v>85506</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45194.3625</v>
+        <v>45219.44027777778</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45194.50833333333</v>
+        <v>45219.50972222222</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>84314</v>
+        <v>85508</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45194.29166666666</v>
+        <v>45219.82152777778</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45194.60638888889</v>
+        <v>45219.89097222222</v>
       </c>
     </row>
     <row r="35">
@@ -921,13 +921,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>84335</v>
+        <v>85509</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45194.375</v>
+        <v>45219.7125</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45194.71111111111</v>
+        <v>45219.78194444445</v>
       </c>
     </row>
     <row r="36">
@@ -935,13 +935,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>84336</v>
+        <v>85510</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45194.25</v>
+        <v>45219.40416666667</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45194.58611111111</v>
+        <v>45219.47361111111</v>
       </c>
     </row>
     <row r="37">
@@ -949,13 +949,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>84353</v>
+        <v>85511</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45194.30486111111</v>
+        <v>45219.75486111111</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45194.65291666667</v>
+        <v>45219.82430555556</v>
       </c>
     </row>
     <row r="38">
@@ -963,13 +963,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>84370</v>
+        <v>85512</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45194.30555555555</v>
+        <v>45219.41111111111</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45194.48055555556</v>
+        <v>45219.48055555556</v>
       </c>
     </row>
     <row r="39">
@@ -977,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>84438</v>
+        <v>85513</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45194.29166666666</v>
+        <v>45219.75625</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45194.60472222222</v>
+        <v>45219.82569444444</v>
       </c>
     </row>
     <row r="40">
@@ -991,13 +991,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>84440</v>
+        <v>85514</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45194.25</v>
+        <v>45219.87361111111</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45194.56305555555</v>
+        <v>45219.94305555556</v>
       </c>
     </row>
     <row r="41">
@@ -1005,13 +1005,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>84441</v>
+        <v>85515</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45194.33333333334</v>
+        <v>45219.68333333333</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45194.64638888889</v>
+        <v>45219.75277777778</v>
       </c>
     </row>
     <row r="42">
@@ -1019,13 +1019,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84459</v>
+        <v>85516</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45194.55902777778</v>
+        <v>45219.4125</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45194.87083333333</v>
+        <v>45219.48194444444</v>
       </c>
     </row>
     <row r="43">
@@ -1033,13 +1033,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84486</v>
+        <v>85517</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45194.51597222222</v>
+        <v>45219.44722222222</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45194.81833333334</v>
+        <v>45219.51666666667</v>
       </c>
     </row>
     <row r="44">
@@ -1047,13 +1047,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>84492</v>
+        <v>85518</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45194.34027777778</v>
+        <v>45219.75902777778</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45194.73805555556</v>
+        <v>45219.82847222222</v>
       </c>
     </row>
     <row r="45">
@@ -1061,13 +1061,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>84523</v>
+        <v>85519</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.39583333334</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45194.83333333334</v>
+        <v>45219.52083333334</v>
       </c>
     </row>
     <row r="46">
@@ -1075,13 +1075,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>84529</v>
+        <v>85520</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45194.29166666666</v>
+        <v>45219.82986111111</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45194.5</v>
+        <v>45219.89930555555</v>
       </c>
     </row>
     <row r="47">
@@ -1089,13 +1089,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>84541</v>
+        <v>85521</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45194.44652777778</v>
+        <v>45219.40972222222</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45194.75694444445</v>
+        <v>45219.47916666666</v>
       </c>
     </row>
     <row r="48">
@@ -1103,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>84557</v>
+        <v>85524</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45194.23958333334</v>
+        <v>45219.27152777778</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45194.55625</v>
+        <v>45219.57222222222</v>
       </c>
     </row>
     <row r="49">
@@ -1117,13 +1117,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>84568</v>
+        <v>85528</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45194.36180555556</v>
+        <v>45219.43819444445</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45194.65444444444</v>
+        <v>45219.73888888889</v>
       </c>
     </row>
     <row r="50">
@@ -1131,13 +1131,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>84591</v>
+        <v>85559</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45194.48819444444</v>
+        <v>45219.53611111111</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45194.86458333334</v>
+        <v>45219.88333333333</v>
       </c>
     </row>
     <row r="51">
@@ -1145,13 +1145,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>84593</v>
+        <v>85561</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45194.36319444444</v>
+        <v>45219.28611111111</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45194.73958333334</v>
+        <v>45219.63333333333</v>
       </c>
     </row>
     <row r="52">
@@ -1159,13 +1159,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>84596</v>
+        <v>85562</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45194.35416666666</v>
+        <v>45219.38611111111</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45194.80486111111</v>
+        <v>45219.45555555556</v>
       </c>
     </row>
     <row r="53">
@@ -1173,13 +1173,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>84598</v>
+        <v>85563</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45194.6875</v>
+        <v>45219.38888888889</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45195.08888888889</v>
+        <v>45219.45833333334</v>
       </c>
     </row>
     <row r="54">
@@ -1187,13 +1187,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>84656</v>
+        <v>85579</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45194.46527777778</v>
+        <v>45219.54305555556</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45194.78611111111</v>
+        <v>45219.87361111111</v>
       </c>
     </row>
     <row r="55">
@@ -1201,13 +1201,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>84657</v>
+        <v>85597</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45194.50694444445</v>
+        <v>45219.1875</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45194.82777777778</v>
+        <v>45219.51944444444</v>
       </c>
     </row>
     <row r="56">
@@ -1215,13 +1215,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>84658</v>
+        <v>85614</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45194.54861111111</v>
+        <v>45219.36111111111</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45194.86944444444</v>
+        <v>45219.90277777778</v>
       </c>
     </row>
     <row r="57">
@@ -1229,13 +1229,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>84659</v>
+        <v>85615</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45194.42361111111</v>
+        <v>45219.65972222222</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45194.74444444444</v>
+        <v>45219.72916666666</v>
       </c>
     </row>
     <row r="58">
@@ -1243,13 +1243,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>84739</v>
+        <v>85629</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45194.59305555555</v>
+        <v>45219.3125</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45194.74902777778</v>
+        <v>45219.72916666666</v>
       </c>
     </row>
     <row r="59">
@@ -1257,13 +1257,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>84784</v>
+        <v>85636</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45194.41666666666</v>
+        <v>45219.34722222222</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45194.77361111111</v>
+        <v>45219.94444444445</v>
       </c>
     </row>
     <row r="60">
@@ -1271,13 +1271,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>84796</v>
+        <v>85666</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45194.45833333334</v>
+        <v>45219.3125</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45194.66666666666</v>
+        <v>45219.62916666667</v>
       </c>
     </row>
     <row r="61">
@@ -1285,13 +1285,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>84856</v>
+        <v>85685</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45194.52083333334</v>
+        <v>45219.33333333334</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45194.64583333334</v>
+        <v>45219.53611111111</v>
       </c>
     </row>
     <row r="62">
@@ -1299,13 +1299,1105 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>84857</v>
+        <v>85692</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45194.36805555555</v>
+        <v>45219.31666666667</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45194.4375</v>
+        <v>45219.62777777778</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>85740</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45219.43402777778</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45219.73888888889</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>85742</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45219.26736111111</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45219.57152777778</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>85743</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45219.45347222222</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45219.74375</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>85744</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45219.41180555556</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45219.70208333333</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>85747</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45219.53680555556</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45219.82708333333</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>85750</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45219.37013888889</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45219.66041666667</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>85758</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45219.27013888889</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45219.59652777778</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>85774</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45219.23958333334</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45219.49270833333</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>85780</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45219.60416666666</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45219.94097222222</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>85812</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45219.33333333334</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45219.58541666667</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>85832</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45219.75</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>85835</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45219.375</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45219.86284722222</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>85840</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45219.75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>85842</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45219.80902777778</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>85843</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45219.52083333334</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45220.00347222222</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>85844</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45219.52083333334</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45219.64583333334</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>85848</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45219.375</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45219.5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>85852</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45219.66666666666</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45219.95555555556</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>85854</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45219.71875</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45219.96076388889</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>85869</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45219.25</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45219.43819444445</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>85894</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45219.45138888889</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45219.73784722222</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>85903</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45219.51388888889</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45219.80034722222</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>85906</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45219.47222222222</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45219.75868055555</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>85949</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45219.32291666666</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45219.47361111111</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85970</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45219.45833333334</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45219.64652777778</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>85971</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45219.89583333334</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45219.96527777778</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>85974</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45219.3125</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45219.60277777778</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>85983</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45219.70347222222</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45219.77291666667</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>85984</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45219.73541666667</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45220.10694444444</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>85992</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45219.36319444444</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45219.65694444445</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>85996</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45219.6875</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45220.04861111111</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>86002</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45219.40208333333</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45219.62916666667</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>86007</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45219.33333333334</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45219.64375</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>86019</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45219.66180555556</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45219.73125</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>86038</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45219.69027777778</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45220.00972222222</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>86039</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45219.59305555555</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45219.89722222222</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>86051</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45219.67569444444</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45219.96770833333</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>86054</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45220.07013888889</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>86061</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45219.35416666666</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45219.69236111111</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>86087</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45219.46527777778</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45219.53472222222</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>86088</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45219.43055555555</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45219.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>86089</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45219.35208333333</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45219.66631944444</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>86090</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>45219.27083333334</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45219.62986111111</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>86092</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45219.33888888889</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45219.46388888889</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>86116</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45219.88680555556</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>86157</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>45219.29166666666</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45219.62083333333</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>86160</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>45219.39583333334</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45219.725</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>86166</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>45219.71736111111</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45219.98333333333</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>86183</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>45219.70138888889</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45219.77083333334</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>86207</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>45219.44166666667</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45219.51111111111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>86211</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>45219.53055555555</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45219.76319444444</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>86239</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>45219.47222222222</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>86249</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>45219.26944444444</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45219.45833333334</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>86252</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>45219.34027777778</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45219.40972222222</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>86259</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>45219.63055555556</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45219.75555555556</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>86260</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>45219.62847222222</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45219.75347222222</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>86262</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>45219.6625</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45219.73194444444</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>86269</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>45219.43888888889</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45219.50833333333</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>86302</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>45219.56319444445</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45219.89930555555</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>86304</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>45219.4125</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>45219.48194444444</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>86306</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>45219.52152777778</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45219.85763888889</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>86308</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>45219.34861111111</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45219.41805555556</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>86309</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>45219.38472222222</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>45219.45416666667</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>86310</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>45219.39027777778</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>45219.45972222222</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>86311</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>45219.37638888889</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>45219.44583333333</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>86347</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>45219.39583333334</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>45219.7125</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>86369</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>45219.23263888889</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>45219.6625</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>86422</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>45219.83125</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>45219.90069444444</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>86494</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>45219.30972222222</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>45219.61041666667</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>86601</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>45219.41388888889</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>45219.48333333333</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>86602</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>45219.43611111111</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>45219.50555555556</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>86629</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>45219.63888888889</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>45219.70833333334</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>86665</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>45219.57638888889</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>45219.64583333334</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>86666</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>45219.47222222222</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>45219.86111111111</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>86667</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>45219.47222222222</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>45219.88194444445</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>86668</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>45219.47222222222</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>45219.86111111111</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>86669</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>45219.47222222222</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>45219.72916666666</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>86688</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>45219.47222222222</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>45219.54166666666</v>
       </c>
     </row>
   </sheetData>

--- a/static/tmp/planificacion3.xlsx
+++ b/static/tmp/planificacion3.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,13 +406,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>86596</v>
+        <v>83004</v>
       </c>
       <c r="C2" s="2">
-        <v>45241.37569444445</v>
+        <v>45244.51388888889</v>
       </c>
       <c r="D2" s="2">
-        <v>45241.54652777778</v>
+        <v>45244.84826388889</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -420,13 +420,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>86611</v>
+        <v>85554</v>
       </c>
       <c r="C3" s="2">
-        <v>45241.34305555555</v>
+        <v>45244.52916666667</v>
       </c>
       <c r="D3" s="2">
-        <v>45241.4125</v>
+        <v>45244.7875</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -434,13 +434,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>86613</v>
+        <v>86276</v>
       </c>
       <c r="C4" s="2">
-        <v>45241.35</v>
+        <v>45244.59166666667</v>
       </c>
       <c r="D4" s="2">
-        <v>45241.41944444444</v>
+        <v>45244.85</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -448,13 +448,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>86618</v>
+        <v>86287</v>
       </c>
       <c r="C5" s="2">
-        <v>45241.40208333333</v>
+        <v>45244.63333333333</v>
       </c>
       <c r="D5" s="2">
-        <v>45241.47152777778</v>
+        <v>45244.89166666667</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -462,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>86620</v>
+        <v>86606</v>
       </c>
       <c r="C6" s="2">
-        <v>45241.46805555555</v>
+        <v>45244.40416666667</v>
       </c>
       <c r="D6" s="2">
-        <v>45241.5375</v>
+        <v>45244.6625</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -476,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>86621</v>
+        <v>86607</v>
       </c>
       <c r="C7" s="2">
-        <v>45241.54236111111</v>
+        <v>45244.46666666667</v>
       </c>
       <c r="D7" s="2">
-        <v>45241.61180555556</v>
+        <v>45244.725</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -490,13 +490,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>86622</v>
+        <v>86610</v>
       </c>
       <c r="C8" s="2">
-        <v>45241.52986111111</v>
+        <v>45244.34166666667</v>
       </c>
       <c r="D8" s="2">
-        <v>45241.59930555556</v>
+        <v>45244.6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -504,13 +504,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>86624</v>
+        <v>86795</v>
       </c>
       <c r="C9" s="2">
-        <v>45241.54375</v>
+        <v>45244.375</v>
       </c>
       <c r="D9" s="2">
-        <v>45241.61319444444</v>
+        <v>45244.75416666667</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -518,13 +518,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>86694</v>
+        <v>86798</v>
       </c>
       <c r="C10" s="2">
-        <v>45241.26736111111</v>
+        <v>45244.29166666666</v>
       </c>
       <c r="D10" s="2">
-        <v>45241.57222222222</v>
+        <v>45244.61805555555</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -532,13 +532,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>86931</v>
+        <v>86928</v>
       </c>
       <c r="C11" s="2">
-        <v>45241.37569444445</v>
+        <v>45244.56319444445</v>
       </c>
       <c r="D11" s="2">
-        <v>45241.67569444444</v>
+        <v>45244.86388888889</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -546,13 +546,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>86980</v>
+        <v>86929</v>
       </c>
       <c r="C12" s="2">
-        <v>45241.34305555555</v>
+        <v>45244.43819444445</v>
       </c>
       <c r="D12" s="2">
-        <v>45241.56666666667</v>
+        <v>45244.73888888889</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -560,13 +560,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>87198</v>
+        <v>86936</v>
       </c>
       <c r="C13" s="2">
-        <v>45241.52152777778</v>
+        <v>45244.27152777778</v>
       </c>
       <c r="D13" s="2">
-        <v>45241.59097222222</v>
+        <v>45244.57152777778</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -574,13 +574,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>87205</v>
+        <v>86955</v>
       </c>
       <c r="C14" s="2">
-        <v>45241.53958333333</v>
+        <v>45244.47222222222</v>
       </c>
       <c r="D14" s="2">
-        <v>45241.60902777778</v>
+        <v>45244.54166666666</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -588,13 +588,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>87208</v>
+        <v>87159</v>
       </c>
       <c r="C15" s="2">
-        <v>45241.37708333333</v>
+        <v>45244.26944444444</v>
       </c>
       <c r="D15" s="2">
-        <v>45241.44652777778</v>
+        <v>45244.63472222222</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -602,13 +602,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>87216</v>
+        <v>87372</v>
       </c>
       <c r="C16" s="2">
-        <v>45241.40138888889</v>
+        <v>45244.31180555555</v>
       </c>
       <c r="D16" s="2">
-        <v>45241.47083333333</v>
+        <v>45244.65069444444</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -616,13 +616,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>87218</v>
+        <v>87373</v>
       </c>
       <c r="C17" s="2">
-        <v>45241.41388888889</v>
+        <v>45244.33263888889</v>
       </c>
       <c r="D17" s="2">
-        <v>45241.48333333333</v>
+        <v>45244.67152777778</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -630,13 +630,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>87231</v>
+        <v>87374</v>
       </c>
       <c r="C18" s="2">
-        <v>45241.54097222222</v>
+        <v>45244.35347222222</v>
       </c>
       <c r="D18" s="2">
-        <v>45241.61041666667</v>
+        <v>45244.69236111111</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -644,13 +644,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>87232</v>
+        <v>87375</v>
       </c>
       <c r="C19" s="2">
-        <v>45241.36041666667</v>
+        <v>45244.37430555555</v>
       </c>
       <c r="D19" s="2">
-        <v>45241.42986111111</v>
+        <v>45244.71319444444</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -658,13 +658,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>87239</v>
+        <v>87405</v>
       </c>
       <c r="C20" s="2">
-        <v>45241.35763888889</v>
+        <v>45244.375</v>
       </c>
       <c r="D20" s="2">
-        <v>45241.42708333334</v>
+        <v>45244.75972222222</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -672,13 +672,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>87240</v>
+        <v>87422</v>
       </c>
       <c r="C21" s="2">
-        <v>45241.4</v>
+        <v>45244.27083333334</v>
       </c>
       <c r="D21" s="2">
-        <v>45241.46944444445</v>
+        <v>45244.53402777778</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -686,13 +686,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>87244</v>
+        <v>87541</v>
       </c>
       <c r="C22" s="2">
-        <v>45241.34652777778</v>
+        <v>45244.34305555555</v>
       </c>
       <c r="D22" s="2">
-        <v>45241.41597222222</v>
+        <v>45244.56666666667</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -700,13 +700,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>87248</v>
+        <v>87558</v>
       </c>
       <c r="C23" s="2">
-        <v>45241.54652777778</v>
+        <v>45244.50972222222</v>
       </c>
       <c r="D23" s="2">
-        <v>45241.61597222222</v>
+        <v>45244.78611111111</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -714,13 +714,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>87249</v>
+        <v>87560</v>
       </c>
       <c r="C24" s="2">
-        <v>45241.35902777778</v>
+        <v>45244.36319444444</v>
       </c>
       <c r="D24" s="2">
-        <v>45241.42847222222</v>
+        <v>45244.65694444445</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -728,13 +728,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>87266</v>
+        <v>87575</v>
       </c>
       <c r="C25" s="2">
-        <v>45241.35069444445</v>
+        <v>45244.74513888889</v>
       </c>
       <c r="D25" s="2">
-        <v>45241.42013888889</v>
+        <v>45244.81458333333</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -742,13 +742,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>87268</v>
+        <v>87600</v>
       </c>
       <c r="C26" s="2">
-        <v>45241.35208333333</v>
+        <v>45244.33611111111</v>
       </c>
       <c r="D26" s="2">
-        <v>45241.42152777778</v>
+        <v>45244.40555555555</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -756,13 +756,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>87269</v>
+        <v>87601</v>
       </c>
       <c r="C27" s="2">
-        <v>45241.36180555556</v>
+        <v>45244.29097222222</v>
       </c>
       <c r="D27" s="2">
-        <v>45241.43125</v>
+        <v>45244.55729166666</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -770,13 +770,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>87271</v>
+        <v>87603</v>
       </c>
       <c r="C28" s="2">
-        <v>45241.3625</v>
+        <v>45244.36527777778</v>
       </c>
       <c r="D28" s="2">
-        <v>45241.43194444444</v>
+        <v>45244.70451388889</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -784,13 +784,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>87275</v>
+        <v>87616</v>
       </c>
       <c r="C29" s="2">
-        <v>45241.36111111111</v>
+        <v>45244.80833333333</v>
       </c>
       <c r="D29" s="2">
-        <v>45241.43055555555</v>
+        <v>45244.87777777778</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -798,13 +798,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>87277</v>
+        <v>87618</v>
       </c>
       <c r="C30" s="2">
-        <v>45241.35694444444</v>
+        <v>45244.32916666667</v>
       </c>
       <c r="D30" s="2">
-        <v>45241.42638888889</v>
+        <v>45244.70451388889</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -812,13 +812,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>87279</v>
+        <v>87619</v>
       </c>
       <c r="C31" s="2">
-        <v>45241.35833333333</v>
+        <v>45244.33194444444</v>
       </c>
       <c r="D31" s="2">
-        <v>45241.42777777778</v>
+        <v>45244.80868055556</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -826,13 +826,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>87420</v>
+        <v>87624</v>
       </c>
       <c r="C32" s="2">
-        <v>45241.38888888889</v>
+        <v>45244.32361111111</v>
       </c>
       <c r="D32" s="2">
-        <v>45241.45833333334</v>
+        <v>45244.64201388889</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -840,13 +840,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>87452</v>
+        <v>87625</v>
       </c>
       <c r="C33" s="2">
-        <v>45241.22916666666</v>
+        <v>45244.36805555555</v>
       </c>
       <c r="D33" s="2">
-        <v>45241.41736111111</v>
+        <v>45244.76701388889</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -854,13 +854,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>87494</v>
+        <v>87631</v>
       </c>
       <c r="C34" s="2">
-        <v>45241.375</v>
+        <v>45244.27361111111</v>
       </c>
       <c r="D34" s="2">
-        <v>45241.69791666666</v>
+        <v>45244.58611111111</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -868,13 +868,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>87497</v>
+        <v>87635</v>
       </c>
       <c r="C35" s="2">
-        <v>45241.41666666666</v>
+        <v>45244.29583333333</v>
       </c>
       <c r="D35" s="2">
-        <v>45241.73958333334</v>
+        <v>45244.59861111111</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -882,13 +882,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>87501</v>
+        <v>87668</v>
       </c>
       <c r="C36" s="2">
-        <v>45241.29166666666</v>
+        <v>45244.29930555556</v>
       </c>
       <c r="D36" s="2">
-        <v>45241.61458333334</v>
+        <v>45244.52638888889</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -896,13 +896,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>87502</v>
+        <v>87687</v>
       </c>
       <c r="C37" s="2">
-        <v>45241.25555555556</v>
+        <v>45244.625</v>
       </c>
       <c r="D37" s="2">
-        <v>45241.51631944445</v>
+        <v>45244.90972222222</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -910,13 +910,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>87504</v>
+        <v>87690</v>
       </c>
       <c r="C38" s="2">
-        <v>45241.33333333334</v>
+        <v>45244.375</v>
       </c>
       <c r="D38" s="2">
-        <v>45241.65625</v>
+        <v>45244.70416666667</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -924,13 +924,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>87517</v>
+        <v>87691</v>
       </c>
       <c r="C39" s="2">
-        <v>45241.45833333334</v>
+        <v>45244.29166666666</v>
       </c>
       <c r="D39" s="2">
-        <v>45241.81944444445</v>
+        <v>45244.62083333333</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -938,13 +938,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>87522</v>
+        <v>87726</v>
       </c>
       <c r="C40" s="2">
-        <v>45241.48958333334</v>
+        <v>45244.27916666667</v>
       </c>
       <c r="D40" s="2">
-        <v>45241.82465277778</v>
+        <v>45244.5375</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -952,13 +952,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>87523</v>
+        <v>87736</v>
       </c>
       <c r="C41" s="2">
-        <v>45241.60694444444</v>
+        <v>45244.37777777778</v>
       </c>
       <c r="D41" s="2">
-        <v>45241.91597222222</v>
+        <v>45244.44722222222</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -966,13 +966,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>87527</v>
+        <v>87738</v>
       </c>
       <c r="C42" s="2">
-        <v>45241.36319444444</v>
+        <v>45244.55763888889</v>
       </c>
       <c r="D42" s="2">
-        <v>45241.64583333334</v>
+        <v>45244.84375</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -980,13 +980,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>87530</v>
+        <v>87739</v>
       </c>
       <c r="C43" s="2">
-        <v>45241.34097222222</v>
+        <v>45244.8125</v>
       </c>
       <c r="D43" s="2">
-        <v>45241.68194444444</v>
+        <v>45244.88194444445</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -994,13 +994,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>87538</v>
+        <v>87740</v>
       </c>
       <c r="C44" s="2">
-        <v>45241.39166666667</v>
+        <v>45244.28680555556</v>
       </c>
       <c r="D44" s="2">
-        <v>45241.99791666667</v>
+        <v>45244.57291666666</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>87542</v>
+        <v>87743</v>
       </c>
       <c r="C45" s="2">
-        <v>45241.29166666666</v>
+        <v>45244.49513888889</v>
       </c>
       <c r="D45" s="2">
-        <v>45241.63125</v>
+        <v>45244.78125</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>87570</v>
+        <v>87748</v>
       </c>
       <c r="C46" s="2">
-        <v>45241.29652777778</v>
+        <v>45244.27083333334</v>
       </c>
       <c r="D46" s="2">
-        <v>45241.65625</v>
+        <v>45244.63680555556</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>87577</v>
+        <v>87749</v>
       </c>
       <c r="C47" s="2">
-        <v>45241.36319444444</v>
+        <v>45244.68888888889</v>
       </c>
       <c r="D47" s="2">
-        <v>45241.65694444445</v>
+        <v>45244.75833333333</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>87588</v>
+        <v>87751</v>
       </c>
       <c r="C48" s="2">
-        <v>45241.65555555555</v>
+        <v>45244.47222222222</v>
       </c>
       <c r="D48" s="2">
-        <v>45241.93958333333</v>
+        <v>45244.75868055555</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>87589</v>
+        <v>87756</v>
       </c>
       <c r="C49" s="2">
-        <v>45241.61388888889</v>
+        <v>45244.4375</v>
       </c>
       <c r="D49" s="2">
-        <v>45241.91805555556</v>
+        <v>45244.50694444445</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>87637</v>
+        <v>87763</v>
       </c>
       <c r="C50" s="2">
-        <v>45241.23611111111</v>
+        <v>45244.43819444445</v>
       </c>
       <c r="D50" s="2">
-        <v>45241.49652777778</v>
+        <v>45244.77430555555</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>87638</v>
+        <v>87764</v>
       </c>
       <c r="C51" s="2">
-        <v>45241.625</v>
+        <v>45244.52152777778</v>
       </c>
       <c r="D51" s="2">
-        <v>45241.90381944444</v>
+        <v>45244.85763888889</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>87649</v>
+        <v>87771</v>
       </c>
       <c r="C52" s="2">
-        <v>45241.54166666666</v>
+        <v>45244.44166666667</v>
       </c>
       <c r="D52" s="2">
-        <v>45241.86215277778</v>
+        <v>45244.51111111111</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>87669</v>
+        <v>87793</v>
       </c>
       <c r="C53" s="2">
-        <v>45241.53055555555</v>
+        <v>45244.70555555556</v>
       </c>
       <c r="D53" s="2">
-        <v>45241.76180555556</v>
+        <v>45244.775</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>87675</v>
+        <v>87794</v>
       </c>
       <c r="C54" s="2">
-        <v>45241.57152777778</v>
+        <v>45244.625</v>
       </c>
       <c r="D54" s="2">
-        <v>45241.86631944445</v>
+        <v>45244.95833333334</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>87676</v>
+        <v>87799</v>
       </c>
       <c r="C55" s="2">
-        <v>45241.3125</v>
+        <v>45244.55138888889</v>
       </c>
       <c r="D55" s="2">
-        <v>45241.509375</v>
+        <v>45244.62083333333</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>87677</v>
+        <v>87801</v>
       </c>
       <c r="C56" s="2">
-        <v>45241.23888888889</v>
+        <v>45244.66875</v>
       </c>
       <c r="D56" s="2">
-        <v>45241.35069444445</v>
+        <v>45244.73819444444</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>87678</v>
+        <v>87802</v>
       </c>
       <c r="C57" s="2">
-        <v>45241.27916666667</v>
+        <v>45244.33055555556</v>
       </c>
       <c r="D57" s="2">
-        <v>45241.54652777778</v>
+        <v>45244.4</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>87689</v>
+        <v>87803</v>
       </c>
       <c r="C58" s="2">
-        <v>45241.41527777778</v>
+        <v>45244.55208333334</v>
       </c>
       <c r="D58" s="2">
-        <v>45241.48472222222</v>
+        <v>45244.62152777778</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>87716</v>
+        <v>87807</v>
       </c>
       <c r="C59" s="2">
-        <v>45241.27083333334</v>
+        <v>45244.35694444444</v>
       </c>
       <c r="D59" s="2">
-        <v>45241.61111111111</v>
+        <v>45244.66388888889</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>87728</v>
+        <v>87809</v>
       </c>
       <c r="C60" s="2">
-        <v>45241.56666666667</v>
+        <v>45244.27708333333</v>
       </c>
       <c r="D60" s="2">
-        <v>45241.63611111111</v>
+        <v>45244.43819444445</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>87733</v>
+        <v>87815</v>
       </c>
       <c r="C61" s="2">
-        <v>45241.55555555555</v>
+        <v>45244.20833333334</v>
       </c>
       <c r="D61" s="2">
-        <v>45241.625</v>
+        <v>45244.39652777778</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>87743</v>
+        <v>87818</v>
       </c>
       <c r="C62" s="2">
-        <v>45241.88611111111</v>
+        <v>45244.69444444445</v>
       </c>
       <c r="D62" s="2">
-        <v>45241.95555555556</v>
+        <v>45244.76388888889</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>87792</v>
+        <v>87823</v>
       </c>
       <c r="C63" s="2">
-        <v>45241.74305555555</v>
+        <v>45244.34236111111</v>
       </c>
       <c r="D63" s="2">
-        <v>45241.8125</v>
+        <v>45244.59027777778</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>87794</v>
+        <v>87830</v>
       </c>
       <c r="C64" s="2">
-        <v>45241.89444444444</v>
+        <v>45244.27986111111</v>
       </c>
       <c r="D64" s="2">
-        <v>45241.96388888889</v>
+        <v>45244.54166666666</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1288,13 +1288,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>87827</v>
+        <v>87831</v>
       </c>
       <c r="C65" s="2">
-        <v>45241.34791666667</v>
+        <v>45244.5</v>
       </c>
       <c r="D65" s="2">
-        <v>45241.41736111111</v>
+        <v>45244.79027777778</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1302,13 +1302,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>87831</v>
+        <v>87853</v>
       </c>
       <c r="C66" s="2">
-        <v>45241.39513888889</v>
+        <v>45244.33333333334</v>
       </c>
       <c r="D66" s="2">
-        <v>45241.46458333333</v>
+        <v>45244.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1316,13 +1316,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>87832</v>
+        <v>87854</v>
       </c>
       <c r="C67" s="2">
-        <v>45241.58333333334</v>
+        <v>45244.375</v>
       </c>
       <c r="D67" s="2">
-        <v>45241.86215277778</v>
+        <v>45244.71041666667</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1330,13 +1330,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>87847</v>
+        <v>87873</v>
       </c>
       <c r="C68" s="2">
-        <v>45241.37361111111</v>
+        <v>45244.29166666666</v>
       </c>
       <c r="D68" s="2">
-        <v>45241.44305555556</v>
+        <v>45244.62986111111</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1344,13 +1344,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>87851</v>
+        <v>87874</v>
       </c>
       <c r="C69" s="2">
-        <v>45241.45972222222</v>
+        <v>45244.83333333334</v>
       </c>
       <c r="D69" s="2">
-        <v>45241.52916666667</v>
+        <v>45244.90277777778</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1358,13 +1358,769 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>87998</v>
+        <v>87878</v>
       </c>
       <c r="C70" s="2">
-        <v>45241.83611111111</v>
+        <v>45244.375</v>
       </c>
       <c r="D70" s="2">
-        <v>45241.90555555555</v>
+        <v>45244.70208333333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>87879</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45244.41666666666</v>
+      </c>
+      <c r="D71" s="2">
+        <v>45244.74375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>87880</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45244.45833333334</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45244.78541666667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>87881</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45244.21388888889</v>
+      </c>
+      <c r="D73" s="2">
+        <v>45244.47465277778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>87883</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45244.67569444444</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45244.74513888889</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>87886</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45244.5375</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45244.60694444444</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>87894</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45244.3375</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45245.07916666667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>87895</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45244.33333333334</v>
+      </c>
+      <c r="D77" s="2">
+        <v>45244.40277777778</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>87899</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45244.8375</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45244.90694444445</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>87900</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45244.82916666667</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45244.89861111111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>87903</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45244.44652777778</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45244.75104166667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>87904</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45244.65902777778</v>
+      </c>
+      <c r="D81" s="2">
+        <v>45244.72847222222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>87905</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45244.42916666667</v>
+      </c>
+      <c r="D82" s="2">
+        <v>45244.49861111111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>87909</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45244.54444444444</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45244.61388888889</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>87918</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45244.71388888889</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45244.78333333333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>87920</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45244.53194444445</v>
+      </c>
+      <c r="D85" s="2">
+        <v>45244.60138888889</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>87921</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45244.64166666667</v>
+      </c>
+      <c r="D86" s="2">
+        <v>45244.71111111111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>87926</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45244.44583333333</v>
+      </c>
+      <c r="D87" s="2">
+        <v>45244.51527777778</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>87927</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45244.85972222222</v>
+      </c>
+      <c r="D88" s="2">
+        <v>45244.92916666667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>87929</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45244.46527777778</v>
+      </c>
+      <c r="D89" s="2">
+        <v>45244.53472222222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>87931</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45244.85</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45244.91944444444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>87932</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45244.8625</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45244.93194444444</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>87935</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45244.72013888889</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45244.78958333333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>87940</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45244.54027777778</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45244.60972222222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>87945</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45244.52708333333</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45244.88402777778</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>87946</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45244.86527777778</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45244.93472222222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>87948</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45244.44166666667</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45244.51111111111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>87949</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45244.34305555555</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45244.4125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>87952</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45244.87222222222</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45244.94166666667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>87955</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45244.66319444445</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45244.73263888889</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>87956</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45244.43194444444</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45244.50138888889</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>87957</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45244.63958333333</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45244.70902777778</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>87967</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45244.84166666667</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45244.91111111111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>87968</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45244.70833333334</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45245.04722222222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>87970</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45244.85555555556</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45244.925</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>87973</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45244.36319444444</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45244.71597222222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>87979</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45244.29166666666</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45244.64861111111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>87981</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45244.39583333334</v>
+      </c>
+      <c r="D107" s="2">
+        <v>45244.46527777778</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>87984</v>
+      </c>
+      <c r="C108" s="2">
+        <v>45244.35416666666</v>
+      </c>
+      <c r="D108" s="2">
+        <v>45244.68715277778</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>87987</v>
+      </c>
+      <c r="C109" s="2">
+        <v>45244.6875</v>
+      </c>
+      <c r="D109" s="2">
+        <v>45244.75694444445</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>87988</v>
+      </c>
+      <c r="C110" s="2">
+        <v>45244.66388888889</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45244.73333333333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>87991</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45244.68888888889</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45244.75833333333</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>87994</v>
+      </c>
+      <c r="C112" s="2">
+        <v>45244.33888888889</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45244.40833333333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>87995</v>
+      </c>
+      <c r="C113" s="2">
+        <v>45244.69027777778</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45244.75972222222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>88004</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45244.29097222222</v>
+      </c>
+      <c r="D114" s="2">
+        <v>45244.47916666666</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>88008</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45244.50416666667</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45245.04513888889</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>88019</v>
+      </c>
+      <c r="C116" s="2">
+        <v>45244.26319444444</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45244.49930555555</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>88056</v>
+      </c>
+      <c r="C117" s="2">
+        <v>45244.30902777778</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45244.67152777778</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>88062</v>
+      </c>
+      <c r="C118" s="2">
+        <v>45244.29861111111</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45244.6875</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>88065</v>
+      </c>
+      <c r="C119" s="2">
+        <v>45244.73125</v>
+      </c>
+      <c r="D119" s="2">
+        <v>45244.80069444444</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>88069</v>
+      </c>
+      <c r="C120" s="2">
+        <v>45244.3125</v>
+      </c>
+      <c r="D120" s="2">
+        <v>45244.4375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>88073</v>
+      </c>
+      <c r="C121" s="2">
+        <v>45244.45416666667</v>
+      </c>
+      <c r="D121" s="2">
+        <v>45244.52361111111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>88074</v>
+      </c>
+      <c r="C122" s="2">
+        <v>45244.74305555555</v>
+      </c>
+      <c r="D122" s="2">
+        <v>45244.8125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>88123</v>
+      </c>
+      <c r="C123" s="2">
+        <v>45244.57638888889</v>
+      </c>
+      <c r="D123" s="2">
+        <v>45244.64583333334</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>88125</v>
+      </c>
+      <c r="C124" s="2">
+        <v>45244.85833333333</v>
+      </c>
+      <c r="D124" s="2">
+        <v>45244.92777777778</v>
       </c>
     </row>
   </sheetData>

--- a/static/tmp/planificacion3.xlsx
+++ b/static/tmp/planificacion3.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,13 +406,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>96035</v>
+        <v>94685</v>
       </c>
       <c r="C2" s="2">
-        <v>45390.35972222222</v>
+        <v>45398.29166666666</v>
       </c>
       <c r="D2" s="2">
-        <v>45390.50416666667</v>
+        <v>45398.66755555556</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -420,13 +420,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>96038</v>
+        <v>95309</v>
       </c>
       <c r="C3" s="2">
-        <v>45390.50555555556</v>
+        <v>45398.33333333334</v>
       </c>
       <c r="D3" s="2">
-        <v>45390.65</v>
+        <v>45398.55501388889</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -434,13 +434,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>96039</v>
+        <v>96349</v>
       </c>
       <c r="C4" s="2">
-        <v>45390.35972222222</v>
+        <v>45398.23472222222</v>
       </c>
       <c r="D4" s="2">
-        <v>45390.50416666667</v>
+        <v>45398.52811111111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -448,13 +448,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>96263</v>
+        <v>96665</v>
       </c>
       <c r="C5" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.33472222222</v>
       </c>
       <c r="D5" s="2">
-        <v>45390.40972222222</v>
+        <v>45398.39027777778</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -462,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>96288</v>
+        <v>96666</v>
       </c>
       <c r="C6" s="2">
-        <v>45390.46527777778</v>
+        <v>45398.54722222222</v>
       </c>
       <c r="D6" s="2">
-        <v>45390.88125</v>
+        <v>45398.60277777778</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -476,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>96331</v>
+        <v>96667</v>
       </c>
       <c r="C7" s="2">
-        <v>45390.45138888889</v>
+        <v>45398.55138888889</v>
       </c>
       <c r="D7" s="2">
-        <v>45390.50694444445</v>
+        <v>45398.60694444444</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -490,13 +490,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>96402</v>
+        <v>96697</v>
       </c>
       <c r="C8" s="2">
-        <v>45390.86111111111</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="D8" s="2">
-        <v>45390.91666666666</v>
+        <v>45398.71527777778</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -504,13 +504,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>96488</v>
+        <v>96810</v>
       </c>
       <c r="C9" s="2">
-        <v>45390.52847222222</v>
+        <v>45398.48888888889</v>
       </c>
       <c r="D9" s="2">
-        <v>45390.85051388889</v>
+        <v>45398.76625</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -518,13 +518,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>96545</v>
+        <v>96873</v>
       </c>
       <c r="C10" s="2">
-        <v>45390.27013888889</v>
+        <v>45398.58333333334</v>
       </c>
       <c r="D10" s="2">
-        <v>45390.53844444444</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -532,13 +532,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>96586</v>
+        <v>96882</v>
       </c>
       <c r="C11" s="2">
-        <v>45390.6875</v>
+        <v>45398.26736111111</v>
       </c>
       <c r="D11" s="2">
-        <v>45391.08888888889</v>
+        <v>45398.53705555556</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -546,13 +546,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>96596</v>
+        <v>96957</v>
       </c>
       <c r="C12" s="2">
-        <v>45390.43819444445</v>
+        <v>45398.30277777778</v>
       </c>
       <c r="D12" s="2">
-        <v>45390.8</v>
+        <v>45398.60555555556</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -560,13 +560,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>96621</v>
+        <v>96975</v>
       </c>
       <c r="C13" s="2">
-        <v>45390.38888888889</v>
+        <v>45398.27083333334</v>
       </c>
       <c r="D13" s="2">
-        <v>45390.68333333333</v>
+        <v>45398.63194444445</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -574,13 +574,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>96622</v>
+        <v>97004</v>
       </c>
       <c r="C14" s="2">
-        <v>45390.34722222222</v>
+        <v>45398.43819444445</v>
       </c>
       <c r="D14" s="2">
-        <v>45390.63819444444</v>
+        <v>45398.73958333334</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -588,13 +588,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>96623</v>
+        <v>97007</v>
       </c>
       <c r="C15" s="2">
-        <v>45390.43055555555</v>
+        <v>45398.30277777778</v>
       </c>
       <c r="D15" s="2">
-        <v>45390.72152777778</v>
+        <v>45398.60416666666</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -602,13 +602,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>96634</v>
+        <v>97061</v>
       </c>
       <c r="C16" s="2">
-        <v>45390.54166666666</v>
+        <v>45398.32152777778</v>
       </c>
       <c r="D16" s="2">
-        <v>45390.95833333334</v>
+        <v>45398.62697222222</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -616,13 +616,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>96645</v>
+        <v>97096</v>
       </c>
       <c r="C17" s="2">
-        <v>45390.27152777778</v>
+        <v>45398.27013888889</v>
       </c>
       <c r="D17" s="2">
-        <v>45390.57430555556</v>
+        <v>45398.66758333334</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -630,13 +630,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>96729</v>
+        <v>97097</v>
       </c>
       <c r="C18" s="2">
-        <v>45390.58402777778</v>
+        <v>45398.27083333334</v>
       </c>
       <c r="D18" s="2">
-        <v>45390.88680555556</v>
+        <v>45398.67383333333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -644,13 +644,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>96736</v>
+        <v>97105</v>
       </c>
       <c r="C19" s="2">
-        <v>45390.26875</v>
+        <v>45398.5625</v>
       </c>
       <c r="D19" s="2">
-        <v>45390.61288888889</v>
+        <v>45398.89861111111</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -658,13 +658,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>96737</v>
+        <v>97130</v>
       </c>
       <c r="C20" s="2">
-        <v>45390.26388888889</v>
+        <v>45398.26111111111</v>
       </c>
       <c r="D20" s="2">
-        <v>45390.61636111111</v>
+        <v>45398.58680555555</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -672,13 +672,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>96739</v>
+        <v>97131</v>
       </c>
       <c r="C21" s="2">
-        <v>45390.26388888889</v>
+        <v>45398.34444444445</v>
       </c>
       <c r="D21" s="2">
-        <v>45390.61636111111</v>
+        <v>45398.67013888889</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -686,13 +686,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>96748</v>
+        <v>97139</v>
       </c>
       <c r="C22" s="2">
-        <v>45390.26805555556</v>
+        <v>45398.4375</v>
       </c>
       <c r="D22" s="2">
-        <v>45390.61705555556</v>
+        <v>45398.75277777778</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -700,13 +700,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>96801</v>
+        <v>97146</v>
       </c>
       <c r="C23" s="2">
-        <v>45390.71111111111</v>
+        <v>45398.375</v>
       </c>
       <c r="D23" s="2">
-        <v>45391.0045</v>
+        <v>45398.73991666667</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -714,13 +714,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>96820</v>
+        <v>97149</v>
       </c>
       <c r="C24" s="2">
-        <v>45390.44375</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="D24" s="2">
-        <v>45390.76788888889</v>
+        <v>45398.71908333333</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -728,13 +728,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>96824</v>
+        <v>97150</v>
       </c>
       <c r="C25" s="2">
-        <v>45390.58333333334</v>
+        <v>45398.40416666667</v>
       </c>
       <c r="D25" s="2">
-        <v>45390.96805555555</v>
+        <v>45398.45972222222</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -742,13 +742,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>96828</v>
+        <v>97151</v>
       </c>
       <c r="C26" s="2">
-        <v>45390.31875</v>
+        <v>45398.625</v>
       </c>
       <c r="D26" s="2">
-        <v>45390.64288888889</v>
+        <v>45398.93888888889</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -756,13 +756,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>96870</v>
+        <v>97186</v>
       </c>
       <c r="C27" s="2">
-        <v>45390.56111111111</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="D27" s="2">
-        <v>45390.61666666667</v>
+        <v>45398.50797222222</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -770,13 +770,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>96871</v>
+        <v>97190</v>
       </c>
       <c r="C28" s="2">
-        <v>45390.4125</v>
+        <v>45398.82638888889</v>
       </c>
       <c r="D28" s="2">
-        <v>45390.46805555555</v>
+        <v>45398.88194444445</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -784,13 +784,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>96897</v>
+        <v>97191</v>
       </c>
       <c r="C29" s="2">
-        <v>45390.2875</v>
+        <v>45398.36527777778</v>
       </c>
       <c r="D29" s="2">
-        <v>45390.58518055556</v>
+        <v>45398.42083333333</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -798,13 +798,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>96903</v>
+        <v>97192</v>
       </c>
       <c r="C30" s="2">
-        <v>45390.66388888889</v>
+        <v>45398.70208333333</v>
       </c>
       <c r="D30" s="2">
-        <v>45390.71944444445</v>
+        <v>45398.75763888889</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -812,13 +812,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>96904</v>
+        <v>97193</v>
       </c>
       <c r="C31" s="2">
-        <v>45390.37152777778</v>
+        <v>45398.29097222222</v>
       </c>
       <c r="D31" s="2">
-        <v>45390.71805555555</v>
+        <v>45398.62222222222</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -826,13 +826,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>96905</v>
+        <v>97194</v>
       </c>
       <c r="C32" s="2">
-        <v>45390.70555555556</v>
+        <v>45398.37430555555</v>
       </c>
       <c r="D32" s="2">
-        <v>45390.76111111111</v>
+        <v>45398.70555555556</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -840,13 +840,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>96906</v>
+        <v>97210</v>
       </c>
       <c r="C33" s="2">
-        <v>45390.70277777778</v>
+        <v>45398.37291666667</v>
       </c>
       <c r="D33" s="2">
-        <v>45390.75833333333</v>
+        <v>45398.53194444445</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -854,13 +854,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>96907</v>
+        <v>97212</v>
       </c>
       <c r="C34" s="2">
-        <v>45390.45486111111</v>
+        <v>45398.45625</v>
       </c>
       <c r="D34" s="2">
-        <v>45390.80138888889</v>
+        <v>45398.61527777778</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -868,13 +868,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>96908</v>
+        <v>97213</v>
       </c>
       <c r="C35" s="2">
-        <v>45390.55555555555</v>
+        <v>45398.28958333333</v>
       </c>
       <c r="D35" s="2">
-        <v>45390.61111111111</v>
+        <v>45398.44861111111</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -882,13 +882,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>96909</v>
+        <v>97223</v>
       </c>
       <c r="C36" s="2">
-        <v>45390.28819444445</v>
+        <v>45398.49930555555</v>
       </c>
       <c r="D36" s="2">
-        <v>45390.63472222222</v>
+        <v>45398.79027777778</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -896,13 +896,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>96910</v>
+        <v>97224</v>
       </c>
       <c r="C37" s="2">
-        <v>45390.35069444445</v>
+        <v>45398.54097222222</v>
       </c>
       <c r="D37" s="2">
-        <v>45390.67525</v>
+        <v>45398.83194444444</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -910,13 +910,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>96911</v>
+        <v>97225</v>
       </c>
       <c r="C38" s="2">
-        <v>45390.35972222222</v>
+        <v>45398.36388888889</v>
       </c>
       <c r="D38" s="2">
-        <v>45390.41527777778</v>
+        <v>45398.65486111111</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -924,13 +924,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>96922</v>
+        <v>97226</v>
       </c>
       <c r="C39" s="2">
-        <v>45390.35416666666</v>
+        <v>45398.36805555555</v>
       </c>
       <c r="D39" s="2">
-        <v>45390.40972222222</v>
+        <v>45398.42361111111</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -938,13 +938,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>96924</v>
+        <v>97227</v>
       </c>
       <c r="C40" s="2">
-        <v>45390.71527777778</v>
+        <v>45398.85277777778</v>
       </c>
       <c r="D40" s="2">
-        <v>45390.77083333334</v>
+        <v>45398.90833333333</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -952,13 +952,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>96932</v>
+        <v>97229</v>
       </c>
       <c r="C41" s="2">
-        <v>45390.87777777778</v>
+        <v>45398.43055555555</v>
       </c>
       <c r="D41" s="2">
-        <v>45390.93333333333</v>
+        <v>45398.72152777778</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -966,13 +966,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>96935</v>
+        <v>97230</v>
       </c>
       <c r="C42" s="2">
-        <v>45390.3625</v>
+        <v>45398.36388888889</v>
       </c>
       <c r="D42" s="2">
-        <v>45390.41805555556</v>
+        <v>45398.41944444444</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -980,13 +980,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>96936</v>
+        <v>97231</v>
       </c>
       <c r="C43" s="2">
-        <v>45390.55833333333</v>
+        <v>45398.56666666667</v>
       </c>
       <c r="D43" s="2">
-        <v>45390.61388888889</v>
+        <v>45398.62222222222</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -994,13 +994,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>96948</v>
+        <v>97235</v>
       </c>
       <c r="C44" s="2">
-        <v>45390.31875</v>
+        <v>45398.56527777778</v>
       </c>
       <c r="D44" s="2">
-        <v>45390.60588888889</v>
+        <v>45398.62083333333</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>96949</v>
+        <v>97238</v>
       </c>
       <c r="C45" s="2">
-        <v>45390.29166666666</v>
+        <v>45398.38194444445</v>
       </c>
       <c r="D45" s="2">
-        <v>45390.60241666667</v>
+        <v>45398.4375</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>96950</v>
+        <v>97239</v>
       </c>
       <c r="C46" s="2">
-        <v>45390.29166666666</v>
+        <v>45398.47222222222</v>
       </c>
       <c r="D46" s="2">
-        <v>45390.60241666667</v>
+        <v>45398.76319444444</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>96979</v>
+        <v>97241</v>
       </c>
       <c r="C47" s="2">
-        <v>45390.29166666666</v>
+        <v>45398.83055555556</v>
       </c>
       <c r="D47" s="2">
-        <v>45390.61875</v>
+        <v>45398.88611111111</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>96980</v>
+        <v>97242</v>
       </c>
       <c r="C48" s="2">
-        <v>45390.75416666667</v>
+        <v>45398.29722222222</v>
       </c>
       <c r="D48" s="2">
-        <v>45390.80972222222</v>
+        <v>45398.61705555556</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>96982</v>
+        <v>97243</v>
       </c>
       <c r="C49" s="2">
-        <v>45390.40069444444</v>
+        <v>45398.53472222222</v>
       </c>
       <c r="D49" s="2">
-        <v>45390.45625</v>
+        <v>45398.59027777778</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>96983</v>
+        <v>97245</v>
       </c>
       <c r="C50" s="2">
-        <v>45390.36527777778</v>
+        <v>45398.21666666667</v>
       </c>
       <c r="D50" s="2">
-        <v>45390.42083333333</v>
+        <v>45398.64305555556</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>96988</v>
+        <v>97250</v>
       </c>
       <c r="C51" s="2">
-        <v>45390.35972222222</v>
+        <v>45398.30694444444</v>
       </c>
       <c r="D51" s="2">
-        <v>45390.41527777778</v>
+        <v>45398.62083333333</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>96994</v>
+        <v>97289</v>
       </c>
       <c r="C52" s="2">
-        <v>45390.44722222222</v>
+        <v>45398.75069444445</v>
       </c>
       <c r="D52" s="2">
-        <v>45390.50277777778</v>
+        <v>45398.80625</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>96998</v>
+        <v>97290</v>
       </c>
       <c r="C53" s="2">
-        <v>45390.35138888889</v>
+        <v>45398.56319444445</v>
       </c>
       <c r="D53" s="2">
-        <v>45390.40694444445</v>
+        <v>45398.86597222222</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>97000</v>
+        <v>97293</v>
       </c>
       <c r="C54" s="2">
-        <v>45390.40277777778</v>
+        <v>45398.29166666666</v>
       </c>
       <c r="D54" s="2">
-        <v>45390.45833333334</v>
+        <v>45398.66180555556</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>97002</v>
+        <v>97294</v>
       </c>
       <c r="C55" s="2">
-        <v>45390.42986111111</v>
+        <v>45398.45694444444</v>
       </c>
       <c r="D55" s="2">
-        <v>45390.48541666667</v>
+        <v>45398.97361111111</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>97006</v>
+        <v>97298</v>
       </c>
       <c r="C56" s="2">
-        <v>45390.45694444444</v>
+        <v>45398.45138888889</v>
       </c>
       <c r="D56" s="2">
-        <v>45390.5125</v>
+        <v>45398.50694444445</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>97012</v>
+        <v>97303</v>
       </c>
       <c r="C57" s="2">
-        <v>45390.55972222222</v>
+        <v>45398.55555555555</v>
       </c>
       <c r="D57" s="2">
-        <v>45390.61527777778</v>
+        <v>45398.61111111111</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>97013</v>
+        <v>97305</v>
       </c>
       <c r="C58" s="2">
-        <v>45390.74861111111</v>
+        <v>45398.27083333334</v>
       </c>
       <c r="D58" s="2">
-        <v>45390.80416666667</v>
+        <v>45398.58161111111</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>97014</v>
+        <v>97308</v>
       </c>
       <c r="C59" s="2">
-        <v>45390.35486111111</v>
+        <v>45398.33194444444</v>
       </c>
       <c r="D59" s="2">
-        <v>45390.54166666666</v>
+        <v>45398.67777777778</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>97015</v>
+        <v>97309</v>
       </c>
       <c r="C60" s="2">
-        <v>45390.28680555556</v>
+        <v>45398.56180555555</v>
       </c>
       <c r="D60" s="2">
-        <v>45390.58448611111</v>
+        <v>45398.61736111111</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>97016</v>
+        <v>97317</v>
       </c>
       <c r="C61" s="2">
-        <v>45390.42361111111</v>
+        <v>45398.31944444445</v>
       </c>
       <c r="D61" s="2">
-        <v>45390.47916666666</v>
+        <v>45398.58809722222</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>97018</v>
+        <v>97318</v>
       </c>
       <c r="C62" s="2">
-        <v>45390.43402777778</v>
+        <v>45398.65486111111</v>
       </c>
       <c r="D62" s="2">
-        <v>45390.48958333334</v>
+        <v>45398.96144444445</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>97019</v>
+        <v>97320</v>
       </c>
       <c r="C63" s="2">
-        <v>45390.65833333333</v>
+        <v>45398.30208333334</v>
       </c>
       <c r="D63" s="2">
-        <v>45390.71388888889</v>
+        <v>45398.57013888889</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>97020</v>
+        <v>97327</v>
       </c>
       <c r="C64" s="2">
-        <v>45390.57222222222</v>
+        <v>45398.27083333334</v>
       </c>
       <c r="D64" s="2">
-        <v>45390.62777777778</v>
+        <v>45398.69547222222</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1288,13 +1288,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>97021</v>
+        <v>97328</v>
       </c>
       <c r="C65" s="2">
-        <v>45390.57916666667</v>
+        <v>45398.24305555555</v>
       </c>
       <c r="D65" s="2">
-        <v>45390.63472222222</v>
+        <v>45398.59552777778</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1302,13 +1302,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>97022</v>
+        <v>97330</v>
       </c>
       <c r="C66" s="2">
-        <v>45390.42152777778</v>
+        <v>45398.89722222222</v>
       </c>
       <c r="D66" s="2">
-        <v>45390.47708333333</v>
+        <v>45398.95277777778</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1316,13 +1316,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>97023</v>
+        <v>97331</v>
       </c>
       <c r="C67" s="2">
-        <v>45390.57916666667</v>
+        <v>45398.36388888889</v>
       </c>
       <c r="D67" s="2">
-        <v>45390.63472222222</v>
+        <v>45398.41944444444</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1330,13 +1330,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>97041</v>
+        <v>97335</v>
       </c>
       <c r="C68" s="2">
-        <v>45390.525</v>
+        <v>45398.55833333333</v>
       </c>
       <c r="D68" s="2">
-        <v>45390.63611111111</v>
+        <v>45398.90416666667</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1344,13 +1344,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>97042</v>
+        <v>97336</v>
       </c>
       <c r="C69" s="2">
-        <v>45390.75</v>
+        <v>45398.51666666667</v>
       </c>
       <c r="D69" s="2">
-        <v>45390.80555555555</v>
+        <v>45398.8625</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1358,13 +1358,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>97044</v>
+        <v>97356</v>
       </c>
       <c r="C70" s="2">
-        <v>45390.47916666666</v>
+        <v>45398.88888888889</v>
       </c>
       <c r="D70" s="2">
-        <v>45390.64583333334</v>
+        <v>45398.94444444445</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1372,13 +1372,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>97046</v>
+        <v>97390</v>
       </c>
       <c r="C71" s="2">
-        <v>45390.45416666667</v>
+        <v>45398.54861111111</v>
       </c>
       <c r="D71" s="2">
-        <v>45390.50972222222</v>
+        <v>45398.60416666666</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1386,13 +1386,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>97051</v>
+        <v>97391</v>
       </c>
       <c r="C72" s="2">
-        <v>45390.57083333333</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="D72" s="2">
-        <v>45390.62638888889</v>
+        <v>45398.69154166667</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1400,13 +1400,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>97052</v>
+        <v>97396</v>
       </c>
       <c r="C73" s="2">
-        <v>45390.88888888889</v>
+        <v>45398.72847222222</v>
       </c>
       <c r="D73" s="2">
-        <v>45390.94444444445</v>
+        <v>45398.78402777778</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1414,13 +1414,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>97053</v>
+        <v>97397</v>
       </c>
       <c r="C74" s="2">
-        <v>45390.3375</v>
+        <v>45398.44444444445</v>
       </c>
       <c r="D74" s="2">
-        <v>45390.39305555556</v>
+        <v>45398.5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1428,13 +1428,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>97054</v>
+        <v>97398</v>
       </c>
       <c r="C75" s="2">
-        <v>45390.56944444445</v>
+        <v>45398.57777777778</v>
       </c>
       <c r="D75" s="2">
-        <v>45390.625</v>
+        <v>45398.63333333333</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1442,13 +1442,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>97057</v>
+        <v>97399</v>
       </c>
       <c r="C76" s="2">
-        <v>45390.87013888889</v>
+        <v>45398.54444444444</v>
       </c>
       <c r="D76" s="2">
-        <v>45390.92569444444</v>
+        <v>45398.6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1456,13 +1456,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>97064</v>
+        <v>97406</v>
       </c>
       <c r="C77" s="2">
-        <v>45390.68055555555</v>
+        <v>45398.33333333334</v>
       </c>
       <c r="D77" s="2">
-        <v>45390.73611111111</v>
+        <v>45398.66319444445</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1470,13 +1470,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>97066</v>
+        <v>97418</v>
       </c>
       <c r="C78" s="2">
-        <v>45390.32777777778</v>
+        <v>45398.29166666666</v>
       </c>
       <c r="D78" s="2">
-        <v>45390.38333333333</v>
+        <v>45398.55972222222</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1484,13 +1484,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>97067</v>
+        <v>97423</v>
       </c>
       <c r="C79" s="2">
-        <v>45390.46944444445</v>
+        <v>45398.29166666666</v>
       </c>
       <c r="D79" s="2">
-        <v>45390.525</v>
+        <v>45398.64861111111</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1498,13 +1498,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>97073</v>
+        <v>97438</v>
       </c>
       <c r="C80" s="2">
-        <v>45390.29166666666</v>
+        <v>45398.52777777778</v>
       </c>
       <c r="D80" s="2">
-        <v>45390.73888888889</v>
+        <v>45398.58333333334</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1512,13 +1512,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>97081</v>
+        <v>97439</v>
       </c>
       <c r="C81" s="2">
-        <v>45390.29583333333</v>
+        <v>45398.56944444445</v>
       </c>
       <c r="D81" s="2">
-        <v>45390.40694444445</v>
+        <v>45398.625</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1526,13 +1526,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>97082</v>
+        <v>97440</v>
       </c>
       <c r="C82" s="2">
-        <v>45390.30416666667</v>
+        <v>45398.27708333333</v>
       </c>
       <c r="D82" s="2">
-        <v>45390.41527777778</v>
+        <v>45398.56144444444</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1540,13 +1540,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>97089</v>
+        <v>97468</v>
       </c>
       <c r="C83" s="2">
-        <v>45390.69166666667</v>
+        <v>45398.575</v>
       </c>
       <c r="D83" s="2">
-        <v>45390.74722222222</v>
+        <v>45398.63055555556</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1554,13 +1554,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>97091</v>
+        <v>97469</v>
       </c>
       <c r="C84" s="2">
-        <v>45390.89027777778</v>
+        <v>45398.72777777778</v>
       </c>
       <c r="D84" s="2">
-        <v>45390.94583333333</v>
+        <v>45398.78333333333</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1568,13 +1568,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>97092</v>
+        <v>97474</v>
       </c>
       <c r="C85" s="2">
-        <v>45390.84166666667</v>
+        <v>45398.43402777778</v>
       </c>
       <c r="D85" s="2">
-        <v>45390.89722222222</v>
+        <v>45398.48958333334</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1582,13 +1582,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>97098</v>
+        <v>97479</v>
       </c>
       <c r="C86" s="2">
-        <v>45390.825</v>
+        <v>45398.35416666666</v>
       </c>
       <c r="D86" s="2">
-        <v>45390.88055555556</v>
+        <v>45398.67083333333</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1596,13 +1596,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>97126</v>
+        <v>97480</v>
       </c>
       <c r="C87" s="2">
-        <v>45390.26666666667</v>
+        <v>45398.27083333334</v>
       </c>
       <c r="D87" s="2">
-        <v>45390.63194444445</v>
+        <v>45398.58611111111</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1610,13 +1610,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>97127</v>
+        <v>97490</v>
       </c>
       <c r="C88" s="2">
-        <v>45390.38958333333</v>
+        <v>45398.45833333334</v>
       </c>
       <c r="D88" s="2">
-        <v>45390.44513888889</v>
+        <v>45398.81944444445</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1624,13 +1624,237 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>97128</v>
+        <v>97491</v>
       </c>
       <c r="C89" s="2">
-        <v>45390.35277777778</v>
+        <v>45398.29166666666</v>
       </c>
       <c r="D89" s="2">
-        <v>45390.40833333333</v>
+        <v>45398.65277777778</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>97492</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45398.29166666666</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45398.65277777778</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>97493</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45398.45833333334</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45398.81944444445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>97494</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45398.85555555556</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45398.91111111111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>97495</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45398.38611111111</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45398.44166666667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>97496</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45398.38194444445</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45398.4375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>97497</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45398.86388888889</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45398.91944444444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>97498</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45398.81666666667</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45398.87222222222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>97499</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45398.35138888889</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45398.98402777778</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>97500</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45398.39722222222</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45398.45277777778</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>97501</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45398.40277777778</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45398.45833333334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>97502</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45398.35833333333</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45398.41388888889</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>97503</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45398.35694444444</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45398.4125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>97521</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45398.43055555555</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45398.48611111111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>97560</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45398.5</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45398.61111111111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>97561</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45398.33333333334</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45398.44444444445</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>97562</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45398.40972222222</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45399.03680555556</v>
       </c>
     </row>
   </sheetData>

--- a/static/tmp/planificacion3.xlsx
+++ b/static/tmp/planificacion3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -28,587 +28,722 @@
     <t>DT final</t>
   </si>
   <si>
-    <t>(70736, 0    70736-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(90528, 1    90528-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(98612, 2    98612-p
-3    98612-p
-4    98612-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99136, 5    99136-p
-6    99136-p
-7    99136-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99137, 8     99137-p
-9     99137-p
-10    99137-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99374, 11    99374-p
-12    99374-p
-13    99374-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99379, 14    99379-p
-15    99379-p
-16    99379-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99417, 17    99417-p
-18    99417-p
-19    99417-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99422, 20    99422-p
-21    99422-p
-22    99422-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99473, 23    99473-p
-24    99473-p
-25    99473-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99508, 26    99508-p
-27    99508-p
-28    99508-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99548, 29    99548-p
-30    99548-p
-31    99548-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99659, 32    99659-p
-33    99659-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99660, 34    99660-p
-35    99660-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99663, 36    99663-p
-37    99663-p
-38    99663-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99694, 39    99694-p
-40    99694-p
-41    99694-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99703, 42    99703-p
-43    99703-p
-44    99703-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99707, 45    99707-p
-46    99707-p
-47    99707-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99708, 48    99708-p
-49    99708-p
-50    99708-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99741, 51    99741-p
-52    99741-p
-53    99741-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99742, 54    99742-p
-55    99742-p
-56    99742-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99743, 57    99743-p
-58    99743-p
-59    99743-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99747, 60    99747-p
-61    99747-p
-62    99747-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99749, 63    99749-p
-64    99749-p
-65    99749-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99780, 66    99780-p
-67    99780-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99816, 68    99816-p
-69    99816-p
-70    99816-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99817, 71    99817-p
-72    99817-p
-73    99817-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99841, 74    99841-p
-75    99841-p
-76    99841-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99912, 77    99912-p
-78    99912-p
-79    99912-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99913, 80    99913-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99920, 81    99920-p
-82    99920-p
-83    99920-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99938, 84    99938-p
-85    99938-p
-86    99938-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99941, 87    99941-p
-88    99941-p
-89    99941-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99948, 90    99948-p
-91    99948-p
-92    99948-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99971, 93    99971-p
-94    99971-p
-95    99971-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99985, 96    99985-p
-97    99985-p
-98    99985-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99987, 99     99987-p
-100    99987-p
-101    99987-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100007, 102    100007-p
-103    100007-p
-104    100007-p
-105    100007-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100008, 106    100008-p
-107    100008-p
-108    100008-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100012, 109    100012-p
-110    100012-p
-111    100012-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100033, 112    100033-p
-113    100033-p
-114    100033-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100038, 115    100038-p
-116    100038-p
-117    100038-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100048, 118    100048-p
-119    100048-p
-120    100048-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100056, 122    100056-p
-123    100056-p
-124    100056-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100057, 125    100057-p
-126    100057-p
-127    100057-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100063, 128    100063-p
-129    100063-p
-130    100063-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100065, 131    100065-p
-132    100065-p
-133    100065-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100078, 134    100078-p
-135    100078-p
-136    100078-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100087, 137    100087-p
-138    100087-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100125, 139    100125-p
-140    100125-p
-141    100125-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100128, 142    100128-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100138, 143    100138-p
-144    100138-p
-145    100138-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100144, 146    100144-p
-147    100144-p
-148    100144-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100204, 149    100204-p
-150    100204-p
-151    100204-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100218, 152    100218-p
-153    100218-p
-154    100218-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100219, 155    100219-p
-156    100219-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100220, 157    100220-p
-158    100220-p
-159    100220-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100226, 160    100226-p
-161    100226-p
-162    100226-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100229, 163    100229-p
-164    100229-p
-165    100229-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100234, 166    100234-p
-167    100234-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100236, 168    100236-p
-169    100236-p
-170    100236-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100237, 171    100237-p
-172    100237-p
-173    100237-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100238, 174    100238-p
-175    100238-p
-176    100238-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100239, 177    100239-p
-178    100239-p
-179    100239-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100240, 180    100240-p
-181    100240-p
-182    100240-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100243, 183    100243-r
-184    100243-p
-185    100243-p
-186    100243-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100244, 187    100244-p
-188    100244-p
-189    100244-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100245, 190    100245-p
-191    100245-p
-192    100245-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100262, 193    100262-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100276, 194    100276-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100359, 195    100359-p
-196    100359-p
-197    100359-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100360, 198    100360-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100361, 199    100361-p
-200    100361-p
-201    100361-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100368, 202    100368-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100371, 203    100371-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100372, 204    100372-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100401, 205    100401-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100406, 206    100406-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100409, 207    100409-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100412, 208    100412-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100428, 209    100428-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100430, 210    100430-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100431, 211    100431-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100437, 212    100437-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100438, 213    100438-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100440, 214    100440-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100447, 215    100447-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100449, 216    100449-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100450, 217    100450-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100455, 218    100455-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100456, 219    100456-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100468, 220    100468-p
-221    100468-p
-222    100468-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100471, 223    100471-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100472, 224    100472-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100483, 225    100483-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100490, 226    100490-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100494, 227    100494-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100500, 228    100500-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100503, 229    100503-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100504, 230    100504-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100507, 231    100507-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100513, 232    100513-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100532, 233    100532-p
-234    100532-p
-235    100532-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100537, 236    100537-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100547, 237    100547-p
-238    100547-p
-239    100547-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100549, 240    100549-p
-241    100549-p
-242    100549-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100550, 243    100550-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100551, 244    100551-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100602, 245    100602-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100603, 246    100603-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100734, 247    100734-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100735, 248    100735-r
+    <t>(90528, 0    90528-p
+1    90528-p
+2    90528-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(97713, 3    97713-p
+4    97713-p
+5    97713-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99087, 6    99087-p
+7    99087-p
+8    99087-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99088, 9     99088-p
+10    99088-p
+11    99088-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99089, 12    99089-p
+13    99089-p
+14    99089-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99141, 15    99141-p
+16    99141-p
+17    99141-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99143, 18    99143-p
+19    99143-p
+20    99143-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99698, 21    99698-p
+22    99698-p
+23    99698-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99700, 24    99700-p
+25    99700-p
+26    99700-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99702, 27    99702-p
+28    99702-p
+29    99702-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99706, 30    99706-p
+31    99706-p
+32    99706-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99711, 33    99711-p
+34    99711-p
+35    99711-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99713, 36    99713-p
+37    99713-p
+38    99713-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99751, 39    99751-p
+40    99751-p
+41    99751-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99756, 42    99756-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99803, 43    99803-p
+44    99803-p
+45    99803-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99824, 46    99824-p
+47    99824-p
+48    99824-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99854, 49    99854-p
+50    99854-p
+51    99854-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99907, 52    99907-p
+53    99907-p
+54    99907-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99944, 55    99944-p
+56    99944-p
+57    99944-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99945, 58    99945-p
+59    99945-p
+60    99945-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99965, 61    99965-p
+62    99965-p
+63    99965-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99968, 64    99968-p
+65    99968-p
+66    99968-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99973, 67    99973-p
+68    99973-p
+69    99973-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99997, 70    99997-p
+71    99997-p
+72    99997-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100006, 73    100006-p
+74    100006-p
+75    100006-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100019, 76    100019-p
+77    100019-p
+78    100019-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100035, 79    100035-p
+80    100035-p
+81    100035-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100043, 82    100043-p
+83    100043-p
+84    100043-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100058, 85    100058-p
+86    100058-p
+87    100058-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100069, 88    100069-p
+89    100069-p
+90    100069-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100070, 91    100070-p
+92    100070-p
+93    100070-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100074, 94    100074-p
+95    100074-p
+96    100074-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100077, 97    100077-p
+98    100077-p
+99    100077-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100092, 100    100092-p
+101    100092-p
+102    100092-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100134, 103    100134-p
+104    100134-p
+105    100134-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100142, 106    100142-p
+107    100142-p
+108    100142-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100261, 109    100261-p
+110    100261-p
+111    100261-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100262, 112    100262-p
+113    100262-p
+114    100262-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100263, 115    100263-p
+116    100263-p
+117    100263-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100264, 118    100264-p
+119    100264-p
+120    100264-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100284, 121    100284-p
+122    100284-p
+123    100284-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100289, 124    100289-p
+125    100289-p
+126    100289-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100326, 127    100326-p
+128    100326-p
+129    100326-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100327, 130    100327-p
+131    100327-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100331, 132    100331-p
+133    100331-p
+134    100331-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100335, 135    100335-p
+136    100335-p
+137    100335-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100341, 138    100341-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100362, 139    100362-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100363, 140    100363-p
+141    100363-p
+142    100363-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100364, 143    100364-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100373, 144    100373-p
+145    100373-p
+146    100373-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100379, 147    100379-p
+148    100379-p
+149    100379-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100382, 150    100382-p
+151    100382-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100386, 152    100386-p
+153    100386-p
+154    100386-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100388, 155    100388-p
+156    100388-p
+157    100388-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100402, 158    100402-p
+159    100402-p
+160    100402-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100417, 161    100417-p
+162    100417-p
+163    100417-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100421, 164    100421-p
+165    100421-p
+166    100421-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100434, 167    100434-p
+168    100434-p
+169    100434-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100442, 170    100442-p
+171    100442-p
+172    100442-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100444, 173    100444-p
+174    100444-p
+175    100444-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100465, 176    100465-p
+177    100465-p
+178    100465-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100477, 179    100477-p
+180    100477-p
+181    100477-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100479, 182    100479-p
+183    100479-p
+184    100479-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100490, 185    100490-p
+186    100490-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100496, 187    100496-p
+188    100496-p
+189    100496-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100511, 190    100511-p
+191    100511-p
+192    100511-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100530, 193    100530-p
+194    100530-p
+195    100530-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100540, 196    100540-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100553, 197    100553-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100554, 198    100554-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100556, 199    100556-p
+200    100556-p
+201    100556-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100590, 202    100590-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100603, 203    100603-p
+204    100603-p
+205    100603-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100604, 206    100604-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100610, 207    100610-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100611, 208    100611-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100612, 209    100612-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100613, 210    100613-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100614, 211    100614-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100615, 212    100615-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100616, 213    100616-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100617, 214    100617-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100631, 306    100631-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100636, 215    100636-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100640, 300    100640-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100642, 216    100642-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100650, 217    100650-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100651, 218    100651-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100653, 219    100653-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100654, 220    100654-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100656, 221    100656-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100658, 222    100658-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100660, 223    100660-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100661, 316    100661-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100663, 224    100663-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100667, 225    100667-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100669, 226    100669-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100672, 227    100672-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100673, 228    100673-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100674, 229    100674-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100678, 230    100678-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100680, 231    100680-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100681, 232    100681-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100682, 233    100682-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100684, 234    100684-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100685, 235    100685-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100686, 236    100686-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100689, 237    100689-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100690, 238    100690-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100695, 239    100695-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100696, 240    100696-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100702, 241    100702-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100703, 323    100703-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100706, 242    100706-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100707, 243    100707-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100710, 244    100710-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100728, 245    100728-p
+246    100728-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100729, 247    100729-p
+248    100729-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100734, 249    100734-p
+250    100734-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100736, 251    100736-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100738, 252    100738-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100739, 253    100739-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100766, 254    100766-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100767, 255    100767-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100768, 256    100768-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100770, 257    100770-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100771, 258    100771-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100772, 259    100772-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100773, 260    100773-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100774, 261    100774-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100775, 262    100775-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100778, 263    100778-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100782, 264    100782-r
+334    100782-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100794, 265    100794-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100795, 266    100795-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100796, 267    100796-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100797, 268    100797-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100801, 269    100801-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100802, 270    100802-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100803, 271    100803-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100804, 272    100804-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100805, 273    100805-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100807, 281    100807-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100821, 274    100821-r
 Name: id_modelo, dtype: object)</t>
   </si>
 </sst>
@@ -971,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,16 +1131,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>70736</v>
+        <v>90528</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>45446.5625</v>
+        <v>45448.41666666666</v>
       </c>
       <c r="E2" s="2">
-        <v>45446.61805555555</v>
+        <v>45448.77777777778</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1013,16 +1148,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>90528</v>
+        <v>97713</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>45446.5625</v>
+        <v>45448.41666666666</v>
       </c>
       <c r="E3" s="2">
-        <v>45446.61805555555</v>
+        <v>45448.74183333333</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1030,16 +1165,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>98612</v>
+        <v>99087</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>45446.55069444444</v>
+        <v>45448.29166666666</v>
       </c>
       <c r="E4" s="2">
-        <v>45446.80872222222</v>
+        <v>45448.61683333333</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1047,16 +1182,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>99136</v>
+        <v>99088</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>45446.34236111111</v>
+        <v>45448.33333333334</v>
       </c>
       <c r="E5" s="2">
-        <v>45446.60038888889</v>
+        <v>45448.6585</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1064,16 +1199,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>99137</v>
+        <v>99089</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>45446.40486111111</v>
+        <v>45448.375</v>
       </c>
       <c r="E6" s="2">
-        <v>45446.66288888889</v>
+        <v>45448.70016666667</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1081,16 +1216,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>99374</v>
+        <v>99141</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>45446.25</v>
+        <v>45448.31111111111</v>
       </c>
       <c r="E7" s="2">
-        <v>45446.57222222222</v>
+        <v>45448.56913888889</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1098,16 +1233,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>99379</v>
+        <v>99143</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>45446.375</v>
+        <v>45448.34236111111</v>
       </c>
       <c r="E8" s="2">
-        <v>45446.69722222222</v>
+        <v>45448.60038888889</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1115,16 +1250,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>99417</v>
+        <v>99698</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>45446.30277777778</v>
+        <v>45448.45694444444</v>
       </c>
       <c r="E9" s="2">
-        <v>45446.60416666666</v>
+        <v>45448.71497222222</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1132,16 +1267,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>99422</v>
+        <v>99700</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2">
-        <v>45446.43819444445</v>
+        <v>45448.61319444444</v>
       </c>
       <c r="E10" s="2">
-        <v>45446.74375</v>
+        <v>45448.87122222222</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1149,16 +1284,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>99473</v>
+        <v>99702</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>45446.29166666666</v>
+        <v>45448.58194444444</v>
       </c>
       <c r="E11" s="2">
-        <v>45446.55555555555</v>
+        <v>45448.83997222222</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1166,16 +1301,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>99508</v>
+        <v>99706</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2">
-        <v>45446.68541666667</v>
+        <v>45448.42569444444</v>
       </c>
       <c r="E12" s="2">
-        <v>45447.02777777778</v>
+        <v>45448.68372222222</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1183,16 +1318,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>99548</v>
+        <v>99711</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2">
-        <v>45446.5</v>
+        <v>45448.55069444444</v>
       </c>
       <c r="E13" s="2">
-        <v>45446.82777777778</v>
+        <v>45448.80872222222</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1200,16 +1335,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>99659</v>
+        <v>99713</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="2">
-        <v>45446.40208333333</v>
+        <v>45448.27986111111</v>
       </c>
       <c r="E14" s="2">
-        <v>45446.56630555556</v>
+        <v>45448.53788888889</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1217,16 +1352,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>99660</v>
+        <v>99751</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2">
-        <v>45446.31875</v>
+        <v>45448.5</v>
       </c>
       <c r="E15" s="2">
-        <v>45446.48297222222</v>
+        <v>45448.86111111111</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1234,16 +1369,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>99663</v>
+        <v>99756</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2">
-        <v>45446.27708333333</v>
+        <v>45448.52708333333</v>
       </c>
       <c r="E16" s="2">
-        <v>45446.55936111111</v>
+        <v>45448.58263888889</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1251,16 +1386,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>99694</v>
+        <v>99803</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="2">
-        <v>45446.27986111111</v>
+        <v>45448.32013888889</v>
       </c>
       <c r="E17" s="2">
-        <v>45446.53788888889</v>
+        <v>45448.55138888889</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1268,16 +1403,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>99703</v>
+        <v>99824</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2">
-        <v>45446.58194444444</v>
+        <v>45448.32152777778</v>
       </c>
       <c r="E18" s="2">
-        <v>45446.83997222222</v>
+        <v>45448.57488888889</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1285,16 +1420,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99707</v>
+        <v>99854</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="2">
-        <v>45446.61319444444</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="E19" s="2">
-        <v>45446.87122222222</v>
+        <v>45448.975</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1302,16 +1437,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>99708</v>
+        <v>99907</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2">
-        <v>45446.45694444444</v>
+        <v>45448.6875</v>
       </c>
       <c r="E20" s="2">
-        <v>45446.71497222222</v>
+        <v>45448.98631944445</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1319,16 +1454,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>99741</v>
+        <v>99944</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="2">
-        <v>45446.26736111111</v>
+        <v>45448.61736111111</v>
       </c>
       <c r="E21" s="2">
-        <v>45446.53497222222</v>
+        <v>45448.91180555556</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1336,16 +1471,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>99742</v>
+        <v>99945</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="2">
-        <v>45446.55902777778</v>
+        <v>45448.54166666666</v>
       </c>
       <c r="E22" s="2">
-        <v>45446.82663888889</v>
+        <v>45448.87777777778</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1353,16 +1488,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>99743</v>
+        <v>99965</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="2">
-        <v>45446.32986111111</v>
+        <v>45448.31041666667</v>
       </c>
       <c r="E23" s="2">
-        <v>45446.59747222222</v>
+        <v>45448.54722222222</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1370,16 +1505,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>99747</v>
+        <v>99968</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="2">
-        <v>45446.39236111111</v>
+        <v>45448.47708333333</v>
       </c>
       <c r="E24" s="2">
-        <v>45446.65997222222</v>
+        <v>45448.71388888889</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1387,16 +1522,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>99749</v>
+        <v>99973</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="2">
-        <v>45446.49652777778</v>
+        <v>45448.625</v>
       </c>
       <c r="E25" s="2">
-        <v>45446.76413888889</v>
+        <v>45448.9625</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1404,16 +1539,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>99780</v>
+        <v>99997</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="2">
-        <v>45446.29930555556</v>
+        <v>45448.69722222222</v>
       </c>
       <c r="E26" s="2">
-        <v>45446.4125</v>
+        <v>45448.96865277778</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1421,16 +1556,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>99816</v>
+        <v>100006</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="2">
-        <v>45446.41319444445</v>
+        <v>45448.47569444445</v>
       </c>
       <c r="E27" s="2">
-        <v>45446.74722222222</v>
+        <v>45448.80972222222</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1438,16 +1573,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>99817</v>
+        <v>100019</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="2">
-        <v>45446.41319444445</v>
+        <v>45448.5625</v>
       </c>
       <c r="E28" s="2">
-        <v>45446.74722222222</v>
+        <v>45448.90008333333</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1455,16 +1590,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>99841</v>
+        <v>100035</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="2">
-        <v>45446.32152777778</v>
+        <v>45448.66666666666</v>
       </c>
       <c r="E29" s="2">
-        <v>45446.57488888889</v>
+        <v>45449.08333333334</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1472,16 +1607,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>99912</v>
+        <v>100043</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="2">
-        <v>45446.34027777778</v>
+        <v>45448.675</v>
       </c>
       <c r="E30" s="2">
-        <v>45446.61170833333</v>
+        <v>45448.98858333333</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1489,16 +1624,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>99913</v>
+        <v>100058</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="2">
-        <v>45446.45138888889</v>
+        <v>45448.27083333334</v>
       </c>
       <c r="E31" s="2">
-        <v>45446.50694444445</v>
+        <v>45448.6875</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1506,16 +1641,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>99920</v>
+        <v>100069</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="2">
-        <v>45446.54166666666</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="E32" s="2">
-        <v>45446.87847222222</v>
+        <v>45448.75138888889</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1523,16 +1658,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>99938</v>
+        <v>100070</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="2">
-        <v>45446.31319444445</v>
+        <v>45448.1875</v>
       </c>
       <c r="E33" s="2">
-        <v>45446.55277777778</v>
+        <v>45448.520875</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1540,16 +1675,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>99941</v>
+        <v>100074</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="2">
-        <v>45446.57222222222</v>
+        <v>45448.6875</v>
       </c>
       <c r="E34" s="2">
-        <v>45446.87569444445</v>
+        <v>45449.06386111111</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1557,16 +1692,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>99948</v>
+        <v>100077</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="2">
-        <v>45446.31944444445</v>
+        <v>45448.25</v>
       </c>
       <c r="E35" s="2">
-        <v>45446.58948611111</v>
+        <v>45448.60094444444</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1574,16 +1709,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>99971</v>
+        <v>100092</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="2">
-        <v>45446.5</v>
+        <v>45448.69166666667</v>
       </c>
       <c r="E36" s="2">
-        <v>45446.83680555555</v>
+        <v>45448.93997222222</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1591,16 +1726,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>99985</v>
+        <v>100134</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.30277777778</v>
       </c>
       <c r="E37" s="2">
-        <v>45446.88263888889</v>
+        <v>45448.60416666666</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1608,16 +1743,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>99987</v>
+        <v>100142</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="2">
-        <v>45446.32986111111</v>
+        <v>45448.44861111111</v>
       </c>
       <c r="E38" s="2">
-        <v>45446.64583333334</v>
+        <v>45448.72880555555</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1625,16 +1760,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>100007</v>
+        <v>100261</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
       </c>
       <c r="D39" s="2">
-        <v>45446.49652777778</v>
+        <v>45448.33263888889</v>
       </c>
       <c r="E39" s="2">
-        <v>45446.83055555556</v>
+        <v>45448.62361111111</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1642,16 +1777,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>100008</v>
+        <v>100262</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="2">
-        <v>45446.28819444445</v>
+        <v>45448.41597222222</v>
       </c>
       <c r="E40" s="2">
-        <v>45446.62222222222</v>
+        <v>45448.70694444444</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1659,16 +1794,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>100012</v>
+        <v>100263</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="2">
-        <v>45446.28819444445</v>
+        <v>45448.37430555555</v>
       </c>
       <c r="E41" s="2">
-        <v>45446.62222222222</v>
+        <v>45448.66527777778</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1676,16 +1811,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>100033</v>
+        <v>100264</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="2">
-        <v>45446.6875</v>
+        <v>45448.29097222222</v>
       </c>
       <c r="E42" s="2">
-        <v>45447.03952777778</v>
+        <v>45448.58194444444</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1693,16 +1828,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>100038</v>
+        <v>100284</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
       </c>
       <c r="D43" s="2">
-        <v>45446.29166666666</v>
+        <v>45448.41666666666</v>
       </c>
       <c r="E43" s="2">
-        <v>45446.60452777778</v>
+        <v>45448.80277777778</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1710,16 +1845,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>100048</v>
+        <v>100289</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="2">
-        <v>45446.375</v>
+        <v>45448.27083333334</v>
       </c>
       <c r="E44" s="2">
-        <v>45446.68420833333</v>
+        <v>45448.65694444445</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1727,16 +1862,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>100056</v>
+        <v>100326</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="2">
-        <v>45446.4375</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="E45" s="2">
-        <v>45446.85416666666</v>
+        <v>45448.74027777778</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1744,16 +1879,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>100057</v>
+        <v>100327</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="2">
-        <v>45446.27083333334</v>
+        <v>45448.27708333333</v>
       </c>
       <c r="E46" s="2">
-        <v>45446.6875</v>
+        <v>45448.44130555556</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1761,16 +1896,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>100063</v>
+        <v>100331</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="2">
-        <v>45446.41666666666</v>
+        <v>45448.40208333333</v>
       </c>
       <c r="E47" s="2">
-        <v>45446.80069444444</v>
+        <v>45448.68783333333</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1778,16 +1913,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>100065</v>
+        <v>100335</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
       </c>
       <c r="D48" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.31875</v>
       </c>
       <c r="E48" s="2">
-        <v>45446.64619444445</v>
+        <v>45448.6045</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1795,16 +1930,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>100078</v>
+        <v>100341</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
       </c>
       <c r="D49" s="2">
-        <v>45446.70833333334</v>
+        <v>45448.55555555555</v>
       </c>
       <c r="E49" s="2">
-        <v>45447.125</v>
+        <v>45448.61111111111</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1812,16 +1947,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>100087</v>
+        <v>100362</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
       </c>
       <c r="D50" s="2">
-        <v>45446.59652777778</v>
+        <v>45448.89583333334</v>
       </c>
       <c r="E50" s="2">
-        <v>45446.72158333333</v>
+        <v>45448.95138888889</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1829,16 +1964,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>100125</v>
+        <v>100363</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
       </c>
       <c r="D51" s="2">
-        <v>45446.30277777778</v>
+        <v>45448.26388888889</v>
       </c>
       <c r="E51" s="2">
-        <v>45446.64791666667</v>
+        <v>45448.61636111111</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1846,16 +1981,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>100128</v>
+        <v>100364</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
       </c>
       <c r="D52" s="2">
-        <v>45446.75277777778</v>
+        <v>45448.64236111111</v>
       </c>
       <c r="E52" s="2">
-        <v>45446.80833333333</v>
+        <v>45448.69791666666</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1863,16 +1998,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>100138</v>
+        <v>100373</v>
       </c>
       <c r="C53" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.27083333334</v>
       </c>
       <c r="E53" s="2">
-        <v>45446.79097222222</v>
+        <v>45448.61202777778</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1880,16 +2015,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>100144</v>
+        <v>100379</v>
       </c>
       <c r="C54" t="s">
         <v>56</v>
       </c>
       <c r="D54" s="2">
-        <v>45446.38611111111</v>
+        <v>45448.29166666666</v>
       </c>
       <c r="E54" s="2">
-        <v>45446.66630555555</v>
+        <v>45448.67430555556</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1897,16 +2032,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>100204</v>
+        <v>100382</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
       </c>
       <c r="D55" s="2">
-        <v>45446.30277777778</v>
+        <v>45448.29166666666</v>
       </c>
       <c r="E55" s="2">
-        <v>45446.56597222222</v>
+        <v>45448.48297222222</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1914,16 +2049,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>100218</v>
+        <v>100386</v>
       </c>
       <c r="C56" t="s">
         <v>58</v>
       </c>
       <c r="D56" s="2">
-        <v>45446.42777777778</v>
+        <v>45448.375</v>
       </c>
       <c r="E56" s="2">
-        <v>45446.69097222222</v>
+        <v>45448.70486111111</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1931,16 +2066,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>100219</v>
+        <v>100388</v>
       </c>
       <c r="C57" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="2">
-        <v>45446.42777777778</v>
+        <v>45448.29166666666</v>
       </c>
       <c r="E57" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.62152777778</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1948,16 +2083,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>100220</v>
+        <v>100402</v>
       </c>
       <c r="C58" t="s">
         <v>60</v>
       </c>
       <c r="D58" s="2">
-        <v>45446.55277777778</v>
+        <v>45448.64583333334</v>
       </c>
       <c r="E58" s="2">
-        <v>45446.81597222222</v>
+        <v>45449.0625</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1965,16 +2100,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>100226</v>
+        <v>100417</v>
       </c>
       <c r="C59" t="s">
         <v>61</v>
       </c>
       <c r="D59" s="2">
-        <v>45446.30277777778</v>
+        <v>45448.54861111111</v>
       </c>
       <c r="E59" s="2">
-        <v>45446.56597222222</v>
+        <v>45448.89691666666</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1982,16 +2117,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>100229</v>
+        <v>100421</v>
       </c>
       <c r="C60" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="2">
-        <v>45446.30277777778</v>
+        <v>45448.69930555556</v>
       </c>
       <c r="E60" s="2">
-        <v>45446.56597222222</v>
+        <v>45449.02897222222</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1999,16 +2134,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>100234</v>
+        <v>100434</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="2">
-        <v>45446.55277777778</v>
+        <v>45448.52083333334</v>
       </c>
       <c r="E61" s="2">
-        <v>45446.70833333334</v>
+        <v>45448.9375</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2016,16 +2151,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>100236</v>
+        <v>100442</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
       </c>
       <c r="D62" s="2">
-        <v>45446.42777777778</v>
+        <v>45448.61180555556</v>
       </c>
       <c r="E62" s="2">
-        <v>45446.69097222222</v>
+        <v>45448.95233333333</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2033,16 +2168,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>100237</v>
+        <v>100444</v>
       </c>
       <c r="C63" t="s">
         <v>65</v>
       </c>
       <c r="D63" s="2">
-        <v>45446.42777777778</v>
+        <v>45448.7375</v>
       </c>
       <c r="E63" s="2">
-        <v>45446.69097222222</v>
+        <v>45449.05140277778</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2050,16 +2185,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>100238</v>
+        <v>100465</v>
       </c>
       <c r="C64" t="s">
         <v>66</v>
       </c>
       <c r="D64" s="2">
-        <v>45446.42777777778</v>
+        <v>45448.69236111111</v>
       </c>
       <c r="E64" s="2">
-        <v>45446.69097222222</v>
+        <v>45449.08333333334</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2067,16 +2202,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>100239</v>
+        <v>100477</v>
       </c>
       <c r="C65" t="s">
         <v>67</v>
       </c>
       <c r="D65" s="2">
-        <v>45446.30277777778</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="E65" s="2">
-        <v>45446.56597222222</v>
+        <v>45449.02152777778</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2084,16 +2219,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>100240</v>
+        <v>100479</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
       </c>
       <c r="D66" s="2">
-        <v>45446.30277777778</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="E66" s="2">
-        <v>45446.56597222222</v>
+        <v>45449.17876388889</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2101,16 +2236,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>100243</v>
+        <v>100490</v>
       </c>
       <c r="C67" t="s">
         <v>69</v>
       </c>
       <c r="D67" s="2">
-        <v>45446.30555555555</v>
+        <v>45448.61597222222</v>
       </c>
       <c r="E67" s="2">
-        <v>45446.81597222222</v>
+        <v>45448.75833333333</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2118,16 +2253,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>100244</v>
+        <v>100496</v>
       </c>
       <c r="C68" t="s">
         <v>70</v>
       </c>
       <c r="D68" s="2">
-        <v>45446.55277777778</v>
+        <v>45448.39583333334</v>
       </c>
       <c r="E68" s="2">
-        <v>45446.81597222222</v>
+        <v>45448.72361111111</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2135,16 +2270,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>100245</v>
+        <v>100511</v>
       </c>
       <c r="C69" t="s">
         <v>71</v>
       </c>
       <c r="D69" s="2">
-        <v>45446.55277777778</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="E69" s="2">
-        <v>45446.81597222222</v>
+        <v>45449.07955555555</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2152,16 +2287,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>100262</v>
+        <v>100530</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
       </c>
       <c r="D70" s="2">
-        <v>45446.39166666667</v>
+        <v>45448.20833333334</v>
       </c>
       <c r="E70" s="2">
-        <v>45446.44722222222</v>
+        <v>45448.53611111111</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2169,16 +2304,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>100276</v>
+        <v>100540</v>
       </c>
       <c r="C71" t="s">
         <v>73</v>
       </c>
       <c r="D71" s="2">
-        <v>45446.39861111111</v>
+        <v>45448.41944444444</v>
       </c>
       <c r="E71" s="2">
-        <v>45446.45416666667</v>
+        <v>45448.475</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2186,16 +2321,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>100359</v>
+        <v>100553</v>
       </c>
       <c r="C72" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="2">
-        <v>45446.29166666666</v>
+        <v>45448.69583333333</v>
       </c>
       <c r="E72" s="2">
-        <v>45446.55972222222</v>
+        <v>45448.75138888889</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2203,16 +2338,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>100360</v>
+        <v>100554</v>
       </c>
       <c r="C73" t="s">
         <v>75</v>
       </c>
       <c r="D73" s="2">
-        <v>45446.66666666666</v>
+        <v>45448.8375</v>
       </c>
       <c r="E73" s="2">
-        <v>45446.72222222222</v>
+        <v>45448.89305555556</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2220,16 +2355,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>100361</v>
+        <v>100556</v>
       </c>
       <c r="C74" t="s">
         <v>76</v>
       </c>
       <c r="D74" s="2">
-        <v>45446.26805555556</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="E74" s="2">
-        <v>45446.61219444445</v>
+        <v>45448.66491666667</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2237,16 +2372,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>100368</v>
+        <v>100590</v>
       </c>
       <c r="C75" t="s">
         <v>77</v>
       </c>
       <c r="D75" s="2">
-        <v>45446.7125</v>
+        <v>45448.75833333333</v>
       </c>
       <c r="E75" s="2">
-        <v>45446.76805555556</v>
+        <v>45448.81388888889</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2254,16 +2389,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>100371</v>
+        <v>100603</v>
       </c>
       <c r="C76" t="s">
         <v>78</v>
       </c>
       <c r="D76" s="2">
-        <v>45446.39444444444</v>
+        <v>45448.29583333333</v>
       </c>
       <c r="E76" s="2">
-        <v>45446.45</v>
+        <v>45448.63263888889</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2271,16 +2406,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>100372</v>
+        <v>100604</v>
       </c>
       <c r="C77" t="s">
         <v>79</v>
       </c>
       <c r="D77" s="2">
-        <v>45446.34722222222</v>
+        <v>45448.46944444445</v>
       </c>
       <c r="E77" s="2">
-        <v>45446.40277777778</v>
+        <v>45448.525</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2288,16 +2423,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>100401</v>
+        <v>100610</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
       </c>
       <c r="D78" s="2">
-        <v>45446.63888888889</v>
+        <v>45448.41527777778</v>
       </c>
       <c r="E78" s="2">
-        <v>45446.69444444445</v>
+        <v>45448.47083333333</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2305,16 +2440,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>100406</v>
+        <v>100611</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
       </c>
       <c r="D79" s="2">
-        <v>45446.87222222222</v>
+        <v>45448.43611111111</v>
       </c>
       <c r="E79" s="2">
-        <v>45446.92777777778</v>
+        <v>45448.49166666667</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2322,16 +2457,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>100409</v>
+        <v>100612</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
       </c>
       <c r="D80" s="2">
-        <v>45446.65138888889</v>
+        <v>45448.41388888889</v>
       </c>
       <c r="E80" s="2">
-        <v>45446.70694444444</v>
+        <v>45448.46944444445</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2339,16 +2474,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>100412</v>
+        <v>100613</v>
       </c>
       <c r="C81" t="s">
         <v>83</v>
       </c>
       <c r="D81" s="2">
-        <v>45446.72638888889</v>
+        <v>45448.54722222222</v>
       </c>
       <c r="E81" s="2">
-        <v>45446.78194444445</v>
+        <v>45448.60277777778</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2356,16 +2491,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>100428</v>
+        <v>100614</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
       </c>
       <c r="D82" s="2">
-        <v>45446.71527777778</v>
+        <v>45448.32916666667</v>
       </c>
       <c r="E82" s="2">
-        <v>45446.77083333334</v>
+        <v>45448.38472222222</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2373,16 +2508,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>100430</v>
+        <v>100615</v>
       </c>
       <c r="C83" t="s">
         <v>85</v>
       </c>
       <c r="D83" s="2">
-        <v>45446.38333333333</v>
+        <v>45448.52708333333</v>
       </c>
       <c r="E83" s="2">
-        <v>45446.43888888889</v>
+        <v>45448.58263888889</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2390,16 +2525,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>100431</v>
+        <v>100616</v>
       </c>
       <c r="C84" t="s">
         <v>86</v>
       </c>
       <c r="D84" s="2">
-        <v>45446.55972222222</v>
+        <v>45448.41111111111</v>
       </c>
       <c r="E84" s="2">
-        <v>45446.61527777778</v>
+        <v>45448.46666666667</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2407,16 +2542,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>100437</v>
+        <v>100617</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
       </c>
       <c r="D85" s="2">
-        <v>45446.44652777778</v>
+        <v>45448.34236111111</v>
       </c>
       <c r="E85" s="2">
-        <v>45446.50208333333</v>
+        <v>45448.39791666667</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2424,16 +2559,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>100438</v>
+        <v>100636</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
       </c>
       <c r="D86" s="2">
-        <v>45446.69305555556</v>
+        <v>45448.55694444444</v>
       </c>
       <c r="E86" s="2">
-        <v>45446.74861111111</v>
+        <v>45448.6125</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2441,16 +2576,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>100440</v>
+        <v>100642</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
       </c>
       <c r="D87" s="2">
-        <v>45446.65555555555</v>
+        <v>45448.55486111111</v>
       </c>
       <c r="E87" s="2">
-        <v>45446.71111111111</v>
+        <v>45448.61041666667</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2458,16 +2593,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>100447</v>
+        <v>100650</v>
       </c>
       <c r="C88" t="s">
         <v>90</v>
       </c>
       <c r="D88" s="2">
-        <v>45446.40972222222</v>
+        <v>45448.16875</v>
       </c>
       <c r="E88" s="2">
-        <v>45446.46527777778</v>
+        <v>45448.22430555556</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2475,16 +2610,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>100449</v>
+        <v>100651</v>
       </c>
       <c r="C89" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="2">
-        <v>45446.73472222222</v>
+        <v>45448.53680555556</v>
       </c>
       <c r="E89" s="2">
-        <v>45446.79027777778</v>
+        <v>45448.59236111111</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2492,16 +2627,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>100450</v>
+        <v>100653</v>
       </c>
       <c r="C90" t="s">
         <v>92</v>
       </c>
       <c r="D90" s="2">
-        <v>45446.54305555556</v>
+        <v>45448.44861111111</v>
       </c>
       <c r="E90" s="2">
-        <v>45446.59861111111</v>
+        <v>45448.50416666667</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2509,16 +2644,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>100455</v>
+        <v>100654</v>
       </c>
       <c r="C91" t="s">
         <v>93</v>
       </c>
       <c r="D91" s="2">
-        <v>45446.70555555556</v>
+        <v>45448.57361111111</v>
       </c>
       <c r="E91" s="2">
-        <v>45446.76111111111</v>
+        <v>45448.62916666667</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2526,16 +2661,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>100456</v>
+        <v>100656</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
       </c>
       <c r="D92" s="2">
-        <v>45446.65</v>
+        <v>45448.51527777778</v>
       </c>
       <c r="E92" s="2">
-        <v>45446.70555555556</v>
+        <v>45448.57083333333</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2543,16 +2678,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>100468</v>
+        <v>100658</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
       </c>
       <c r="D93" s="2">
-        <v>45446.65486111111</v>
+        <v>45448.725</v>
       </c>
       <c r="E93" s="2">
-        <v>45446.92090277778</v>
+        <v>45448.78055555555</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2560,16 +2695,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>100471</v>
+        <v>100660</v>
       </c>
       <c r="C94" t="s">
         <v>96</v>
       </c>
       <c r="D94" s="2">
-        <v>45446.88611111111</v>
+        <v>45448.64583333334</v>
       </c>
       <c r="E94" s="2">
-        <v>45446.94166666667</v>
+        <v>45448.70138888889</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2577,16 +2712,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>100472</v>
+        <v>100663</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
       </c>
       <c r="D95" s="2">
-        <v>45446.55833333333</v>
+        <v>45448.55694444444</v>
       </c>
       <c r="E95" s="2">
-        <v>45446.61388888889</v>
+        <v>45448.6125</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2594,16 +2729,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>100483</v>
+        <v>100667</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
       </c>
       <c r="D96" s="2">
-        <v>45446.40277777778</v>
+        <v>45448.74722222222</v>
       </c>
       <c r="E96" s="2">
-        <v>45446.45833333334</v>
+        <v>45448.80277777778</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2611,16 +2746,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>100490</v>
+        <v>100669</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
       </c>
       <c r="D97" s="2">
-        <v>45446.75694444445</v>
+        <v>45448.425</v>
       </c>
       <c r="E97" s="2">
-        <v>45446.8125</v>
+        <v>45448.48055555556</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2628,16 +2763,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>100494</v>
+        <v>100672</v>
       </c>
       <c r="C98" t="s">
         <v>100</v>
       </c>
       <c r="D98" s="2">
-        <v>45446.55416666667</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="E98" s="2">
-        <v>45446.60972222222</v>
+        <v>45448.40972222222</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2645,16 +2780,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>100500</v>
+        <v>100673</v>
       </c>
       <c r="C99" t="s">
         <v>101</v>
       </c>
       <c r="D99" s="2">
-        <v>45446.54583333333</v>
+        <v>45448.37847222222</v>
       </c>
       <c r="E99" s="2">
-        <v>45446.60138888889</v>
+        <v>45448.43402777778</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2662,16 +2797,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>100503</v>
+        <v>100674</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
       </c>
       <c r="D100" s="2">
-        <v>45446.3375</v>
+        <v>45448.44722222222</v>
       </c>
       <c r="E100" s="2">
-        <v>45446.39305555556</v>
+        <v>45448.50277777778</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2679,16 +2814,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>100504</v>
+        <v>100678</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
       </c>
       <c r="D101" s="2">
-        <v>45446.57083333333</v>
+        <v>45448.72916666666</v>
       </c>
       <c r="E101" s="2">
-        <v>45446.62638888889</v>
+        <v>45448.78472222222</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2696,16 +2831,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>100507</v>
+        <v>100680</v>
       </c>
       <c r="C102" t="s">
         <v>104</v>
       </c>
       <c r="D102" s="2">
-        <v>45446.74583333333</v>
+        <v>45448.56388888889</v>
       </c>
       <c r="E102" s="2">
-        <v>45446.80138888889</v>
+        <v>45448.61944444444</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2713,16 +2848,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>100513</v>
+        <v>100681</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
       </c>
       <c r="D103" s="2">
-        <v>45446.64861111111</v>
+        <v>45448.73055555556</v>
       </c>
       <c r="E103" s="2">
-        <v>45446.70416666667</v>
+        <v>45448.78611111111</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2730,16 +2865,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>100532</v>
+        <v>100682</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
       </c>
       <c r="D104" s="2">
-        <v>45446.3125</v>
+        <v>45448.74305555555</v>
       </c>
       <c r="E104" s="2">
-        <v>45446.69583333333</v>
+        <v>45448.79861111111</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2747,16 +2882,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>100537</v>
+        <v>100684</v>
       </c>
       <c r="C105" t="s">
         <v>107</v>
       </c>
       <c r="D105" s="2">
-        <v>45446.42222222222</v>
+        <v>45448.50833333333</v>
       </c>
       <c r="E105" s="2">
-        <v>45446.53333333333</v>
+        <v>45448.56388888889</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2764,16 +2899,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>100547</v>
+        <v>100685</v>
       </c>
       <c r="C106" t="s">
         <v>108</v>
       </c>
       <c r="D106" s="2">
-        <v>45446.27083333334</v>
+        <v>45448.33611111111</v>
       </c>
       <c r="E106" s="2">
-        <v>45446.61119444444</v>
+        <v>45448.39166666667</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2781,16 +2916,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>100549</v>
+        <v>100686</v>
       </c>
       <c r="C107" t="s">
         <v>109</v>
       </c>
       <c r="D107" s="2">
-        <v>45446.41666666666</v>
+        <v>45448.38888888889</v>
       </c>
       <c r="E107" s="2">
-        <v>45446.80138888889</v>
+        <v>45448.44444444445</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2798,16 +2933,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>100550</v>
+        <v>100689</v>
       </c>
       <c r="C108" t="s">
         <v>110</v>
       </c>
       <c r="D108" s="2">
-        <v>45446.82638888889</v>
+        <v>45448.58194444444</v>
       </c>
       <c r="E108" s="2">
-        <v>45446.88194444445</v>
+        <v>45448.6375</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2815,16 +2950,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>100551</v>
+        <v>100690</v>
       </c>
       <c r="C109" t="s">
         <v>111</v>
       </c>
       <c r="D109" s="2">
-        <v>45446.75</v>
+        <v>45448.39583333334</v>
       </c>
       <c r="E109" s="2">
-        <v>45446.80555555555</v>
+        <v>45448.45138888889</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2832,16 +2967,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>100602</v>
+        <v>100695</v>
       </c>
       <c r="C110" t="s">
         <v>112</v>
       </c>
       <c r="D110" s="2">
-        <v>45446.60416666666</v>
+        <v>45448.41944444444</v>
       </c>
       <c r="E110" s="2">
-        <v>45446.71527777778</v>
+        <v>45448.475</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2849,16 +2984,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>100603</v>
+        <v>100696</v>
       </c>
       <c r="C111" t="s">
         <v>113</v>
       </c>
       <c r="D111" s="2">
-        <v>45446.29722222222</v>
+        <v>45448.45208333333</v>
       </c>
       <c r="E111" s="2">
-        <v>45446.40833333333</v>
+        <v>45448.50763888889</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2866,16 +3001,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>100734</v>
+        <v>100702</v>
       </c>
       <c r="C112" t="s">
         <v>114</v>
       </c>
       <c r="D112" s="2">
-        <v>45446.35138888889</v>
+        <v>45448.375</v>
       </c>
       <c r="E112" s="2">
-        <v>45446.40694444445</v>
+        <v>45448.43055555555</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2883,16 +3018,594 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>100735</v>
+        <v>100706</v>
       </c>
       <c r="C113" t="s">
         <v>115</v>
       </c>
       <c r="D113" s="2">
-        <v>45446.6875</v>
+        <v>45448.55416666667</v>
       </c>
       <c r="E113" s="2">
-        <v>45446.74305555555</v>
+        <v>45448.60972222222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>100707</v>
+      </c>
+      <c r="C114" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114" s="2">
+        <v>45448.5375</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45448.59305555555</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>100710</v>
+      </c>
+      <c r="C115" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45448.38055555556</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45448.43611111111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>100728</v>
+      </c>
+      <c r="C116" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45448.55138888889</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45448.60694444444</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>100729</v>
+      </c>
+      <c r="C117" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45448.42222222222</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45448.47777777778</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>100734</v>
+      </c>
+      <c r="C118" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45448.5625</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45448.61805555555</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>100736</v>
+      </c>
+      <c r="C119" t="s">
+        <v>121</v>
+      </c>
+      <c r="D119" s="2">
+        <v>45448.72222222222</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45448.77777777778</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>100738</v>
+      </c>
+      <c r="C120" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" s="2">
+        <v>45448.32361111111</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45448.47916666666</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>100739</v>
+      </c>
+      <c r="C121" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" s="2">
+        <v>45448.45902777778</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45448.61458333334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>100766</v>
+      </c>
+      <c r="C122" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" s="2">
+        <v>45448.58333333334</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45448.79166666666</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>100767</v>
+      </c>
+      <c r="C123" t="s">
+        <v>125</v>
+      </c>
+      <c r="D123" s="2">
+        <v>45448.71388888889</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45448.76944444444</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>100768</v>
+      </c>
+      <c r="C124" t="s">
+        <v>126</v>
+      </c>
+      <c r="D124" s="2">
+        <v>45448.55833333333</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45448.61388888889</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>100770</v>
+      </c>
+      <c r="C125" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" s="2">
+        <v>45448.55694444444</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45448.6125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>100771</v>
+      </c>
+      <c r="C126" t="s">
+        <v>128</v>
+      </c>
+      <c r="D126" s="2">
+        <v>45448.44236111111</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45448.49791666667</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>100772</v>
+      </c>
+      <c r="C127" t="s">
+        <v>129</v>
+      </c>
+      <c r="D127" s="2">
+        <v>45448.39722222222</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45448.45277777778</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>100773</v>
+      </c>
+      <c r="C128" t="s">
+        <v>130</v>
+      </c>
+      <c r="D128" s="2">
+        <v>45448.37847222222</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45448.43402777778</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>100774</v>
+      </c>
+      <c r="C129" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129" s="2">
+        <v>45448.36666666667</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45448.42222222222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>100775</v>
+      </c>
+      <c r="C130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D130" s="2">
+        <v>45448.39513888889</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45448.45069444444</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>100778</v>
+      </c>
+      <c r="C131" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131" s="2">
+        <v>45448.35138888889</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45448.40694444445</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>100782</v>
+      </c>
+      <c r="C132" t="s">
+        <v>134</v>
+      </c>
+      <c r="D132" s="2">
+        <v>45448.43194444444</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45448.4875</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>100794</v>
+      </c>
+      <c r="C133" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" s="2">
+        <v>45448.33194444444</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45448.3875</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>100795</v>
+      </c>
+      <c r="C134" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134" s="2">
+        <v>45448.44027777778</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45448.49583333333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>100796</v>
+      </c>
+      <c r="C135" t="s">
+        <v>137</v>
+      </c>
+      <c r="D135" s="2">
+        <v>45448.53541666667</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45448.59097222222</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>100797</v>
+      </c>
+      <c r="C136" t="s">
+        <v>138</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45448.69305555556</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45448.77638888889</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>100801</v>
+      </c>
+      <c r="C137" t="s">
+        <v>139</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45448.43472222222</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45448.49027777778</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>100802</v>
+      </c>
+      <c r="C138" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138" s="2">
+        <v>45448.40694444445</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45448.4625</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>100803</v>
+      </c>
+      <c r="C139" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139" s="2">
+        <v>45448.44444444445</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45448.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>100804</v>
+      </c>
+      <c r="C140" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140" s="2">
+        <v>45448.45694444444</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45448.5125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>100805</v>
+      </c>
+      <c r="C141" t="s">
+        <v>143</v>
+      </c>
+      <c r="D141" s="2">
+        <v>45448.66319444445</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45448.71875</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>100821</v>
+      </c>
+      <c r="C142" t="s">
+        <v>144</v>
+      </c>
+      <c r="D142" s="2">
+        <v>45448.67013888889</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45448.72569444445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>100807</v>
+      </c>
+      <c r="C143" t="s">
+        <v>145</v>
+      </c>
+      <c r="D143" s="2">
+        <v>45448.55555555555</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45448.61111111111</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>100640</v>
+      </c>
+      <c r="C144" t="s">
+        <v>146</v>
+      </c>
+      <c r="D144" s="2">
+        <v>45448.375</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45448.48611111111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>100631</v>
+      </c>
+      <c r="C145" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45448.56388888889</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45448.61944444444</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>100661</v>
+      </c>
+      <c r="C146" t="s">
+        <v>148</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45448.38611111111</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45448.44166666667</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>100703</v>
+      </c>
+      <c r="C147" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45448.56111111111</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45448.61666666667</v>
       </c>
     </row>
   </sheetData>

--- a/static/tmp/planificacion3.xlsx
+++ b/static/tmp/planificacion3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>id</t>
   </si>
@@ -435,315 +435,335 @@
 Name: id_modelo, dtype: object)</t>
   </si>
   <si>
-    <t>(100553, 197    100553-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100554, 198    100554-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100556, 199    100556-p
-200    100556-p
-201    100556-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100590, 202    100590-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100603, 203    100603-p
-204    100603-p
-205    100603-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100604, 206    100604-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100610, 207    100610-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100611, 208    100611-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100612, 209    100612-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100613, 210    100613-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100614, 211    100614-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100615, 212    100615-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100616, 213    100616-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100617, 214    100617-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100631, 306    100631-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100636, 215    100636-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100640, 300    100640-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100642, 216    100642-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100650, 217    100650-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100651, 218    100651-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100653, 219    100653-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100654, 220    100654-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100656, 221    100656-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100658, 222    100658-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100660, 223    100660-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100661, 316    100661-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100663, 224    100663-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100667, 225    100667-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100669, 226    100669-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100672, 227    100672-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100673, 228    100673-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100674, 229    100674-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100678, 230    100678-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100680, 231    100680-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100681, 232    100681-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100682, 233    100682-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100684, 234    100684-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100685, 235    100685-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100686, 236    100686-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100689, 237    100689-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100690, 238    100690-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100695, 239    100695-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100696, 240    100696-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100702, 241    100702-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100703, 323    100703-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100706, 242    100706-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100707, 243    100707-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100710, 244    100710-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100728, 245    100728-p
-246    100728-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100729, 247    100729-p
-248    100729-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100734, 249    100734-p
-250    100734-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100736, 251    100736-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100738, 252    100738-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100739, 253    100739-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100766, 254    100766-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100767, 255    100767-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100768, 256    100768-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100770, 257    100770-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100771, 258    100771-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100772, 259    100772-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100773, 260    100773-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100774, 261    100774-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100775, 262    100775-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100778, 263    100778-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100782, 264    100782-r
-334    100782-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100794, 265    100794-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100795, 266    100795-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100796, 267    100796-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100797, 268    100797-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100801, 269    100801-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100802, 270    100802-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100803, 271    100803-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100804, 272    100804-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100805, 273    100805-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100807, 281    100807-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100821, 274    100821-r
+    <t>(100541, 197    100541-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100542, 198    100542-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100543, 199    100543-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100553, 200    100553-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100554, 201    100554-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100556, 202    100556-p
+203    100556-p
+204    100556-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100590, 205    100590-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100603, 206    100603-p
+207    100603-p
+208    100603-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100604, 209    100604-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100610, 210    100610-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100611, 211    100611-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100612, 212    100612-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100613, 213    100613-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100614, 214    100614-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100615, 215    100615-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100616, 216    100616-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100617, 217    100617-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100631, 312    100631-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100636, 218    100636-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100640, 306    100640-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100642, 219    100642-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100650, 220    100650-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100651, 221    100651-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100653, 222    100653-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100654, 223    100654-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100656, 224    100656-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100658, 225    100658-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100660, 226    100660-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100661, 227    100661-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100663, 228    100663-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100667, 229    100667-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100669, 230    100669-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100672, 231    100672-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100673, 232    100673-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100674, 233    100674-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100678, 234    100678-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100680, 235    100680-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100681, 236    100681-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100682, 237    100682-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100684, 238    100684-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100685, 239    100685-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100686, 240    100686-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100689, 241    100689-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100690, 242    100690-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100695, 243    100695-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100696, 244    100696-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100702, 245    100702-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100703, 329    100703-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100706, 246    100706-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100707, 247    100707-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100710, 248    100710-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100728, 249    100728-p
+250    100728-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100729, 251    100729-p
+252    100729-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100734, 253    100734-p
+254    100734-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100736, 255    100736-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100738, 256    100738-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100739, 257    100739-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100740, 258    100740-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100753, 259    100753-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100766, 260    100766-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100767, 261    100767-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100768, 262    100768-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100770, 263    100770-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100771, 264    100771-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100772, 265    100772-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100773, 266    100773-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100774, 267    100774-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100775, 268    100775-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100778, 269    100778-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100782, 270    100782-r
+340    100782-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100794, 271    100794-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100795, 272    100795-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100796, 273    100796-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100797, 274    100797-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100801, 275    100801-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100802, 276    100802-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100803, 277    100803-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100804, 278    100804-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100805, 279    100805-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100807, 287    100807-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100821, 280    100821-r
 Name: id_modelo, dtype: object)</t>
   </si>
 </sst>
@@ -1106,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2321,16 +2341,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>100553</v>
+        <v>100541</v>
       </c>
       <c r="C72" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="2">
-        <v>45448.69583333333</v>
+        <v>45448.69444444445</v>
       </c>
       <c r="E72" s="2">
-        <v>45448.75138888889</v>
+        <v>45448.75</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2338,16 +2358,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>100554</v>
+        <v>100542</v>
       </c>
       <c r="C73" t="s">
         <v>75</v>
       </c>
       <c r="D73" s="2">
-        <v>45448.8375</v>
+        <v>45448.69444444445</v>
       </c>
       <c r="E73" s="2">
-        <v>45448.89305555556</v>
+        <v>45448.75</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2355,16 +2375,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>100556</v>
+        <v>100543</v>
       </c>
       <c r="C74" t="s">
         <v>76</v>
       </c>
       <c r="D74" s="2">
-        <v>45448.35416666666</v>
+        <v>45448.73472222222</v>
       </c>
       <c r="E74" s="2">
-        <v>45448.66491666667</v>
+        <v>45448.79027777778</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2372,16 +2392,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>100590</v>
+        <v>100553</v>
       </c>
       <c r="C75" t="s">
         <v>77</v>
       </c>
       <c r="D75" s="2">
-        <v>45448.75833333333</v>
+        <v>45448.69583333333</v>
       </c>
       <c r="E75" s="2">
-        <v>45448.81388888889</v>
+        <v>45448.75138888889</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2389,16 +2409,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>100603</v>
+        <v>100554</v>
       </c>
       <c r="C76" t="s">
         <v>78</v>
       </c>
       <c r="D76" s="2">
-        <v>45448.29583333333</v>
+        <v>45448.8375</v>
       </c>
       <c r="E76" s="2">
-        <v>45448.63263888889</v>
+        <v>45448.89305555556</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2406,16 +2426,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>100604</v>
+        <v>100556</v>
       </c>
       <c r="C77" t="s">
         <v>79</v>
       </c>
       <c r="D77" s="2">
-        <v>45448.46944444445</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="E77" s="2">
-        <v>45448.525</v>
+        <v>45448.66491666667</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2423,16 +2443,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>100610</v>
+        <v>100590</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
       </c>
       <c r="D78" s="2">
-        <v>45448.41527777778</v>
+        <v>45448.75833333333</v>
       </c>
       <c r="E78" s="2">
-        <v>45448.47083333333</v>
+        <v>45448.81388888889</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2440,16 +2460,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>100611</v>
+        <v>100603</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
       </c>
       <c r="D79" s="2">
-        <v>45448.43611111111</v>
+        <v>45448.29583333333</v>
       </c>
       <c r="E79" s="2">
-        <v>45448.49166666667</v>
+        <v>45448.63263888889</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2457,16 +2477,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>100612</v>
+        <v>100604</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
       </c>
       <c r="D80" s="2">
-        <v>45448.41388888889</v>
+        <v>45448.46944444445</v>
       </c>
       <c r="E80" s="2">
-        <v>45448.46944444445</v>
+        <v>45448.525</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2474,16 +2494,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>100613</v>
+        <v>100610</v>
       </c>
       <c r="C81" t="s">
         <v>83</v>
       </c>
       <c r="D81" s="2">
-        <v>45448.54722222222</v>
+        <v>45448.41527777778</v>
       </c>
       <c r="E81" s="2">
-        <v>45448.60277777778</v>
+        <v>45448.47083333333</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2491,16 +2511,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>100614</v>
+        <v>100611</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
       </c>
       <c r="D82" s="2">
-        <v>45448.32916666667</v>
+        <v>45448.43611111111</v>
       </c>
       <c r="E82" s="2">
-        <v>45448.38472222222</v>
+        <v>45448.49166666667</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2508,16 +2528,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>100615</v>
+        <v>100612</v>
       </c>
       <c r="C83" t="s">
         <v>85</v>
       </c>
       <c r="D83" s="2">
-        <v>45448.52708333333</v>
+        <v>45448.41388888889</v>
       </c>
       <c r="E83" s="2">
-        <v>45448.58263888889</v>
+        <v>45448.46944444445</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2525,16 +2545,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>100616</v>
+        <v>100613</v>
       </c>
       <c r="C84" t="s">
         <v>86</v>
       </c>
       <c r="D84" s="2">
-        <v>45448.41111111111</v>
+        <v>45448.54722222222</v>
       </c>
       <c r="E84" s="2">
-        <v>45448.46666666667</v>
+        <v>45448.60277777778</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2542,16 +2562,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>100617</v>
+        <v>100614</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
       </c>
       <c r="D85" s="2">
-        <v>45448.34236111111</v>
+        <v>45448.32916666667</v>
       </c>
       <c r="E85" s="2">
-        <v>45448.39791666667</v>
+        <v>45448.38472222222</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2559,16 +2579,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>100636</v>
+        <v>100615</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
       </c>
       <c r="D86" s="2">
-        <v>45448.55694444444</v>
+        <v>45448.52708333333</v>
       </c>
       <c r="E86" s="2">
-        <v>45448.6125</v>
+        <v>45448.58263888889</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2576,16 +2596,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>100642</v>
+        <v>100616</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
       </c>
       <c r="D87" s="2">
-        <v>45448.55486111111</v>
+        <v>45448.41111111111</v>
       </c>
       <c r="E87" s="2">
-        <v>45448.61041666667</v>
+        <v>45448.46666666667</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2593,16 +2613,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>100650</v>
+        <v>100617</v>
       </c>
       <c r="C88" t="s">
         <v>90</v>
       </c>
       <c r="D88" s="2">
-        <v>45448.16875</v>
+        <v>45448.34236111111</v>
       </c>
       <c r="E88" s="2">
-        <v>45448.22430555556</v>
+        <v>45448.39791666667</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2610,16 +2630,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>100651</v>
+        <v>100636</v>
       </c>
       <c r="C89" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="2">
-        <v>45448.53680555556</v>
+        <v>45448.55694444444</v>
       </c>
       <c r="E89" s="2">
-        <v>45448.59236111111</v>
+        <v>45448.6125</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2627,16 +2647,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>100653</v>
+        <v>100642</v>
       </c>
       <c r="C90" t="s">
         <v>92</v>
       </c>
       <c r="D90" s="2">
-        <v>45448.44861111111</v>
+        <v>45448.55486111111</v>
       </c>
       <c r="E90" s="2">
-        <v>45448.50416666667</v>
+        <v>45448.61041666667</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2644,16 +2664,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>100654</v>
+        <v>100650</v>
       </c>
       <c r="C91" t="s">
         <v>93</v>
       </c>
       <c r="D91" s="2">
-        <v>45448.57361111111</v>
+        <v>45448.16875</v>
       </c>
       <c r="E91" s="2">
-        <v>45448.62916666667</v>
+        <v>45448.22430555556</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2661,16 +2681,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>100656</v>
+        <v>100651</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
       </c>
       <c r="D92" s="2">
-        <v>45448.51527777778</v>
+        <v>45448.53680555556</v>
       </c>
       <c r="E92" s="2">
-        <v>45448.57083333333</v>
+        <v>45448.59236111111</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2678,16 +2698,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>100658</v>
+        <v>100653</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
       </c>
       <c r="D93" s="2">
-        <v>45448.725</v>
+        <v>45448.44861111111</v>
       </c>
       <c r="E93" s="2">
-        <v>45448.78055555555</v>
+        <v>45448.50416666667</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2695,16 +2715,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>100660</v>
+        <v>100654</v>
       </c>
       <c r="C94" t="s">
         <v>96</v>
       </c>
       <c r="D94" s="2">
-        <v>45448.64583333334</v>
+        <v>45448.57361111111</v>
       </c>
       <c r="E94" s="2">
-        <v>45448.70138888889</v>
+        <v>45448.62916666667</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2712,16 +2732,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>100663</v>
+        <v>100656</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
       </c>
       <c r="D95" s="2">
-        <v>45448.55694444444</v>
+        <v>45448.51527777778</v>
       </c>
       <c r="E95" s="2">
-        <v>45448.6125</v>
+        <v>45448.57083333333</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2729,16 +2749,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>100667</v>
+        <v>100658</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
       </c>
       <c r="D96" s="2">
-        <v>45448.74722222222</v>
+        <v>45448.725</v>
       </c>
       <c r="E96" s="2">
-        <v>45448.80277777778</v>
+        <v>45448.78055555555</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2746,16 +2766,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>100669</v>
+        <v>100660</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
       </c>
       <c r="D97" s="2">
-        <v>45448.425</v>
+        <v>45448.64583333334</v>
       </c>
       <c r="E97" s="2">
-        <v>45448.48055555556</v>
+        <v>45448.70138888889</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2763,16 +2783,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>100672</v>
+        <v>100661</v>
       </c>
       <c r="C98" t="s">
         <v>100</v>
       </c>
       <c r="D98" s="2">
-        <v>45448.35416666666</v>
+        <v>45448.55694444444</v>
       </c>
       <c r="E98" s="2">
-        <v>45448.40972222222</v>
+        <v>45448.6125</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2780,16 +2800,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>100673</v>
+        <v>100663</v>
       </c>
       <c r="C99" t="s">
         <v>101</v>
       </c>
       <c r="D99" s="2">
-        <v>45448.37847222222</v>
+        <v>45448.74722222222</v>
       </c>
       <c r="E99" s="2">
-        <v>45448.43402777778</v>
+        <v>45448.80277777778</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2797,16 +2817,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>100674</v>
+        <v>100667</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
       </c>
       <c r="D100" s="2">
-        <v>45448.44722222222</v>
+        <v>45448.425</v>
       </c>
       <c r="E100" s="2">
-        <v>45448.50277777778</v>
+        <v>45448.48055555556</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2814,16 +2834,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>100678</v>
+        <v>100669</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
       </c>
       <c r="D101" s="2">
-        <v>45448.72916666666</v>
+        <v>45448.35416666666</v>
       </c>
       <c r="E101" s="2">
-        <v>45448.78472222222</v>
+        <v>45448.40972222222</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2831,16 +2851,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>100680</v>
+        <v>100672</v>
       </c>
       <c r="C102" t="s">
         <v>104</v>
       </c>
       <c r="D102" s="2">
-        <v>45448.56388888889</v>
+        <v>45448.37847222222</v>
       </c>
       <c r="E102" s="2">
-        <v>45448.61944444444</v>
+        <v>45448.43402777778</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2848,16 +2868,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>100681</v>
+        <v>100673</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
       </c>
       <c r="D103" s="2">
-        <v>45448.73055555556</v>
+        <v>45448.44722222222</v>
       </c>
       <c r="E103" s="2">
-        <v>45448.78611111111</v>
+        <v>45448.50277777778</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2865,16 +2885,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>100682</v>
+        <v>100674</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
       </c>
       <c r="D104" s="2">
-        <v>45448.74305555555</v>
+        <v>45448.72916666666</v>
       </c>
       <c r="E104" s="2">
-        <v>45448.79861111111</v>
+        <v>45448.78472222222</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2882,16 +2902,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>100684</v>
+        <v>100678</v>
       </c>
       <c r="C105" t="s">
         <v>107</v>
       </c>
       <c r="D105" s="2">
-        <v>45448.50833333333</v>
+        <v>45448.56388888889</v>
       </c>
       <c r="E105" s="2">
-        <v>45448.56388888889</v>
+        <v>45448.61944444444</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2899,16 +2919,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>100685</v>
+        <v>100680</v>
       </c>
       <c r="C106" t="s">
         <v>108</v>
       </c>
       <c r="D106" s="2">
-        <v>45448.33611111111</v>
+        <v>45448.73055555556</v>
       </c>
       <c r="E106" s="2">
-        <v>45448.39166666667</v>
+        <v>45448.78611111111</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2916,16 +2936,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>100686</v>
+        <v>100681</v>
       </c>
       <c r="C107" t="s">
         <v>109</v>
       </c>
       <c r="D107" s="2">
-        <v>45448.38888888889</v>
+        <v>45448.74305555555</v>
       </c>
       <c r="E107" s="2">
-        <v>45448.44444444445</v>
+        <v>45448.79861111111</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2933,16 +2953,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>100689</v>
+        <v>100682</v>
       </c>
       <c r="C108" t="s">
         <v>110</v>
       </c>
       <c r="D108" s="2">
-        <v>45448.58194444444</v>
+        <v>45448.50833333333</v>
       </c>
       <c r="E108" s="2">
-        <v>45448.6375</v>
+        <v>45448.56388888889</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2950,16 +2970,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>100690</v>
+        <v>100684</v>
       </c>
       <c r="C109" t="s">
         <v>111</v>
       </c>
       <c r="D109" s="2">
-        <v>45448.39583333334</v>
+        <v>45448.33611111111</v>
       </c>
       <c r="E109" s="2">
-        <v>45448.45138888889</v>
+        <v>45448.39166666667</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2967,16 +2987,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>100695</v>
+        <v>100685</v>
       </c>
       <c r="C110" t="s">
         <v>112</v>
       </c>
       <c r="D110" s="2">
-        <v>45448.41944444444</v>
+        <v>45448.38888888889</v>
       </c>
       <c r="E110" s="2">
-        <v>45448.475</v>
+        <v>45448.44444444445</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2984,16 +3004,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>100696</v>
+        <v>100686</v>
       </c>
       <c r="C111" t="s">
         <v>113</v>
       </c>
       <c r="D111" s="2">
-        <v>45448.45208333333</v>
+        <v>45448.58194444444</v>
       </c>
       <c r="E111" s="2">
-        <v>45448.50763888889</v>
+        <v>45448.6375</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3001,16 +3021,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>100702</v>
+        <v>100689</v>
       </c>
       <c r="C112" t="s">
         <v>114</v>
       </c>
       <c r="D112" s="2">
-        <v>45448.375</v>
+        <v>45448.39583333334</v>
       </c>
       <c r="E112" s="2">
-        <v>45448.43055555555</v>
+        <v>45448.45138888889</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3018,16 +3038,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>100706</v>
+        <v>100690</v>
       </c>
       <c r="C113" t="s">
         <v>115</v>
       </c>
       <c r="D113" s="2">
-        <v>45448.55416666667</v>
+        <v>45448.41944444444</v>
       </c>
       <c r="E113" s="2">
-        <v>45448.60972222222</v>
+        <v>45448.475</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3035,16 +3055,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>100707</v>
+        <v>100695</v>
       </c>
       <c r="C114" t="s">
         <v>116</v>
       </c>
       <c r="D114" s="2">
-        <v>45448.5375</v>
+        <v>45448.45208333333</v>
       </c>
       <c r="E114" s="2">
-        <v>45448.59305555555</v>
+        <v>45448.50763888889</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3052,16 +3072,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>100710</v>
+        <v>100696</v>
       </c>
       <c r="C115" t="s">
         <v>117</v>
       </c>
       <c r="D115" s="2">
-        <v>45448.38055555556</v>
+        <v>45448.375</v>
       </c>
       <c r="E115" s="2">
-        <v>45448.43611111111</v>
+        <v>45448.43055555555</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3069,16 +3089,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>100728</v>
+        <v>100702</v>
       </c>
       <c r="C116" t="s">
         <v>118</v>
       </c>
       <c r="D116" s="2">
-        <v>45448.55138888889</v>
+        <v>45448.55416666667</v>
       </c>
       <c r="E116" s="2">
-        <v>45448.60694444444</v>
+        <v>45448.60972222222</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3086,16 +3106,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>100729</v>
+        <v>100706</v>
       </c>
       <c r="C117" t="s">
         <v>119</v>
       </c>
       <c r="D117" s="2">
-        <v>45448.42222222222</v>
+        <v>45448.5375</v>
       </c>
       <c r="E117" s="2">
-        <v>45448.47777777778</v>
+        <v>45448.59305555555</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3103,16 +3123,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>100734</v>
+        <v>100707</v>
       </c>
       <c r="C118" t="s">
         <v>120</v>
       </c>
       <c r="D118" s="2">
-        <v>45448.5625</v>
+        <v>45448.38055555556</v>
       </c>
       <c r="E118" s="2">
-        <v>45448.61805555555</v>
+        <v>45448.43611111111</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3120,16 +3140,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>100736</v>
+        <v>100710</v>
       </c>
       <c r="C119" t="s">
         <v>121</v>
       </c>
       <c r="D119" s="2">
-        <v>45448.72222222222</v>
+        <v>45448.55138888889</v>
       </c>
       <c r="E119" s="2">
-        <v>45448.77777777778</v>
+        <v>45448.60694444444</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3137,16 +3157,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>100738</v>
+        <v>100728</v>
       </c>
       <c r="C120" t="s">
         <v>122</v>
       </c>
       <c r="D120" s="2">
-        <v>45448.32361111111</v>
+        <v>45448.42222222222</v>
       </c>
       <c r="E120" s="2">
-        <v>45448.47916666666</v>
+        <v>45448.47777777778</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3154,16 +3174,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>100739</v>
+        <v>100729</v>
       </c>
       <c r="C121" t="s">
         <v>123</v>
       </c>
       <c r="D121" s="2">
-        <v>45448.45902777778</v>
+        <v>45448.5625</v>
       </c>
       <c r="E121" s="2">
-        <v>45448.61458333334</v>
+        <v>45448.61805555555</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3171,16 +3191,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>100766</v>
+        <v>100734</v>
       </c>
       <c r="C122" t="s">
         <v>124</v>
       </c>
       <c r="D122" s="2">
-        <v>45448.58333333334</v>
+        <v>45448.72222222222</v>
       </c>
       <c r="E122" s="2">
-        <v>45448.79166666666</v>
+        <v>45448.77777777778</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3188,16 +3208,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>100767</v>
+        <v>100736</v>
       </c>
       <c r="C123" t="s">
         <v>125</v>
       </c>
       <c r="D123" s="2">
-        <v>45448.71388888889</v>
+        <v>45448.32361111111</v>
       </c>
       <c r="E123" s="2">
-        <v>45448.76944444444</v>
+        <v>45448.47916666666</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3205,16 +3225,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>100768</v>
+        <v>100738</v>
       </c>
       <c r="C124" t="s">
         <v>126</v>
       </c>
       <c r="D124" s="2">
-        <v>45448.55833333333</v>
+        <v>45448.45902777778</v>
       </c>
       <c r="E124" s="2">
-        <v>45448.61388888889</v>
+        <v>45448.61458333334</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3222,16 +3242,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>100770</v>
+        <v>100739</v>
       </c>
       <c r="C125" t="s">
         <v>127</v>
       </c>
       <c r="D125" s="2">
-        <v>45448.55694444444</v>
+        <v>45448.58333333334</v>
       </c>
       <c r="E125" s="2">
-        <v>45448.6125</v>
+        <v>45448.79166666666</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3239,16 +3259,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>100771</v>
+        <v>100740</v>
       </c>
       <c r="C126" t="s">
         <v>128</v>
       </c>
       <c r="D126" s="2">
-        <v>45448.44236111111</v>
+        <v>45448.71388888889</v>
       </c>
       <c r="E126" s="2">
-        <v>45448.49791666667</v>
+        <v>45448.76944444444</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3256,16 +3276,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>100772</v>
+        <v>100753</v>
       </c>
       <c r="C127" t="s">
         <v>129</v>
       </c>
       <c r="D127" s="2">
-        <v>45448.39722222222</v>
+        <v>45448.55833333333</v>
       </c>
       <c r="E127" s="2">
-        <v>45448.45277777778</v>
+        <v>45448.61388888889</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3273,16 +3293,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>100773</v>
+        <v>100766</v>
       </c>
       <c r="C128" t="s">
         <v>130</v>
       </c>
       <c r="D128" s="2">
-        <v>45448.37847222222</v>
+        <v>45448.55694444444</v>
       </c>
       <c r="E128" s="2">
-        <v>45448.43402777778</v>
+        <v>45448.6125</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3290,16 +3310,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>100774</v>
+        <v>100767</v>
       </c>
       <c r="C129" t="s">
         <v>131</v>
       </c>
       <c r="D129" s="2">
-        <v>45448.36666666667</v>
+        <v>45448.84930555556</v>
       </c>
       <c r="E129" s="2">
-        <v>45448.42222222222</v>
+        <v>45448.90486111111</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3307,16 +3327,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>100775</v>
+        <v>100768</v>
       </c>
       <c r="C130" t="s">
         <v>132</v>
       </c>
       <c r="D130" s="2">
-        <v>45448.39513888889</v>
+        <v>45448.65277777778</v>
       </c>
       <c r="E130" s="2">
-        <v>45448.45069444444</v>
+        <v>45448.70833333334</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3324,16 +3344,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>100778</v>
+        <v>100770</v>
       </c>
       <c r="C131" t="s">
         <v>133</v>
       </c>
       <c r="D131" s="2">
-        <v>45448.35138888889</v>
+        <v>45448.44236111111</v>
       </c>
       <c r="E131" s="2">
-        <v>45448.40694444445</v>
+        <v>45448.49791666667</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3341,16 +3361,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>100782</v>
+        <v>100771</v>
       </c>
       <c r="C132" t="s">
         <v>134</v>
       </c>
       <c r="D132" s="2">
-        <v>45448.43194444444</v>
+        <v>45448.39722222222</v>
       </c>
       <c r="E132" s="2">
-        <v>45448.4875</v>
+        <v>45448.45277777778</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3358,16 +3378,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>100794</v>
+        <v>100772</v>
       </c>
       <c r="C133" t="s">
         <v>135</v>
       </c>
       <c r="D133" s="2">
-        <v>45448.33194444444</v>
+        <v>45448.37847222222</v>
       </c>
       <c r="E133" s="2">
-        <v>45448.3875</v>
+        <v>45448.43402777778</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3375,16 +3395,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>100795</v>
+        <v>100773</v>
       </c>
       <c r="C134" t="s">
         <v>136</v>
       </c>
       <c r="D134" s="2">
-        <v>45448.44027777778</v>
+        <v>45448.36666666667</v>
       </c>
       <c r="E134" s="2">
-        <v>45448.49583333333</v>
+        <v>45448.42222222222</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3392,16 +3412,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>100796</v>
+        <v>100774</v>
       </c>
       <c r="C135" t="s">
         <v>137</v>
       </c>
       <c r="D135" s="2">
-        <v>45448.53541666667</v>
+        <v>45448.39513888889</v>
       </c>
       <c r="E135" s="2">
-        <v>45448.59097222222</v>
+        <v>45448.45069444444</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3409,16 +3429,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>100797</v>
+        <v>100775</v>
       </c>
       <c r="C136" t="s">
         <v>138</v>
       </c>
       <c r="D136" s="2">
-        <v>45448.69305555556</v>
+        <v>45448.35138888889</v>
       </c>
       <c r="E136" s="2">
-        <v>45448.77638888889</v>
+        <v>45448.40694444445</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3426,16 +3446,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>100801</v>
+        <v>100778</v>
       </c>
       <c r="C137" t="s">
         <v>139</v>
       </c>
       <c r="D137" s="2">
-        <v>45448.43472222222</v>
+        <v>45448.43194444444</v>
       </c>
       <c r="E137" s="2">
-        <v>45448.49027777778</v>
+        <v>45448.4875</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3443,16 +3463,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>100802</v>
+        <v>100782</v>
       </c>
       <c r="C138" t="s">
         <v>140</v>
       </c>
       <c r="D138" s="2">
-        <v>45448.40694444445</v>
+        <v>45448.33194444444</v>
       </c>
       <c r="E138" s="2">
-        <v>45448.4625</v>
+        <v>45448.3875</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3460,16 +3480,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>100803</v>
+        <v>100794</v>
       </c>
       <c r="C139" t="s">
         <v>141</v>
       </c>
       <c r="D139" s="2">
-        <v>45448.44444444445</v>
+        <v>45448.44027777778</v>
       </c>
       <c r="E139" s="2">
-        <v>45448.5</v>
+        <v>45448.49583333333</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3477,16 +3497,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>100804</v>
+        <v>100795</v>
       </c>
       <c r="C140" t="s">
         <v>142</v>
       </c>
       <c r="D140" s="2">
-        <v>45448.45694444444</v>
+        <v>45448.53541666667</v>
       </c>
       <c r="E140" s="2">
-        <v>45448.5125</v>
+        <v>45448.59097222222</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3494,16 +3514,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>100805</v>
+        <v>100796</v>
       </c>
       <c r="C141" t="s">
         <v>143</v>
       </c>
       <c r="D141" s="2">
-        <v>45448.66319444445</v>
+        <v>45448.69305555556</v>
       </c>
       <c r="E141" s="2">
-        <v>45448.71875</v>
+        <v>45448.77638888889</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3511,16 +3531,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>100821</v>
+        <v>100797</v>
       </c>
       <c r="C142" t="s">
         <v>144</v>
       </c>
       <c r="D142" s="2">
-        <v>45448.67013888889</v>
+        <v>45448.43472222222</v>
       </c>
       <c r="E142" s="2">
-        <v>45448.72569444445</v>
+        <v>45448.49027777778</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3528,16 +3548,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>100807</v>
+        <v>100801</v>
       </c>
       <c r="C143" t="s">
         <v>145</v>
       </c>
       <c r="D143" s="2">
-        <v>45448.55555555555</v>
+        <v>45448.40694444445</v>
       </c>
       <c r="E143" s="2">
-        <v>45448.61111111111</v>
+        <v>45448.4625</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3545,16 +3565,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>100640</v>
+        <v>100802</v>
       </c>
       <c r="C144" t="s">
         <v>146</v>
       </c>
       <c r="D144" s="2">
-        <v>45448.375</v>
+        <v>45448.44444444445</v>
       </c>
       <c r="E144" s="2">
-        <v>45448.48611111111</v>
+        <v>45448.5</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3562,16 +3582,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>100631</v>
+        <v>100803</v>
       </c>
       <c r="C145" t="s">
         <v>147</v>
       </c>
       <c r="D145" s="2">
-        <v>45448.56388888889</v>
+        <v>45448.45694444444</v>
       </c>
       <c r="E145" s="2">
-        <v>45448.61944444444</v>
+        <v>45448.5125</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3579,16 +3599,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>100661</v>
+        <v>100804</v>
       </c>
       <c r="C146" t="s">
         <v>148</v>
       </c>
       <c r="D146" s="2">
-        <v>45448.38611111111</v>
+        <v>45448.66319444445</v>
       </c>
       <c r="E146" s="2">
-        <v>45448.44166666667</v>
+        <v>45448.71875</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3596,15 +3616,100 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>100703</v>
+        <v>100805</v>
       </c>
       <c r="C147" t="s">
         <v>149</v>
       </c>
       <c r="D147" s="2">
+        <v>45448.67013888889</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45448.72569444445</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>100821</v>
+      </c>
+      <c r="C148" t="s">
+        <v>150</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45448.55555555555</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45448.61111111111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>100807</v>
+      </c>
+      <c r="C149" t="s">
+        <v>151</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45448.375</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45448.48611111111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>100640</v>
+      </c>
+      <c r="C150" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45448.56388888889</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45448.61944444444</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>100631</v>
+      </c>
+      <c r="C151" t="s">
+        <v>153</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45448.38611111111</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45448.44166666667</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>100703</v>
+      </c>
+      <c r="C152" t="s">
+        <v>154</v>
+      </c>
+      <c r="D152" s="2">
         <v>45448.56111111111</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E152" s="2">
         <v>45448.61666666667</v>
       </c>
     </row>

--- a/static/tmp/planificacion3.xlsx
+++ b/static/tmp/planificacion3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -28,742 +28,712 @@
     <t>DT final</t>
   </si>
   <si>
-    <t>(90528, 0    90528-p
-1    90528-p
-2    90528-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(97713, 3    97713-p
-4    97713-p
-5    97713-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99087, 6    99087-p
-7    99087-p
-8    99087-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99088, 9     99088-p
-10    99088-p
-11    99088-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99089, 12    99089-p
-13    99089-p
-14    99089-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99141, 15    99141-p
-16    99141-p
-17    99141-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99143, 18    99143-p
-19    99143-p
-20    99143-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99698, 21    99698-p
-22    99698-p
-23    99698-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99700, 24    99700-p
-25    99700-p
-26    99700-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99702, 27    99702-p
-28    99702-p
-29    99702-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99706, 30    99706-p
-31    99706-p
-32    99706-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99711, 33    99711-p
-34    99711-p
-35    99711-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99713, 36    99713-p
-37    99713-p
-38    99713-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99751, 39    99751-p
-40    99751-p
-41    99751-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99756, 42    99756-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99803, 43    99803-p
-44    99803-p
-45    99803-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99824, 46    99824-p
-47    99824-p
-48    99824-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99854, 49    99854-p
-50    99854-p
-51    99854-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99907, 52    99907-p
+    <t>(99138, 0    99138-p
+1    99138-p
+2    99138-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99139, 3    99139-p
+4    99139-p
+5    99139-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99140, 6    99140-p
+7    99140-p
+8    99140-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99145, 9     99145-p
+10    99145-p
+11    99145-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99487, 12    99487-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99647, 13    99647-p
+14    99647-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99696, 15    99696-p
+16    99696-p
+17    99696-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99699, 18    99699-p
+19    99699-p
+20    99699-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99701, 21    99701-p
+22    99701-p
+23    99701-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99704, 24    99704-p
+25    99704-p
+26    99704-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99709, 27    99709-p
+28    99709-p
+29    99709-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99772, 30    99772-p
+31    99772-p
+32    99772-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99812, 33    99812-p
+34    99812-p
+35    99812-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99813, 36    99813-p
+37    99813-p
+38    99813-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99839, 39    99839-p
+40    99839-p
+41    99839-p
+42    99839-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99843, 43    99843-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99854, 44    99854-p
+45    99854-p
+46    99854-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99869, 47    99869-p
+48    99869-p
+49    99869-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99871, 50    99871-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99907, 51    99907-p
+52    99907-p
 53    99907-p
-54    99907-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99944, 55    99944-p
-56    99944-p
-57    99944-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99945, 58    99945-p
-59    99945-p
-60    99945-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99965, 61    99965-p
-62    99965-p
-63    99965-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99968, 64    99968-p
-65    99968-p
-66    99968-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99973, 67    99973-p
-68    99973-p
-69    99973-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(99997, 70    99997-p
-71    99997-p
-72    99997-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100006, 73    100006-p
-74    100006-p
-75    100006-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100019, 76    100019-p
-77    100019-p
-78    100019-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100035, 79    100035-p
-80    100035-p
-81    100035-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100043, 82    100043-p
-83    100043-p
-84    100043-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100058, 85    100058-p
-86    100058-p
-87    100058-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100069, 88    100069-p
-89    100069-p
-90    100069-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100070, 91    100070-p
-92    100070-p
-93    100070-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100074, 94    100074-p
-95    100074-p
-96    100074-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100077, 97    100077-p
-98    100077-p
-99    100077-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100092, 100    100092-p
-101    100092-p
-102    100092-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100134, 103    100134-p
-104    100134-p
-105    100134-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100142, 106    100142-p
-107    100142-p
-108    100142-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100261, 109    100261-p
-110    100261-p
-111    100261-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100262, 112    100262-p
-113    100262-p
-114    100262-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100263, 115    100263-p
-116    100263-p
-117    100263-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100264, 118    100264-p
-119    100264-p
-120    100264-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100284, 121    100284-p
-122    100284-p
-123    100284-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100289, 124    100289-p
-125    100289-p
-126    100289-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100326, 127    100326-p
-128    100326-p
-129    100326-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100327, 130    100327-p
-131    100327-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100331, 132    100331-p
-133    100331-p
-134    100331-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100335, 135    100335-p
-136    100335-p
-137    100335-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100341, 138    100341-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100362, 139    100362-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100363, 140    100363-p
-141    100363-p
-142    100363-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100364, 143    100364-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100373, 144    100373-p
-145    100373-p
-146    100373-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100379, 147    100379-p
-148    100379-p
-149    100379-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100382, 150    100382-p
-151    100382-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100386, 152    100386-p
-153    100386-p
-154    100386-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100388, 155    100388-p
-156    100388-p
-157    100388-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100402, 158    100402-p
-159    100402-p
-160    100402-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100417, 161    100417-p
-162    100417-p
-163    100417-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100421, 164    100421-p
-165    100421-p
-166    100421-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100434, 167    100434-p
-168    100434-p
-169    100434-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100442, 170    100442-p
-171    100442-p
-172    100442-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100444, 173    100444-p
-174    100444-p
-175    100444-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100465, 176    100465-p
-177    100465-p
-178    100465-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100477, 179    100477-p
-180    100477-p
-181    100477-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100479, 182    100479-p
-183    100479-p
-184    100479-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100490, 185    100490-p
-186    100490-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100496, 187    100496-p
-188    100496-p
-189    100496-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100511, 190    100511-p
-191    100511-p
-192    100511-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100530, 193    100530-p
-194    100530-p
-195    100530-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100540, 196    100540-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100541, 197    100541-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100542, 198    100542-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100543, 199    100543-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100553, 200    100553-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100554, 201    100554-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100556, 202    100556-p
-203    100556-p
-204    100556-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100590, 205    100590-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100603, 206    100603-p
-207    100603-p
-208    100603-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100604, 209    100604-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100610, 210    100610-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100611, 211    100611-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100612, 212    100612-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100613, 213    100613-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100614, 214    100614-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100615, 215    100615-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100616, 216    100616-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100617, 217    100617-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100631, 312    100631-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100636, 218    100636-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100640, 306    100640-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100642, 219    100642-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100650, 220    100650-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100651, 221    100651-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100653, 222    100653-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100654, 223    100654-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100656, 224    100656-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100658, 225    100658-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100660, 226    100660-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100661, 227    100661-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100663, 228    100663-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100667, 229    100667-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100669, 230    100669-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100672, 231    100672-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100673, 232    100673-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100674, 233    100674-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100678, 234    100678-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100680, 235    100680-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100681, 236    100681-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100682, 237    100682-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100684, 238    100684-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100685, 239    100685-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100686, 240    100686-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100689, 241    100689-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100690, 242    100690-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100695, 243    100695-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100696, 244    100696-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100702, 245    100702-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100703, 329    100703-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100706, 246    100706-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100707, 247    100707-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100710, 248    100710-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100728, 249    100728-p
-250    100728-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100729, 251    100729-p
-252    100729-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100734, 253    100734-p
-254    100734-p
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100736, 255    100736-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100738, 256    100738-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100739, 257    100739-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100740, 258    100740-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100753, 259    100753-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100766, 260    100766-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100767, 261    100767-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100768, 262    100768-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100770, 263    100770-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100771, 264    100771-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100772, 265    100772-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100773, 266    100773-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100774, 267    100774-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100775, 268    100775-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100778, 269    100778-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100782, 270    100782-r
-340    100782-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100794, 271    100794-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100795, 272    100795-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100796, 273    100796-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100797, 274    100797-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100801, 275    100801-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100802, 276    100802-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100803, 277    100803-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100804, 278    100804-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100805, 279    100805-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100807, 287    100807-r
-Name: id_modelo, dtype: object)</t>
-  </si>
-  <si>
-    <t>(100821, 280    100821-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99947, 54    99947-p
+55    99947-p
+56    99947-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99976, 57    99976-p
+58    99976-p
+59    99976-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99994, 60    99994-p
+61    99994-p
+62    99994-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(99997, 63    99997-p
+64    99997-p
+65    99997-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100024, 66    100024-p
+67    100024-p
+68    100024-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100031, 69    100031-p
+70    100031-p
+71    100031-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100035, 72    100035-p
+73    100035-p
+74    100035-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100041, 75    100041-p
+76    100041-p
+77    100041-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100043, 78    100043-p
+79    100043-p
+80    100043-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100050, 81    100050-p
+82    100050-p
+83    100050-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100053, 84    100053-p
+85    100053-p
+86    100053-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100054, 87    100054-p
+88    100054-p
+89    100054-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100060, 90    100060-p
+91    100060-p
+92    100060-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100061, 93    100061-p
+94    100061-p
+95    100061-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100068, 96    100068-p
+97    100068-p
+98    100068-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100074, 99     100074-p
+100    100074-p
+101    100074-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100076, 102    100076-p
+103    100076-p
+104    100076-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100091, 105    100091-p
+106    100091-p
+107    100091-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100092, 108    100092-p
+109    100092-p
+110    100092-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100097, 111    100097-p
+112    100097-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100115, 113    100115-p
+114    100115-p
+115    100115-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100127, 116    100127-p
+117    100127-p
+118    100127-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100135, 119    100135-p
+120    100135-p
+121    100135-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100277, 122    100277-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100278, 123    100278-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100285, 124    100285-p
+125    100285-p
+126    100285-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100288, 127    100288-p
+128    100288-p
+129    100288-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100290, 130    100290-p
+131    100290-p
+132    100290-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100329, 133    100329-p
+134    100329-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100332, 135    100332-p
+136    100332-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100343, 137    100343-p
+138    100343-p
+139    100343-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100351, 140    100351-p
+141    100351-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100356, 142    100356-p
+143    100356-p
+144    100356-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100362, 145    100362-p
+146    100362-p
+147    100362-p
+148    100362-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100390, 149    100390-p
+150    100390-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100401, 151    100401-p
+152    100401-p
+153    100401-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100402, 154    100402-p
+155    100402-p
+156    100402-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100406, 157    100406-p
+158    100406-p
+159    100406-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100408, 160    100408-p
+161    100408-p
+162    100408-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100409, 163    100409-p
+164    100409-p
+165    100409-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100420, 166    100420-p
+167    100420-p
+168    100420-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100421, 169    100421-p
+170    100421-p
+171    100421-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100422, 172    100422-p
+173    100422-p
+174    100422-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100423, 175    100423-p
+176    100423-p
+177    100423-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100425, 178    100425-p
+179    100425-p
+180    100425-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100441, 181    100441-p
+182    100441-p
+183    100441-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100444, 184    100444-p
+185    100444-p
+186    100444-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100456, 187    100456-p
+188    100456-p
+189    100456-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100465, 190    100465-p
+191    100465-p
+192    100465-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100467, 193    100467-p
+194    100467-p
+195    100467-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100475, 196    100475-p
+197    100475-p
+198    100475-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100477, 199    100477-p
+200    100477-p
+201    100477-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100479, 202    100479-p
+203    100479-p
+204    100479-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100484, 205    100484-p
+206    100484-p
+207    100484-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100490, 208    100490-p
+209    100490-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100503, 210    100503-p
+211    100503-p
+212    100503-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100511, 213    100511-p
+214    100511-p
+215    100511-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100541, 216    100541-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100542, 217    100542-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100543, 218    100543-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100546, 219    100546-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100553, 220    100553-p
+221    100553-r
+222    100553-p
+223    100553-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100554, 224    100554-p
+225    100554-p
+226    100554-p
+227    100554-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100590, 228    100590-p
+229    100590-r
+230    100590-p
+231    100590-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100604, 232    100604-p
+233    100604-p
+234    100604-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100605, 235    100605-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100606, 236    100606-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100614, 237    100614-p
+238    100614-p
+239    100614-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100618, 240    100618-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100619, 241    100619-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100620, 242    100620-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100621, 243    100621-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100622, 244    100622-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100623, 245    100623-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100624, 246    100624-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100625, 247    100625-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100628, 248    100628-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100629, 249    100629-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100630, 250    100630-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100632, 251    100632-r
+252    100632-p
+253    100632-p
+254    100632-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100643, 255    100643-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100644, 256    100644-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100645, 257    100645-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100646, 258    100646-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100654, 259    100654-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100656, 260    100656-p
+261    100656-p
+262    100656-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100660, 263    100660-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100672, 264    100672-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100674, 265    100674-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100678, 266    100678-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100710, 267    100710-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100736, 268    100736-p
+269    100736-p
+270    100736-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100738, 271    100738-p
+272    100738-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100739, 273    100739-p
+274    100739-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100740, 275    100740-p
+276    100740-p
+277    100740-p
+278    100740-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100741, 279    100741-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100749, 280    100749-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100750, 281    100750-p
+282    100750-p
+283    100750-p
+284    100750-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100752, 285    100752-r
+286    100752-p
+287    100752-p
+288    100752-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100753, 289    100753-p
+290    100753-p
+291    100753-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100776, 292    100776-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100777, 293    100777-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100782, 294    100782-r
+317    100782-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100800, 295    100800-r
+296    100800-p
+297    100800-p
+298    100800-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100801, 299    100801-p
+300    100801-p
+301    100801-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100804, 302    100804-p
+303    100804-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100821, 304    100821-p
+305    100821-p
+306    100821-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100860, 307    100860-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100862, 308    100862-r
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100904, 309    100904-p
+310    100904-p
+Name: id_modelo, dtype: object)</t>
+  </si>
+  <si>
+    <t>(100905, 311    100905-p
+312    100905-p
+313    100905-p
+314    100905-r
 Name: id_modelo, dtype: object)</t>
   </si>
 </sst>
@@ -1126,7 +1096,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1151,16 +1121,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>90528</v>
+        <v>99138</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>45448.41666666666</v>
+        <v>45449.27986111111</v>
       </c>
       <c r="E2" s="2">
-        <v>45448.77777777778</v>
+        <v>45449.53788888889</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1168,16 +1138,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>97713</v>
+        <v>99139</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>45448.41666666666</v>
+        <v>45449.27986111111</v>
       </c>
       <c r="E3" s="2">
-        <v>45448.74183333333</v>
+        <v>45449.53788888889</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1185,16 +1155,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>99087</v>
+        <v>99140</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>45448.29166666666</v>
+        <v>45449.31111111111</v>
       </c>
       <c r="E4" s="2">
-        <v>45448.61683333333</v>
+        <v>45449.56913888889</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1202,16 +1172,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>99088</v>
+        <v>99145</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>45448.33333333334</v>
+        <v>45449.44652777778</v>
       </c>
       <c r="E5" s="2">
-        <v>45448.6585</v>
+        <v>45449.70455555555</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1219,16 +1189,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>99089</v>
+        <v>99487</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>45448.375</v>
+        <v>45448.84722222222</v>
       </c>
       <c r="E6" s="2">
-        <v>45448.70016666667</v>
+        <v>45448.90277777778</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1236,16 +1206,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>99141</v>
+        <v>99647</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>45448.31111111111</v>
+        <v>45449.25</v>
       </c>
       <c r="E7" s="2">
-        <v>45448.56913888889</v>
+        <v>45449.44130555556</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1253,16 +1223,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>99143</v>
+        <v>99696</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>45448.34236111111</v>
+        <v>45449.36319444444</v>
       </c>
       <c r="E8" s="2">
-        <v>45448.60038888889</v>
+        <v>45449.62122222222</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1270,16 +1240,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>99698</v>
+        <v>99699</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>45448.45694444444</v>
+        <v>45449.44652777778</v>
       </c>
       <c r="E9" s="2">
-        <v>45448.71497222222</v>
+        <v>45449.70455555555</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1287,16 +1257,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>99700</v>
+        <v>99701</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2">
-        <v>45448.61319444444</v>
+        <v>45449.61319444444</v>
       </c>
       <c r="E10" s="2">
-        <v>45448.87122222222</v>
+        <v>45449.87122222222</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1304,16 +1274,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>99702</v>
+        <v>99704</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>45448.58194444444</v>
+        <v>45449.55069444444</v>
       </c>
       <c r="E11" s="2">
-        <v>45448.83997222222</v>
+        <v>45449.80872222222</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1321,16 +1291,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>99706</v>
+        <v>99709</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2">
-        <v>45448.42569444444</v>
+        <v>45449.58194444444</v>
       </c>
       <c r="E12" s="2">
-        <v>45448.68372222222</v>
+        <v>45449.83997222222</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1338,16 +1308,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>99711</v>
+        <v>99772</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2">
-        <v>45448.55069444444</v>
+        <v>45449.47777777778</v>
       </c>
       <c r="E13" s="2">
-        <v>45448.80872222222</v>
+        <v>45449.73580555555</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1355,16 +1325,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>99713</v>
+        <v>99812</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="2">
-        <v>45448.27986111111</v>
+        <v>45449.28680555556</v>
       </c>
       <c r="E14" s="2">
-        <v>45448.53788888889</v>
+        <v>45449.55809722222</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1372,16 +1342,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>99751</v>
+        <v>99813</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2">
-        <v>45448.5</v>
+        <v>45449.28680555556</v>
       </c>
       <c r="E15" s="2">
-        <v>45448.86111111111</v>
+        <v>45449.55809722222</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1389,16 +1359,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>99756</v>
+        <v>99839</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2">
-        <v>45448.52708333333</v>
+        <v>45448.72222222222</v>
       </c>
       <c r="E16" s="2">
-        <v>45448.58263888889</v>
+        <v>45449.87708333333</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1406,16 +1376,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>99803</v>
+        <v>99843</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="2">
-        <v>45448.32013888889</v>
+        <v>45448.72916666666</v>
       </c>
       <c r="E17" s="2">
-        <v>45448.55138888889</v>
+        <v>45448.78472222222</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1423,16 +1393,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>99824</v>
+        <v>99854</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2">
-        <v>45448.32152777778</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="E18" s="2">
-        <v>45448.57488888889</v>
+        <v>45448.975</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1440,16 +1410,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99854</v>
+        <v>99869</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="2">
-        <v>45448.70833333334</v>
+        <v>45448.94930555556</v>
       </c>
       <c r="E19" s="2">
-        <v>45448.975</v>
+        <v>45449.20972222222</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1457,16 +1427,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>99907</v>
+        <v>99871</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2">
-        <v>45448.6875</v>
+        <v>45448.83194444444</v>
       </c>
       <c r="E20" s="2">
-        <v>45448.98631944445</v>
+        <v>45448.8875</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1474,16 +1444,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>99944</v>
+        <v>99907</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="2">
-        <v>45448.61736111111</v>
+        <v>45448.6875</v>
       </c>
       <c r="E21" s="2">
-        <v>45448.91180555556</v>
+        <v>45448.98631944445</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1491,16 +1461,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>99945</v>
+        <v>99947</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="2">
-        <v>45448.54166666666</v>
+        <v>45449.61041666667</v>
       </c>
       <c r="E22" s="2">
-        <v>45448.87777777778</v>
+        <v>45449.94444444445</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1508,16 +1478,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>99965</v>
+        <v>99976</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="2">
-        <v>45448.31041666667</v>
+        <v>45449.35416666666</v>
       </c>
       <c r="E23" s="2">
-        <v>45448.54722222222</v>
+        <v>45449.69444444445</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1525,16 +1495,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>99968</v>
+        <v>99994</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="2">
-        <v>45448.47708333333</v>
+        <v>45449.66666666666</v>
       </c>
       <c r="E24" s="2">
-        <v>45448.71388888889</v>
+        <v>45450.02777777778</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1542,16 +1512,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>99973</v>
+        <v>99997</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="2">
-        <v>45448.625</v>
+        <v>45448.69722222222</v>
       </c>
       <c r="E25" s="2">
-        <v>45448.9625</v>
+        <v>45448.96865277778</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1559,16 +1529,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>99997</v>
+        <v>100024</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="2">
-        <v>45448.69722222222</v>
+        <v>45449.6</v>
       </c>
       <c r="E26" s="2">
-        <v>45448.96865277778</v>
+        <v>45449.97936111111</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1576,16 +1546,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>100006</v>
+        <v>100031</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="2">
-        <v>45448.47569444445</v>
+        <v>45449.1875</v>
       </c>
       <c r="E27" s="2">
-        <v>45448.80972222222</v>
+        <v>45449.56263888889</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1593,16 +1563,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>100019</v>
+        <v>100035</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="2">
-        <v>45448.5625</v>
+        <v>45448.66666666666</v>
       </c>
       <c r="E28" s="2">
-        <v>45448.90008333333</v>
+        <v>45449.08333333334</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1610,16 +1580,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>100035</v>
+        <v>100041</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="2">
-        <v>45448.66666666666</v>
+        <v>45448.6875</v>
       </c>
       <c r="E29" s="2">
-        <v>45449.08333333334</v>
+        <v>45449.10416666666</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1644,16 +1614,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>100058</v>
+        <v>100050</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="2">
-        <v>45448.27083333334</v>
+        <v>45449.54166666666</v>
       </c>
       <c r="E31" s="2">
-        <v>45448.6875</v>
+        <v>45449.86866666667</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1661,16 +1631,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>100069</v>
+        <v>100053</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="2">
-        <v>45448.35416666666</v>
+        <v>45449.33333333334</v>
       </c>
       <c r="E32" s="2">
-        <v>45448.75138888889</v>
+        <v>45449.71736111111</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1678,16 +1648,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>100070</v>
+        <v>100054</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="2">
-        <v>45448.1875</v>
+        <v>45449.31041666667</v>
       </c>
       <c r="E33" s="2">
-        <v>45448.520875</v>
+        <v>45449.59861111111</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1695,16 +1665,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>100074</v>
+        <v>100060</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="2">
-        <v>45448.6875</v>
+        <v>45449.66666666666</v>
       </c>
       <c r="E34" s="2">
-        <v>45449.06386111111</v>
+        <v>45450.01858333333</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1712,16 +1682,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>100077</v>
+        <v>100061</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="2">
-        <v>45448.25</v>
+        <v>45449.34444444445</v>
       </c>
       <c r="E35" s="2">
-        <v>45448.60094444444</v>
+        <v>45449.71138888889</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1729,16 +1699,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>100092</v>
+        <v>100068</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="2">
-        <v>45448.69166666667</v>
+        <v>45449.54166666666</v>
       </c>
       <c r="E36" s="2">
-        <v>45448.93997222222</v>
+        <v>45449.95833333334</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1746,16 +1716,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>100134</v>
+        <v>100074</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="2">
-        <v>45448.30277777778</v>
+        <v>45448.6875</v>
       </c>
       <c r="E37" s="2">
-        <v>45448.60416666666</v>
+        <v>45449.06386111111</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1763,16 +1733,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>100142</v>
+        <v>100076</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="2">
-        <v>45448.44861111111</v>
+        <v>45449.66666666666</v>
       </c>
       <c r="E38" s="2">
-        <v>45448.72880555555</v>
+        <v>45450.03886111111</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1780,16 +1750,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>100261</v>
+        <v>100091</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
       </c>
       <c r="D39" s="2">
-        <v>45448.33263888889</v>
+        <v>45449.66666666666</v>
       </c>
       <c r="E39" s="2">
-        <v>45448.62361111111</v>
+        <v>45450.02777777778</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1797,16 +1767,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>100262</v>
+        <v>100092</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="2">
-        <v>45448.41597222222</v>
+        <v>45448.69166666667</v>
       </c>
       <c r="E40" s="2">
-        <v>45448.70694444444</v>
+        <v>45448.93997222222</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1814,16 +1784,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>100263</v>
+        <v>100097</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="2">
-        <v>45448.37430555555</v>
+        <v>45449.28263888889</v>
       </c>
       <c r="E41" s="2">
-        <v>45448.66527777778</v>
+        <v>45449.425</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1831,16 +1801,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>100264</v>
+        <v>100115</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="2">
-        <v>45448.29097222222</v>
+        <v>45449.35416666666</v>
       </c>
       <c r="E42" s="2">
-        <v>45448.58194444444</v>
+        <v>45449.63668055556</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1848,16 +1818,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>100284</v>
+        <v>100127</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
       </c>
       <c r="D43" s="2">
-        <v>45448.41666666666</v>
+        <v>45449.30277777778</v>
       </c>
       <c r="E43" s="2">
-        <v>45448.80277777778</v>
+        <v>45449.60833333333</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1865,16 +1835,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>100289</v>
+        <v>100135</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="2">
-        <v>45448.27083333334</v>
+        <v>45449.30277777778</v>
       </c>
       <c r="E44" s="2">
-        <v>45448.65694444445</v>
+        <v>45449.60416666666</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1882,16 +1852,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>100326</v>
+        <v>100277</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="2">
-        <v>45448.35416666666</v>
+        <v>45449.43888888889</v>
       </c>
       <c r="E45" s="2">
-        <v>45448.74027777778</v>
+        <v>45449.49444444444</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1899,16 +1869,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>100327</v>
+        <v>100278</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="2">
-        <v>45448.27708333333</v>
+        <v>45448.81666666667</v>
       </c>
       <c r="E46" s="2">
-        <v>45448.44130555556</v>
+        <v>45448.87222222222</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1916,16 +1886,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>100331</v>
+        <v>100285</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="2">
-        <v>45448.40208333333</v>
+        <v>45449.35416666666</v>
       </c>
       <c r="E47" s="2">
-        <v>45448.68783333333</v>
+        <v>45449.74027777778</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1933,16 +1903,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>100335</v>
+        <v>100288</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
       </c>
       <c r="D48" s="2">
-        <v>45448.31875</v>
+        <v>45449.27083333334</v>
       </c>
       <c r="E48" s="2">
-        <v>45448.6045</v>
+        <v>45449.65694444445</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1950,16 +1920,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>100341</v>
+        <v>100290</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
       </c>
       <c r="D49" s="2">
-        <v>45448.55555555555</v>
+        <v>45449.41666666666</v>
       </c>
       <c r="E49" s="2">
-        <v>45448.61111111111</v>
+        <v>45449.80277777778</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1967,16 +1937,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>100362</v>
+        <v>100329</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
       </c>
       <c r="D50" s="2">
-        <v>45448.89583333334</v>
+        <v>45449.40208333333</v>
       </c>
       <c r="E50" s="2">
-        <v>45448.95138888889</v>
+        <v>45449.56630555556</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1984,16 +1954,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>100363</v>
+        <v>100332</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
       </c>
       <c r="D51" s="2">
-        <v>45448.26388888889</v>
+        <v>45449.40694444445</v>
       </c>
       <c r="E51" s="2">
-        <v>45448.61636111111</v>
+        <v>45449.56630555556</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2001,16 +1971,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>100364</v>
+        <v>100343</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
       </c>
       <c r="D52" s="2">
-        <v>45448.64236111111</v>
+        <v>45449.66666666666</v>
       </c>
       <c r="E52" s="2">
-        <v>45448.69791666666</v>
+        <v>45450.02777777778</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2018,16 +1988,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>100373</v>
+        <v>100351</v>
       </c>
       <c r="C53" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="2">
-        <v>45448.27083333334</v>
+        <v>45449.31875</v>
       </c>
       <c r="E53" s="2">
-        <v>45448.61202777778</v>
+        <v>45449.48297222222</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2035,16 +2005,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>100379</v>
+        <v>100356</v>
       </c>
       <c r="C54" t="s">
         <v>56</v>
       </c>
       <c r="D54" s="2">
-        <v>45448.29166666666</v>
+        <v>45449.29166666666</v>
       </c>
       <c r="E54" s="2">
-        <v>45448.67430555556</v>
+        <v>45449.55138888889</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2052,16 +2022,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>100382</v>
+        <v>100362</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
       </c>
       <c r="D55" s="2">
-        <v>45448.29166666666</v>
+        <v>45448.89583333334</v>
       </c>
       <c r="E55" s="2">
-        <v>45448.48297222222</v>
+        <v>45449.61636111111</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2069,16 +2039,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>100386</v>
+        <v>100390</v>
       </c>
       <c r="C56" t="s">
         <v>58</v>
       </c>
       <c r="D56" s="2">
-        <v>45448.375</v>
+        <v>45449.5</v>
       </c>
       <c r="E56" s="2">
-        <v>45448.70486111111</v>
+        <v>45449.69130555556</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2086,16 +2056,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>100388</v>
+        <v>100401</v>
       </c>
       <c r="C57" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="2">
-        <v>45448.29166666666</v>
+        <v>45449.29861111111</v>
       </c>
       <c r="E57" s="2">
-        <v>45448.62152777778</v>
+        <v>45449.60277777778</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2120,16 +2090,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>100417</v>
+        <v>100406</v>
       </c>
       <c r="C59" t="s">
         <v>61</v>
       </c>
       <c r="D59" s="2">
-        <v>45448.54861111111</v>
+        <v>45449.39444444444</v>
       </c>
       <c r="E59" s="2">
-        <v>45448.89691666666</v>
+        <v>45449.74027777778</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2137,16 +2107,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>100421</v>
+        <v>100408</v>
       </c>
       <c r="C60" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="2">
-        <v>45448.69930555556</v>
+        <v>45449.70833333334</v>
       </c>
       <c r="E60" s="2">
-        <v>45449.02897222222</v>
+        <v>45450.09305555555</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2154,16 +2124,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>100434</v>
+        <v>100409</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="2">
-        <v>45448.52083333334</v>
+        <v>45449.39583333334</v>
       </c>
       <c r="E61" s="2">
-        <v>45448.9375</v>
+        <v>45449.72430555556</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2171,16 +2141,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>100442</v>
+        <v>100420</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
       </c>
       <c r="D62" s="2">
-        <v>45448.61180555556</v>
+        <v>45449.61388888889</v>
       </c>
       <c r="E62" s="2">
-        <v>45448.95233333333</v>
+        <v>45449.9125</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2188,16 +2158,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>100444</v>
+        <v>100421</v>
       </c>
       <c r="C63" t="s">
         <v>65</v>
       </c>
       <c r="D63" s="2">
-        <v>45448.7375</v>
+        <v>45448.69930555556</v>
       </c>
       <c r="E63" s="2">
-        <v>45449.05140277778</v>
+        <v>45449.02897222222</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2205,16 +2175,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>100465</v>
+        <v>100422</v>
       </c>
       <c r="C64" t="s">
         <v>66</v>
       </c>
       <c r="D64" s="2">
-        <v>45448.69236111111</v>
+        <v>45449.39444444444</v>
       </c>
       <c r="E64" s="2">
-        <v>45449.08333333334</v>
+        <v>45449.66597222222</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2222,16 +2192,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>100477</v>
+        <v>100423</v>
       </c>
       <c r="C65" t="s">
         <v>67</v>
       </c>
       <c r="D65" s="2">
-        <v>45448.70833333334</v>
+        <v>45449.77083333334</v>
       </c>
       <c r="E65" s="2">
-        <v>45449.02152777778</v>
+        <v>45450.15416666667</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2239,16 +2209,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>100479</v>
+        <v>100425</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
       </c>
       <c r="D66" s="2">
-        <v>45448.70833333334</v>
+        <v>45449.25</v>
       </c>
       <c r="E66" s="2">
-        <v>45449.17876388889</v>
+        <v>45449.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2256,16 +2226,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>100490</v>
+        <v>100441</v>
       </c>
       <c r="C67" t="s">
         <v>69</v>
       </c>
       <c r="D67" s="2">
-        <v>45448.61597222222</v>
+        <v>45449.66666666666</v>
       </c>
       <c r="E67" s="2">
-        <v>45448.75833333333</v>
+        <v>45450.05569444445</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2273,16 +2243,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>100496</v>
+        <v>100444</v>
       </c>
       <c r="C68" t="s">
         <v>70</v>
       </c>
       <c r="D68" s="2">
-        <v>45448.39583333334</v>
+        <v>45448.7375</v>
       </c>
       <c r="E68" s="2">
-        <v>45448.72361111111</v>
+        <v>45449.05140277778</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2290,16 +2260,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>100511</v>
+        <v>100456</v>
       </c>
       <c r="C69" t="s">
         <v>71</v>
       </c>
       <c r="D69" s="2">
-        <v>45448.70833333334</v>
+        <v>45449.64583333334</v>
       </c>
       <c r="E69" s="2">
-        <v>45449.07955555555</v>
+        <v>45449.96204166667</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2307,16 +2277,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>100530</v>
+        <v>100465</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
       </c>
       <c r="D70" s="2">
-        <v>45448.20833333334</v>
+        <v>45448.69236111111</v>
       </c>
       <c r="E70" s="2">
-        <v>45448.53611111111</v>
+        <v>45449.08333333334</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2324,16 +2294,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>100540</v>
+        <v>100467</v>
       </c>
       <c r="C71" t="s">
         <v>73</v>
       </c>
       <c r="D71" s="2">
-        <v>45448.41944444444</v>
+        <v>45449.69375</v>
       </c>
       <c r="E71" s="2">
-        <v>45448.475</v>
+        <v>45450.01594444444</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2341,16 +2311,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>100541</v>
+        <v>100475</v>
       </c>
       <c r="C72" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="2">
-        <v>45448.69444444445</v>
+        <v>45449.27083333334</v>
       </c>
       <c r="E72" s="2">
-        <v>45448.75</v>
+        <v>45449.59930555556</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2358,16 +2328,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>100542</v>
+        <v>100477</v>
       </c>
       <c r="C73" t="s">
         <v>75</v>
       </c>
       <c r="D73" s="2">
-        <v>45448.69444444445</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="E73" s="2">
-        <v>45448.75</v>
+        <v>45449.02152777778</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2375,16 +2345,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>100543</v>
+        <v>100479</v>
       </c>
       <c r="C74" t="s">
         <v>76</v>
       </c>
       <c r="D74" s="2">
-        <v>45448.73472222222</v>
+        <v>45448.70833333334</v>
       </c>
       <c r="E74" s="2">
-        <v>45448.79027777778</v>
+        <v>45449.17876388889</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2392,16 +2362,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>100553</v>
+        <v>100484</v>
       </c>
       <c r="C75" t="s">
         <v>77</v>
       </c>
       <c r="D75" s="2">
-        <v>45448.69583333333</v>
+        <v>45449.7125</v>
       </c>
       <c r="E75" s="2">
-        <v>45448.75138888889</v>
+        <v>45450.08655555556</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2409,16 +2379,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>100554</v>
+        <v>100490</v>
       </c>
       <c r="C76" t="s">
         <v>78</v>
       </c>
       <c r="D76" s="2">
-        <v>45448.8375</v>
+        <v>45448.67847222222</v>
       </c>
       <c r="E76" s="2">
-        <v>45448.89305555556</v>
+        <v>45448.82083333333</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2426,16 +2396,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>100556</v>
+        <v>100503</v>
       </c>
       <c r="C77" t="s">
         <v>79</v>
       </c>
       <c r="D77" s="2">
-        <v>45448.35416666666</v>
+        <v>45449.66666666666</v>
       </c>
       <c r="E77" s="2">
-        <v>45448.66491666667</v>
+        <v>45449.94644444445</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2443,16 +2413,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>100590</v>
+        <v>100511</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
       </c>
       <c r="D78" s="2">
-        <v>45448.75833333333</v>
+        <v>45449.70833333334</v>
       </c>
       <c r="E78" s="2">
-        <v>45448.81388888889</v>
+        <v>45450.07955555555</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2460,16 +2430,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>100603</v>
+        <v>100541</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
       </c>
       <c r="D79" s="2">
-        <v>45448.29583333333</v>
+        <v>45448.725</v>
       </c>
       <c r="E79" s="2">
-        <v>45448.63263888889</v>
+        <v>45448.78055555555</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2477,16 +2447,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>100604</v>
+        <v>100542</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
       </c>
       <c r="D80" s="2">
-        <v>45448.46944444445</v>
+        <v>45448.69444444445</v>
       </c>
       <c r="E80" s="2">
-        <v>45448.525</v>
+        <v>45448.75</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2494,16 +2464,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>100610</v>
+        <v>100543</v>
       </c>
       <c r="C81" t="s">
         <v>83</v>
       </c>
       <c r="D81" s="2">
-        <v>45448.41527777778</v>
+        <v>45448.73472222222</v>
       </c>
       <c r="E81" s="2">
-        <v>45448.47083333333</v>
+        <v>45448.79027777778</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2511,16 +2481,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>100611</v>
+        <v>100546</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
       </c>
       <c r="D82" s="2">
-        <v>45448.43611111111</v>
+        <v>45449.56111111111</v>
       </c>
       <c r="E82" s="2">
-        <v>45448.49166666667</v>
+        <v>45449.61666666667</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2528,16 +2498,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>100612</v>
+        <v>100553</v>
       </c>
       <c r="C83" t="s">
         <v>85</v>
       </c>
       <c r="D83" s="2">
-        <v>45448.41388888889</v>
+        <v>45448.69583333333</v>
       </c>
       <c r="E83" s="2">
-        <v>45448.46944444445</v>
+        <v>45449.61908333333</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2545,16 +2515,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>100613</v>
+        <v>100554</v>
       </c>
       <c r="C84" t="s">
         <v>86</v>
       </c>
       <c r="D84" s="2">
-        <v>45448.54722222222</v>
+        <v>45448.8375</v>
       </c>
       <c r="E84" s="2">
-        <v>45448.60277777778</v>
+        <v>45449.77533333333</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2562,16 +2532,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>100614</v>
+        <v>100590</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
       </c>
       <c r="D85" s="2">
-        <v>45448.32916666667</v>
+        <v>45448.75833333333</v>
       </c>
       <c r="E85" s="2">
-        <v>45448.38472222222</v>
+        <v>45449.66483333334</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2579,16 +2549,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>100615</v>
+        <v>100604</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
       </c>
       <c r="D86" s="2">
-        <v>45448.52708333333</v>
+        <v>45449.27013888889</v>
       </c>
       <c r="E86" s="2">
-        <v>45448.58263888889</v>
+        <v>45449.53844444444</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2596,16 +2566,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>100616</v>
+        <v>100605</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
       </c>
       <c r="D87" s="2">
-        <v>45448.41111111111</v>
+        <v>45448.72916666666</v>
       </c>
       <c r="E87" s="2">
-        <v>45448.46666666667</v>
+        <v>45448.78472222222</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2613,16 +2583,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>100617</v>
+        <v>100606</v>
       </c>
       <c r="C88" t="s">
         <v>90</v>
       </c>
       <c r="D88" s="2">
-        <v>45448.34236111111</v>
+        <v>45449.33888888889</v>
       </c>
       <c r="E88" s="2">
-        <v>45448.39791666667</v>
+        <v>45449.39444444444</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2630,16 +2600,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>100636</v>
+        <v>100614</v>
       </c>
       <c r="C89" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="2">
-        <v>45448.55694444444</v>
+        <v>45449.72013888889</v>
       </c>
       <c r="E89" s="2">
-        <v>45448.6125</v>
+        <v>45450.00715277778</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2647,16 +2617,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>100642</v>
+        <v>100618</v>
       </c>
       <c r="C90" t="s">
         <v>92</v>
       </c>
       <c r="D90" s="2">
-        <v>45448.55486111111</v>
+        <v>45448.81666666667</v>
       </c>
       <c r="E90" s="2">
-        <v>45448.61041666667</v>
+        <v>45448.87222222222</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2664,16 +2634,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>100650</v>
+        <v>100619</v>
       </c>
       <c r="C91" t="s">
         <v>93</v>
       </c>
       <c r="D91" s="2">
-        <v>45448.16875</v>
+        <v>45448.84583333333</v>
       </c>
       <c r="E91" s="2">
-        <v>45448.22430555556</v>
+        <v>45448.90138888889</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2681,16 +2651,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>100651</v>
+        <v>100620</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
       </c>
       <c r="D92" s="2">
-        <v>45448.53680555556</v>
+        <v>45448.83333333334</v>
       </c>
       <c r="E92" s="2">
-        <v>45448.59236111111</v>
+        <v>45448.88888888889</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2698,16 +2668,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>100653</v>
+        <v>100621</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
       </c>
       <c r="D93" s="2">
-        <v>45448.44861111111</v>
+        <v>45448.68611111111</v>
       </c>
       <c r="E93" s="2">
-        <v>45448.50416666667</v>
+        <v>45448.74166666667</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2715,16 +2685,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>100654</v>
+        <v>100622</v>
       </c>
       <c r="C94" t="s">
         <v>96</v>
       </c>
       <c r="D94" s="2">
-        <v>45448.57361111111</v>
+        <v>45448.70972222222</v>
       </c>
       <c r="E94" s="2">
-        <v>45448.62916666667</v>
+        <v>45448.76527777778</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2732,16 +2702,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>100656</v>
+        <v>100623</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
       </c>
       <c r="D95" s="2">
-        <v>45448.51527777778</v>
+        <v>45448.68333333333</v>
       </c>
       <c r="E95" s="2">
-        <v>45448.57083333333</v>
+        <v>45448.73888888889</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2749,16 +2719,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>100658</v>
+        <v>100624</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
       </c>
       <c r="D96" s="2">
-        <v>45448.725</v>
+        <v>45448.88055555556</v>
       </c>
       <c r="E96" s="2">
-        <v>45448.78055555555</v>
+        <v>45448.93611111111</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2766,16 +2736,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>100660</v>
+        <v>100625</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
       </c>
       <c r="D97" s="2">
-        <v>45448.64583333334</v>
+        <v>45448.7125</v>
       </c>
       <c r="E97" s="2">
-        <v>45448.70138888889</v>
+        <v>45448.76805555556</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2783,16 +2753,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>100661</v>
+        <v>100628</v>
       </c>
       <c r="C98" t="s">
         <v>100</v>
       </c>
       <c r="D98" s="2">
-        <v>45448.55694444444</v>
+        <v>45448.69583333333</v>
       </c>
       <c r="E98" s="2">
-        <v>45448.6125</v>
+        <v>45448.75138888889</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2800,16 +2770,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>100663</v>
+        <v>100629</v>
       </c>
       <c r="C99" t="s">
         <v>101</v>
       </c>
       <c r="D99" s="2">
-        <v>45448.74722222222</v>
+        <v>45448.73055555556</v>
       </c>
       <c r="E99" s="2">
-        <v>45448.80277777778</v>
+        <v>45448.78611111111</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2817,16 +2787,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>100667</v>
+        <v>100630</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
       </c>
       <c r="D100" s="2">
-        <v>45448.425</v>
+        <v>45449.52083333334</v>
       </c>
       <c r="E100" s="2">
-        <v>45448.48055555556</v>
+        <v>45449.57638888889</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2834,16 +2804,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>100669</v>
+        <v>100632</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
       </c>
       <c r="D101" s="2">
-        <v>45448.35416666666</v>
+        <v>45448.74027777778</v>
       </c>
       <c r="E101" s="2">
-        <v>45448.40972222222</v>
+        <v>45450.02777777778</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2851,16 +2821,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>100672</v>
+        <v>100643</v>
       </c>
       <c r="C102" t="s">
         <v>104</v>
       </c>
       <c r="D102" s="2">
-        <v>45448.37847222222</v>
+        <v>45449.37638888889</v>
       </c>
       <c r="E102" s="2">
-        <v>45448.43402777778</v>
+        <v>45449.43194444444</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2868,16 +2838,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>100673</v>
+        <v>100644</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
       </c>
       <c r="D103" s="2">
-        <v>45448.44722222222</v>
+        <v>45448.85277777778</v>
       </c>
       <c r="E103" s="2">
-        <v>45448.50277777778</v>
+        <v>45448.90833333333</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2885,16 +2855,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>100674</v>
+        <v>100645</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
       </c>
       <c r="D104" s="2">
-        <v>45448.72916666666</v>
+        <v>45448.69722222222</v>
       </c>
       <c r="E104" s="2">
-        <v>45448.78472222222</v>
+        <v>45448.75277777778</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2902,16 +2872,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>100678</v>
+        <v>100646</v>
       </c>
       <c r="C105" t="s">
         <v>107</v>
       </c>
       <c r="D105" s="2">
-        <v>45448.56388888889</v>
+        <v>45449.45833333334</v>
       </c>
       <c r="E105" s="2">
-        <v>45448.61944444444</v>
+        <v>45449.51388888889</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2919,16 +2889,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>100680</v>
+        <v>100654</v>
       </c>
       <c r="C106" t="s">
         <v>108</v>
       </c>
       <c r="D106" s="2">
-        <v>45448.73055555556</v>
+        <v>45448.725</v>
       </c>
       <c r="E106" s="2">
-        <v>45448.78611111111</v>
+        <v>45448.78055555555</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2936,16 +2906,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>100681</v>
+        <v>100656</v>
       </c>
       <c r="C107" t="s">
         <v>109</v>
       </c>
       <c r="D107" s="2">
-        <v>45448.74305555555</v>
+        <v>45449.33333333334</v>
       </c>
       <c r="E107" s="2">
-        <v>45448.79861111111</v>
+        <v>45449.641</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2953,16 +2923,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>100682</v>
+        <v>100660</v>
       </c>
       <c r="C108" t="s">
         <v>110</v>
       </c>
       <c r="D108" s="2">
-        <v>45448.50833333333</v>
+        <v>45448.74722222222</v>
       </c>
       <c r="E108" s="2">
-        <v>45448.56388888889</v>
+        <v>45448.80277777778</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2970,16 +2940,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>100684</v>
+        <v>100672</v>
       </c>
       <c r="C109" t="s">
         <v>111</v>
       </c>
       <c r="D109" s="2">
-        <v>45448.33611111111</v>
+        <v>45448.72916666666</v>
       </c>
       <c r="E109" s="2">
-        <v>45448.39166666667</v>
+        <v>45448.78472222222</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2987,16 +2957,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>100685</v>
+        <v>100674</v>
       </c>
       <c r="C110" t="s">
         <v>112</v>
       </c>
       <c r="D110" s="2">
-        <v>45448.38888888889</v>
+        <v>45448.73055555556</v>
       </c>
       <c r="E110" s="2">
-        <v>45448.44444444445</v>
+        <v>45448.78611111111</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3004,16 +2974,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>100686</v>
+        <v>100678</v>
       </c>
       <c r="C111" t="s">
         <v>113</v>
       </c>
       <c r="D111" s="2">
-        <v>45448.58194444444</v>
+        <v>45448.74305555555</v>
       </c>
       <c r="E111" s="2">
-        <v>45448.6375</v>
+        <v>45448.79861111111</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3021,16 +2991,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>100689</v>
+        <v>100710</v>
       </c>
       <c r="C112" t="s">
         <v>114</v>
       </c>
       <c r="D112" s="2">
-        <v>45448.39583333334</v>
+        <v>45448.72222222222</v>
       </c>
       <c r="E112" s="2">
-        <v>45448.45138888889</v>
+        <v>45448.77777777778</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3038,16 +3008,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>100690</v>
+        <v>100736</v>
       </c>
       <c r="C113" t="s">
         <v>115</v>
       </c>
       <c r="D113" s="2">
-        <v>45448.41944444444</v>
+        <v>45448.71388888889</v>
       </c>
       <c r="E113" s="2">
-        <v>45448.475</v>
+        <v>45449.48233333333</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3055,16 +3025,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>100695</v>
+        <v>100738</v>
       </c>
       <c r="C114" t="s">
         <v>116</v>
       </c>
       <c r="D114" s="2">
-        <v>45448.45208333333</v>
+        <v>45449.28888888889</v>
       </c>
       <c r="E114" s="2">
-        <v>45448.50763888889</v>
+        <v>45449.48233333333</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3072,16 +3042,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>100696</v>
+        <v>100739</v>
       </c>
       <c r="C115" t="s">
         <v>117</v>
       </c>
       <c r="D115" s="2">
-        <v>45448.375</v>
+        <v>45449.28888888889</v>
       </c>
       <c r="E115" s="2">
-        <v>45448.43055555555</v>
+        <v>45449.48233333333</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3089,16 +3059,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>100702</v>
+        <v>100740</v>
       </c>
       <c r="C116" t="s">
         <v>118</v>
       </c>
       <c r="D116" s="2">
-        <v>45448.55416666667</v>
+        <v>45448.84930555556</v>
       </c>
       <c r="E116" s="2">
-        <v>45448.60972222222</v>
+        <v>45449.62361111111</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3106,16 +3076,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>100706</v>
+        <v>100741</v>
       </c>
       <c r="C117" t="s">
         <v>119</v>
       </c>
       <c r="D117" s="2">
-        <v>45448.5375</v>
+        <v>45449.35555555556</v>
       </c>
       <c r="E117" s="2">
-        <v>45448.59305555555</v>
+        <v>45449.41111111111</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3123,16 +3093,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>100707</v>
+        <v>100749</v>
       </c>
       <c r="C118" t="s">
         <v>120</v>
       </c>
       <c r="D118" s="2">
-        <v>45448.38055555556</v>
+        <v>45449.575</v>
       </c>
       <c r="E118" s="2">
-        <v>45448.43611111111</v>
+        <v>45449.63055555556</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3140,16 +3110,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>100710</v>
+        <v>100750</v>
       </c>
       <c r="C119" t="s">
         <v>121</v>
       </c>
       <c r="D119" s="2">
-        <v>45448.55138888889</v>
+        <v>45449.41944444444</v>
       </c>
       <c r="E119" s="2">
-        <v>45448.60694444444</v>
+        <v>45449.80380555556</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3157,16 +3127,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>100728</v>
+        <v>100752</v>
       </c>
       <c r="C120" t="s">
         <v>122</v>
       </c>
       <c r="D120" s="2">
-        <v>45448.42222222222</v>
+        <v>45449.42083333333</v>
       </c>
       <c r="E120" s="2">
-        <v>45448.47777777778</v>
+        <v>45449.80380555556</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3174,16 +3144,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>100729</v>
+        <v>100753</v>
       </c>
       <c r="C121" t="s">
         <v>123</v>
       </c>
       <c r="D121" s="2">
-        <v>45448.5625</v>
+        <v>45449.30972222222</v>
       </c>
       <c r="E121" s="2">
-        <v>45448.61805555555</v>
+        <v>45449.60980555556</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3191,16 +3161,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>100734</v>
+        <v>100776</v>
       </c>
       <c r="C122" t="s">
         <v>124</v>
       </c>
       <c r="D122" s="2">
-        <v>45448.72222222222</v>
+        <v>45448.84861111111</v>
       </c>
       <c r="E122" s="2">
-        <v>45448.77777777778</v>
+        <v>45448.90416666667</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3208,16 +3178,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>100736</v>
+        <v>100777</v>
       </c>
       <c r="C123" t="s">
         <v>125</v>
       </c>
       <c r="D123" s="2">
-        <v>45448.32361111111</v>
+        <v>45448.89305555556</v>
       </c>
       <c r="E123" s="2">
-        <v>45448.47916666666</v>
+        <v>45448.94861111111</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3225,16 +3195,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>100738</v>
+        <v>100782</v>
       </c>
       <c r="C124" t="s">
         <v>126</v>
       </c>
       <c r="D124" s="2">
-        <v>45448.45902777778</v>
+        <v>45448.69305555556</v>
       </c>
       <c r="E124" s="2">
-        <v>45448.61458333334</v>
+        <v>45448.77638888889</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3242,16 +3212,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>100739</v>
+        <v>100800</v>
       </c>
       <c r="C125" t="s">
         <v>127</v>
       </c>
       <c r="D125" s="2">
-        <v>45448.58333333334</v>
+        <v>45448.74444444444</v>
       </c>
       <c r="E125" s="2">
-        <v>45448.79166666666</v>
+        <v>45449.61202777778</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3259,16 +3229,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>100740</v>
+        <v>100801</v>
       </c>
       <c r="C126" t="s">
         <v>128</v>
       </c>
       <c r="D126" s="2">
-        <v>45448.71388888889</v>
+        <v>45449.57222222222</v>
       </c>
       <c r="E126" s="2">
-        <v>45448.76944444444</v>
+        <v>45449.87083333333</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3276,16 +3246,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>100753</v>
+        <v>100804</v>
       </c>
       <c r="C127" t="s">
         <v>129</v>
       </c>
       <c r="D127" s="2">
-        <v>45448.55833333333</v>
+        <v>45449.70833333334</v>
       </c>
       <c r="E127" s="2">
-        <v>45448.61388888889</v>
+        <v>45449.91666666666</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3293,16 +3263,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>100766</v>
+        <v>100821</v>
       </c>
       <c r="C128" t="s">
         <v>130</v>
       </c>
       <c r="D128" s="2">
-        <v>45448.55694444444</v>
+        <v>45449.27083333334</v>
       </c>
       <c r="E128" s="2">
-        <v>45448.6125</v>
+        <v>45449.71805555555</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3310,16 +3280,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>100767</v>
+        <v>100860</v>
       </c>
       <c r="C129" t="s">
         <v>131</v>
       </c>
       <c r="D129" s="2">
-        <v>45448.84930555556</v>
+        <v>45449.47222222222</v>
       </c>
       <c r="E129" s="2">
-        <v>45448.90486111111</v>
+        <v>45449.52777777778</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3327,16 +3297,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>100768</v>
+        <v>100862</v>
       </c>
       <c r="C130" t="s">
         <v>132</v>
       </c>
       <c r="D130" s="2">
-        <v>45448.65277777778</v>
+        <v>45449.53472222222</v>
       </c>
       <c r="E130" s="2">
-        <v>45448.70833333334</v>
+        <v>45449.59027777778</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3344,16 +3314,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>100770</v>
+        <v>100904</v>
       </c>
       <c r="C131" t="s">
         <v>133</v>
       </c>
       <c r="D131" s="2">
-        <v>45448.44236111111</v>
+        <v>45449.54166666666</v>
       </c>
       <c r="E131" s="2">
-        <v>45448.49791666667</v>
+        <v>45449.75</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3361,356 +3331,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>100771</v>
+        <v>100905</v>
       </c>
       <c r="C132" t="s">
         <v>134</v>
       </c>
       <c r="D132" s="2">
-        <v>45448.39722222222</v>
+        <v>45448.70555555556</v>
       </c>
       <c r="E132" s="2">
-        <v>45448.45277777778</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>100772</v>
-      </c>
-      <c r="C133" t="s">
-        <v>135</v>
-      </c>
-      <c r="D133" s="2">
-        <v>45448.37847222222</v>
-      </c>
-      <c r="E133" s="2">
-        <v>45448.43402777778</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>100773</v>
-      </c>
-      <c r="C134" t="s">
-        <v>136</v>
-      </c>
-      <c r="D134" s="2">
-        <v>45448.36666666667</v>
-      </c>
-      <c r="E134" s="2">
-        <v>45448.42222222222</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>100774</v>
-      </c>
-      <c r="C135" t="s">
-        <v>137</v>
-      </c>
-      <c r="D135" s="2">
-        <v>45448.39513888889</v>
-      </c>
-      <c r="E135" s="2">
-        <v>45448.45069444444</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>100775</v>
-      </c>
-      <c r="C136" t="s">
-        <v>138</v>
-      </c>
-      <c r="D136" s="2">
-        <v>45448.35138888889</v>
-      </c>
-      <c r="E136" s="2">
-        <v>45448.40694444445</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>100778</v>
-      </c>
-      <c r="C137" t="s">
-        <v>139</v>
-      </c>
-      <c r="D137" s="2">
-        <v>45448.43194444444</v>
-      </c>
-      <c r="E137" s="2">
-        <v>45448.4875</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>100782</v>
-      </c>
-      <c r="C138" t="s">
-        <v>140</v>
-      </c>
-      <c r="D138" s="2">
-        <v>45448.33194444444</v>
-      </c>
-      <c r="E138" s="2">
-        <v>45448.3875</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>100794</v>
-      </c>
-      <c r="C139" t="s">
-        <v>141</v>
-      </c>
-      <c r="D139" s="2">
-        <v>45448.44027777778</v>
-      </c>
-      <c r="E139" s="2">
-        <v>45448.49583333333</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>100795</v>
-      </c>
-      <c r="C140" t="s">
-        <v>142</v>
-      </c>
-      <c r="D140" s="2">
-        <v>45448.53541666667</v>
-      </c>
-      <c r="E140" s="2">
-        <v>45448.59097222222</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>100796</v>
-      </c>
-      <c r="C141" t="s">
-        <v>143</v>
-      </c>
-      <c r="D141" s="2">
-        <v>45448.69305555556</v>
-      </c>
-      <c r="E141" s="2">
-        <v>45448.77638888889</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>100797</v>
-      </c>
-      <c r="C142" t="s">
-        <v>144</v>
-      </c>
-      <c r="D142" s="2">
-        <v>45448.43472222222</v>
-      </c>
-      <c r="E142" s="2">
-        <v>45448.49027777778</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>100801</v>
-      </c>
-      <c r="C143" t="s">
-        <v>145</v>
-      </c>
-      <c r="D143" s="2">
-        <v>45448.40694444445</v>
-      </c>
-      <c r="E143" s="2">
-        <v>45448.4625</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>100802</v>
-      </c>
-      <c r="C144" t="s">
-        <v>146</v>
-      </c>
-      <c r="D144" s="2">
-        <v>45448.44444444445</v>
-      </c>
-      <c r="E144" s="2">
-        <v>45448.5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>100803</v>
-      </c>
-      <c r="C145" t="s">
-        <v>147</v>
-      </c>
-      <c r="D145" s="2">
-        <v>45448.45694444444</v>
-      </c>
-      <c r="E145" s="2">
-        <v>45448.5125</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>100804</v>
-      </c>
-      <c r="C146" t="s">
-        <v>148</v>
-      </c>
-      <c r="D146" s="2">
-        <v>45448.66319444445</v>
-      </c>
-      <c r="E146" s="2">
-        <v>45448.71875</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>100805</v>
-      </c>
-      <c r="C147" t="s">
-        <v>149</v>
-      </c>
-      <c r="D147" s="2">
-        <v>45448.67013888889</v>
-      </c>
-      <c r="E147" s="2">
-        <v>45448.72569444445</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>100821</v>
-      </c>
-      <c r="C148" t="s">
-        <v>150</v>
-      </c>
-      <c r="D148" s="2">
-        <v>45448.55555555555</v>
-      </c>
-      <c r="E148" s="2">
-        <v>45448.61111111111</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>100807</v>
-      </c>
-      <c r="C149" t="s">
-        <v>151</v>
-      </c>
-      <c r="D149" s="2">
-        <v>45448.375</v>
-      </c>
-      <c r="E149" s="2">
-        <v>45448.48611111111</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>100640</v>
-      </c>
-      <c r="C150" t="s">
-        <v>152</v>
-      </c>
-      <c r="D150" s="2">
-        <v>45448.56388888889</v>
-      </c>
-      <c r="E150" s="2">
-        <v>45448.61944444444</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>100631</v>
-      </c>
-      <c r="C151" t="s">
-        <v>153</v>
-      </c>
-      <c r="D151" s="2">
-        <v>45448.38611111111</v>
-      </c>
-      <c r="E151" s="2">
-        <v>45448.44166666667</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>100703</v>
-      </c>
-      <c r="C152" t="s">
-        <v>154</v>
-      </c>
-      <c r="D152" s="2">
-        <v>45448.56111111111</v>
-      </c>
-      <c r="E152" s="2">
-        <v>45448.61666666667</v>
+        <v>45449.56944444445</v>
       </c>
     </row>
   </sheetData>
